--- a/LWD_NMR_DSP/新版数据空间分配.xlsx
+++ b/LWD_NMR_DSP/新版数据空间分配.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716F2AE4-79AF-4F7B-842C-EB965D8F4859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208E5919-8AE5-4869-AD61-4765045A5E3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2953,10 +2953,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AutoAcqThd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>IntervalCaseDet</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3254,6 +3250,10 @@
   </si>
   <si>
     <t>Period</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoAmpThd</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3595,26 +3595,17 @@
     <xf numFmtId="49" fontId="13" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3637,11 +3628,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4022,8 +4022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4087,8 +4087,8 @@
       <c r="G2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="26" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4113,8 +4113,8 @@
       <c r="G3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="29"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="10">
@@ -4140,7 +4140,7 @@
       <c r="H4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="27" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4165,10 +4165,10 @@
       <c r="G5" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="10">
@@ -4191,8 +4191,8 @@
       <c r="G6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="31"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="10">
@@ -4215,8 +4215,8 @@
       <c r="G7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="10">
@@ -4239,8 +4239,8 @@
       <c r="G8" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="10">
@@ -4263,10 +4263,10 @@
       <c r="G9" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="10">
@@ -4289,8 +4289,8 @@
       <c r="G10" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="31"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="15">
       <c r="A11" s="10">
@@ -4315,8 +4315,8 @@
       <c r="G11" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="31"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="10">
@@ -4341,8 +4341,8 @@
       <c r="G12" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="31"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="10">
@@ -4367,8 +4367,8 @@
       <c r="G13" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="10">
@@ -4393,8 +4393,8 @@
       <c r="G14" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="31"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="10">
@@ -4419,8 +4419,8 @@
       <c r="G15" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="31"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" s="10">
@@ -4445,8 +4445,8 @@
       <c r="G16" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="31"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" s="10">
@@ -4471,8 +4471,8 @@
       <c r="G17" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="31"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" s="10">
@@ -4497,8 +4497,8 @@
       <c r="G18" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="31"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" spans="1:9" ht="15">
       <c r="A19" s="10">
@@ -4523,8 +4523,8 @@
       <c r="G19" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="31"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" ht="15">
       <c r="A20" s="10">
@@ -4549,8 +4549,8 @@
       <c r="G20" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="31"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="A21" s="10">
@@ -4575,8 +4575,8 @@
       <c r="G21" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="31"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="A22" s="10">
@@ -4601,8 +4601,8 @@
       <c r="G22" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="31"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:9" ht="15">
       <c r="A23" s="10">
@@ -4627,8 +4627,8 @@
       <c r="G23" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="31"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="15">
       <c r="A24" s="10">
@@ -4653,8 +4653,8 @@
       <c r="G24" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="31"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" ht="15">
       <c r="A25" s="10">
@@ -4674,7 +4674,7 @@
       <c r="H25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="32"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:9" ht="15">
       <c r="A26" s="10">
@@ -4700,7 +4700,7 @@
       <c r="H26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="33" t="s">
+      <c r="I26" s="30" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4725,10 +4725,10 @@
       <c r="G27" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="I27" s="34"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" ht="15">
       <c r="A28" s="10">
@@ -4751,8 +4751,8 @@
       <c r="G28" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="34"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9" ht="15">
       <c r="A29" s="10">
@@ -4775,8 +4775,8 @@
       <c r="G29" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="34"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" ht="15">
       <c r="A30" s="10">
@@ -4799,8 +4799,8 @@
       <c r="G30" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="34"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" ht="15">
       <c r="A31" s="10">
@@ -4823,10 +4823,10 @@
       <c r="G31" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="34"/>
+      <c r="I31" s="31"/>
     </row>
     <row r="32" spans="1:9" ht="15">
       <c r="A32" s="10">
@@ -4851,8 +4851,8 @@
       <c r="G32" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="34"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" spans="1:9" ht="15">
       <c r="A33" s="10">
@@ -4877,8 +4877,8 @@
       <c r="G33" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="34"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" ht="15">
       <c r="A34" s="10">
@@ -4903,8 +4903,8 @@
       <c r="G34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="34"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:9" ht="15">
       <c r="A35" s="10">
@@ -4929,8 +4929,8 @@
       <c r="G35" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="34"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" ht="15">
       <c r="A36" s="10">
@@ -4955,8 +4955,8 @@
       <c r="G36" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="34"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" ht="15">
       <c r="A37" s="10">
@@ -4981,8 +4981,8 @@
       <c r="G37" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H37" s="36"/>
-      <c r="I37" s="34"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="31"/>
     </row>
     <row r="38" spans="1:9" ht="15">
       <c r="A38" s="10">
@@ -5005,8 +5005,8 @@
       <c r="G38" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="34"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="31"/>
     </row>
     <row r="39" spans="1:9" ht="15">
       <c r="A39" s="10">
@@ -5031,8 +5031,8 @@
       <c r="G39" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H39" s="36"/>
-      <c r="I39" s="34"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="31"/>
     </row>
     <row r="40" spans="1:9" ht="15">
       <c r="A40" s="10">
@@ -5057,10 +5057,10 @@
       <c r="G40" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="H40" s="36" t="s">
+      <c r="H40" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="34"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" spans="1:9" ht="15">
       <c r="A41" s="10">
@@ -5083,8 +5083,8 @@
         <v>34</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="34"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="31"/>
     </row>
     <row r="42" spans="1:9" ht="15">
       <c r="A42" s="10">
@@ -5107,8 +5107,8 @@
         <v>22</v>
       </c>
       <c r="G42" s="10"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="34"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9" ht="15">
       <c r="A43" s="10">
@@ -5133,10 +5133,10 @@
       <c r="G43" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="36" t="s">
+      <c r="H43" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="34"/>
+      <c r="I43" s="31"/>
     </row>
     <row r="44" spans="1:9" ht="15">
       <c r="A44" s="10">
@@ -5161,8 +5161,8 @@
       <c r="G44" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H44" s="36"/>
-      <c r="I44" s="34"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:9" ht="15">
       <c r="A45" s="10">
@@ -5187,8 +5187,8 @@
       <c r="G45" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H45" s="36"/>
-      <c r="I45" s="34"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="31"/>
     </row>
     <row r="46" spans="1:9" ht="15">
       <c r="A46" s="10">
@@ -5213,8 +5213,8 @@
       <c r="G46" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="34"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" spans="1:9" ht="15">
       <c r="A47" s="10">
@@ -5239,8 +5239,8 @@
       <c r="G47" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H47" s="36"/>
-      <c r="I47" s="34"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9" ht="15">
       <c r="A48" s="10">
@@ -5265,8 +5265,8 @@
       <c r="G48" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H48" s="36"/>
-      <c r="I48" s="34"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="31"/>
     </row>
     <row r="49" spans="1:9" ht="15">
       <c r="A49" s="10">
@@ -5291,8 +5291,8 @@
       <c r="G49" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H49" s="36"/>
-      <c r="I49" s="34"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="31"/>
     </row>
     <row r="50" spans="1:9" ht="15">
       <c r="A50" s="10">
@@ -5317,10 +5317,10 @@
       <c r="G50" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H50" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I50" s="34"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="1:9" ht="15">
       <c r="A51" s="10">
@@ -5345,8 +5345,8 @@
       <c r="G51" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H51" s="36"/>
-      <c r="I51" s="34"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="31"/>
     </row>
     <row r="52" spans="1:9" ht="15">
       <c r="A52" s="10">
@@ -5371,8 +5371,8 @@
       <c r="G52" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H52" s="36"/>
-      <c r="I52" s="34"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="31"/>
     </row>
     <row r="53" spans="1:9" ht="15">
       <c r="A53" s="10">
@@ -5397,8 +5397,8 @@
       <c r="G53" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H53" s="36"/>
-      <c r="I53" s="34"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="31"/>
     </row>
     <row r="54" spans="1:9" ht="15">
       <c r="A54" s="10">
@@ -5423,8 +5423,8 @@
       <c r="G54" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H54" s="36"/>
-      <c r="I54" s="34"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="31"/>
     </row>
     <row r="55" spans="1:9" ht="15">
       <c r="A55" s="10">
@@ -5449,8 +5449,8 @@
       <c r="G55" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H55" s="36"/>
-      <c r="I55" s="34"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="31"/>
     </row>
     <row r="56" spans="1:9" ht="15">
       <c r="A56" s="10">
@@ -5475,8 +5475,8 @@
       <c r="G56" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H56" s="36"/>
-      <c r="I56" s="34"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="31"/>
     </row>
     <row r="57" spans="1:9" ht="15">
       <c r="A57" s="10">
@@ -5501,8 +5501,8 @@
       <c r="G57" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H57" s="36"/>
-      <c r="I57" s="34"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="31"/>
     </row>
     <row r="58" spans="1:9" ht="15">
       <c r="A58" s="10">
@@ -5513,7 +5513,7 @@
         <v>8038</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>49</v>
@@ -5527,10 +5527,10 @@
       <c r="G58" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="H58" s="36" t="s">
+      <c r="H58" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I58" s="34"/>
+      <c r="I58" s="31"/>
     </row>
     <row r="59" spans="1:9" ht="15">
       <c r="A59" s="10">
@@ -5555,8 +5555,8 @@
       <c r="G59" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="34"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="31"/>
     </row>
     <row r="60" spans="1:9" ht="15">
       <c r="A60" s="10">
@@ -5581,8 +5581,8 @@
       <c r="G60" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H60" s="36"/>
-      <c r="I60" s="34"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="31"/>
     </row>
     <row r="61" spans="1:9" ht="15">
       <c r="A61" s="10">
@@ -5607,8 +5607,8 @@
       <c r="G61" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H61" s="36"/>
-      <c r="I61" s="34"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="31"/>
     </row>
     <row r="62" spans="1:9" ht="15">
       <c r="A62" s="10">
@@ -5633,8 +5633,8 @@
       <c r="G62" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H62" s="36"/>
-      <c r="I62" s="34"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="31"/>
     </row>
     <row r="63" spans="1:9" ht="15">
       <c r="A63" s="10">
@@ -5659,8 +5659,8 @@
       <c r="G63" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H63" s="36"/>
-      <c r="I63" s="34"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="31"/>
     </row>
     <row r="64" spans="1:9" ht="15">
       <c r="A64" s="10">
@@ -5685,8 +5685,8 @@
       <c r="G64" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H64" s="36"/>
-      <c r="I64" s="34"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="31"/>
     </row>
     <row r="65" spans="1:9" ht="15">
       <c r="A65" s="10">
@@ -5711,8 +5711,8 @@
       <c r="G65" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H65" s="36"/>
-      <c r="I65" s="34"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="31"/>
     </row>
     <row r="66" spans="1:9" ht="15">
       <c r="A66" s="10">
@@ -5737,8 +5737,8 @@
       <c r="G66" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H66" s="36"/>
-      <c r="I66" s="34"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="31"/>
     </row>
     <row r="67" spans="1:9" ht="15">
       <c r="A67" s="10">
@@ -5763,10 +5763,10 @@
       <c r="G67" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="H67" s="36" t="s">
+      <c r="H67" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="I67" s="34"/>
+      <c r="I67" s="31"/>
     </row>
     <row r="68" spans="1:9" ht="15">
       <c r="A68" s="10">
@@ -5791,8 +5791,8 @@
       <c r="G68" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H68" s="36"/>
-      <c r="I68" s="34"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="31"/>
     </row>
     <row r="69" spans="1:9" ht="15">
       <c r="A69" s="10">
@@ -5817,8 +5817,8 @@
       <c r="G69" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H69" s="36"/>
-      <c r="I69" s="34"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="31"/>
     </row>
     <row r="70" spans="1:9" ht="15">
       <c r="A70" s="10">
@@ -5843,8 +5843,8 @@
       <c r="G70" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H70" s="36"/>
-      <c r="I70" s="34"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="31"/>
     </row>
     <row r="71" spans="1:9" ht="15">
       <c r="A71" s="10">
@@ -5869,8 +5869,8 @@
       <c r="G71" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H71" s="36"/>
-      <c r="I71" s="34"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="31"/>
     </row>
     <row r="72" spans="1:9" ht="15">
       <c r="A72" s="10">
@@ -5895,8 +5895,8 @@
       <c r="G72" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H72" s="36"/>
-      <c r="I72" s="34"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="31"/>
     </row>
     <row r="73" spans="1:9" ht="15">
       <c r="A73" s="10">
@@ -5921,8 +5921,8 @@
       <c r="G73" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H73" s="36"/>
-      <c r="I73" s="34"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="31"/>
     </row>
     <row r="74" spans="1:9" ht="15">
       <c r="A74" s="10">
@@ -5947,8 +5947,8 @@
       <c r="G74" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H74" s="36"/>
-      <c r="I74" s="34"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="31"/>
     </row>
     <row r="75" spans="1:9" ht="15">
       <c r="A75" s="10">
@@ -5973,8 +5973,8 @@
       <c r="G75" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H75" s="36"/>
-      <c r="I75" s="34"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="31"/>
     </row>
     <row r="76" spans="1:9" ht="15">
       <c r="A76" s="10">
@@ -5999,8 +5999,8 @@
       <c r="G76" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H76" s="36"/>
-      <c r="I76" s="34"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="31"/>
     </row>
     <row r="77" spans="1:9" ht="15">
       <c r="A77" s="10">
@@ -6025,10 +6025,10 @@
       <c r="G77" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="H77" s="36" t="s">
+      <c r="H77" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="I77" s="34"/>
+      <c r="I77" s="31"/>
     </row>
     <row r="78" spans="1:9" ht="15">
       <c r="A78" s="10">
@@ -6053,8 +6053,8 @@
       <c r="G78" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H78" s="36"/>
-      <c r="I78" s="34"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="31"/>
     </row>
     <row r="79" spans="1:9" ht="15">
       <c r="A79" s="10">
@@ -6079,8 +6079,8 @@
       <c r="G79" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H79" s="36"/>
-      <c r="I79" s="34"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="31"/>
     </row>
     <row r="80" spans="1:9" ht="15">
       <c r="A80" s="10">
@@ -6105,8 +6105,8 @@
       <c r="G80" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H80" s="36"/>
-      <c r="I80" s="34"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="31"/>
     </row>
     <row r="81" spans="1:16" ht="15">
       <c r="A81" s="10">
@@ -6131,8 +6131,8 @@
       <c r="G81" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H81" s="36"/>
-      <c r="I81" s="34"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="31"/>
       <c r="P81" t="s">
         <v>61</v>
       </c>
@@ -6160,8 +6160,8 @@
       <c r="G82" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H82" s="36"/>
-      <c r="I82" s="34"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="31"/>
     </row>
     <row r="83" spans="1:16" ht="15">
       <c r="A83" s="10">
@@ -6186,8 +6186,8 @@
       <c r="G83" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H83" s="36"/>
-      <c r="I83" s="34"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="31"/>
     </row>
     <row r="84" spans="1:16" ht="15">
       <c r="A84" s="10">
@@ -6207,7 +6207,7 @@
       <c r="H84" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I84" s="35"/>
+      <c r="I84" s="32"/>
     </row>
     <row r="85" spans="1:16" ht="15">
       <c r="A85" s="10">
@@ -6217,15 +6217,15 @@
         <f t="shared" si="4"/>
         <v>8053</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="C85" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
     </row>
     <row r="86" spans="1:16" ht="15">
       <c r="A86" s="10">
@@ -6235,13 +6235,13 @@
         <f t="shared" si="4"/>
         <v>8054</v>
       </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
     </row>
     <row r="87" spans="1:16" ht="15">
       <c r="A87" s="10">
@@ -6251,13 +6251,13 @@
         <f t="shared" si="4"/>
         <v>8055</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="33"/>
     </row>
     <row r="88" spans="1:16" ht="15">
       <c r="A88" s="10">
@@ -6267,13 +6267,13 @@
         <f t="shared" si="4"/>
         <v>8056</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
     </row>
     <row r="89" spans="1:16" ht="15">
       <c r="A89" s="7">
@@ -6292,12 +6292,12 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H89" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="I89" s="26" t="s">
+      <c r="I89" s="36" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6322,10 +6322,10 @@
       <c r="G90" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="H90" s="25" t="s">
+      <c r="H90" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="I90" s="26"/>
+      <c r="I90" s="36"/>
     </row>
     <row r="91" spans="1:16" ht="15">
       <c r="A91" s="7">
@@ -6348,8 +6348,8 @@
       <c r="G91" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="H91" s="25"/>
-      <c r="I91" s="26"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="36"/>
     </row>
     <row r="92" spans="1:16" ht="15">
       <c r="A92" s="7">
@@ -6372,8 +6372,8 @@
       <c r="G92" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="H92" s="25"/>
-      <c r="I92" s="26"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="36"/>
     </row>
     <row r="93" spans="1:16" ht="15">
       <c r="A93" s="7">
@@ -6396,8 +6396,8 @@
       <c r="G93" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="H93" s="25"/>
-      <c r="I93" s="26"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="36"/>
     </row>
     <row r="94" spans="1:16" ht="15">
       <c r="A94" s="7">
@@ -6407,23 +6407,23 @@
         <f t="shared" si="5"/>
         <v>805C</v>
       </c>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="24" t="s">
         <v>208</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>209</v>
       </c>
       <c r="E94" s="7"/>
-      <c r="F94" s="22" t="s">
+      <c r="F94" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="G94" s="24" t="s">
+      <c r="G94" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="H94" s="25" t="s">
+      <c r="H94" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="I94" s="26"/>
+      <c r="I94" s="36"/>
     </row>
     <row r="95" spans="1:16" ht="15">
       <c r="A95" s="7">
@@ -6433,15 +6433,15 @@
         <f t="shared" si="5"/>
         <v>805D</v>
       </c>
-      <c r="C95" s="22"/>
+      <c r="C95" s="24"/>
       <c r="D95" s="7" t="s">
         <v>210</v>
       </c>
       <c r="E95" s="7"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="26"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="36"/>
     </row>
     <row r="96" spans="1:16" ht="15">
       <c r="A96" s="7">
@@ -6451,15 +6451,15 @@
         <f t="shared" si="5"/>
         <v>805E</v>
       </c>
-      <c r="C96" s="22"/>
+      <c r="C96" s="24"/>
       <c r="D96" s="7" t="s">
         <v>211</v>
       </c>
       <c r="E96" s="7"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="26"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="36"/>
     </row>
     <row r="97" spans="1:9" ht="15">
       <c r="A97" s="7">
@@ -6469,15 +6469,15 @@
         <f t="shared" si="5"/>
         <v>805F</v>
       </c>
-      <c r="C97" s="22"/>
+      <c r="C97" s="24"/>
       <c r="D97" s="7" t="s">
         <v>212</v>
       </c>
       <c r="E97" s="7"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="26"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="36"/>
     </row>
     <row r="98" spans="1:9" ht="15">
       <c r="A98" s="7">
@@ -6487,15 +6487,15 @@
         <f t="shared" si="5"/>
         <v>8060</v>
       </c>
-      <c r="C98" s="22"/>
+      <c r="C98" s="24"/>
       <c r="D98" s="7" t="s">
         <v>213</v>
       </c>
       <c r="E98" s="7"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="26"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="36"/>
     </row>
     <row r="99" spans="1:9" ht="15">
       <c r="A99" s="7">
@@ -6505,23 +6505,23 @@
         <f t="shared" si="5"/>
         <v>8061</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="D99" s="24" t="s">
         <v>219</v>
       </c>
       <c r="E99" s="7"/>
-      <c r="F99" s="22" t="s">
+      <c r="F99" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="G99" s="24" t="s">
+      <c r="G99" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="H99" s="25" t="s">
+      <c r="H99" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="I99" s="26"/>
+      <c r="I99" s="36"/>
     </row>
     <row r="100" spans="1:9" ht="15">
       <c r="A100" s="7">
@@ -6531,13 +6531,13 @@
         <f t="shared" si="5"/>
         <v>8062</v>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
       <c r="E100" s="7"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="26"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="36"/>
     </row>
     <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="7">
@@ -6562,8 +6562,8 @@
       <c r="G101" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="26"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="36"/>
     </row>
     <row r="102" spans="1:9" ht="15">
       <c r="A102" s="7">
@@ -6573,21 +6573,21 @@
         <f t="shared" si="5"/>
         <v>8064</v>
       </c>
-      <c r="C102" s="22" t="s">
+      <c r="C102" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D102" s="22" t="s">
+      <c r="D102" s="24" t="s">
         <v>262</v>
       </c>
       <c r="E102" s="7"/>
-      <c r="F102" s="28" t="s">
+      <c r="F102" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="G102" s="27" t="s">
+      <c r="G102" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="H102" s="25"/>
-      <c r="I102" s="26"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="36"/>
     </row>
     <row r="103" spans="1:9" ht="15">
       <c r="A103" s="7">
@@ -6597,13 +6597,13 @@
         <f t="shared" ref="B103:B166" si="6">DEC2HEX(A103)</f>
         <v>8065</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
       <c r="E103" s="7"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="26"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="36"/>
     </row>
     <row r="104" spans="1:9" ht="15">
       <c r="A104" s="7">
@@ -6613,19 +6613,19 @@
         <f t="shared" si="6"/>
         <v>8066</v>
       </c>
-      <c r="C104" s="22" t="s">
+      <c r="C104" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D104" s="22" t="s">
+      <c r="D104" s="24" t="s">
         <v>263</v>
       </c>
       <c r="E104" s="7"/>
-      <c r="F104" s="22" t="s">
+      <c r="F104" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G104" s="22"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="26"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="36"/>
     </row>
     <row r="105" spans="1:9" ht="15">
       <c r="A105" s="7">
@@ -6635,13 +6635,13 @@
         <f t="shared" si="6"/>
         <v>8067</v>
       </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
       <c r="E105" s="7"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="26"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="36"/>
     </row>
     <row r="106" spans="1:9" ht="15">
       <c r="A106" s="7">
@@ -6651,19 +6651,19 @@
         <f t="shared" si="6"/>
         <v>8068</v>
       </c>
-      <c r="C106" s="22" t="s">
+      <c r="C106" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="D106" s="22" t="s">
+      <c r="D106" s="24" t="s">
         <v>264</v>
       </c>
       <c r="E106" s="7"/>
-      <c r="F106" s="22" t="s">
+      <c r="F106" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="G106" s="22"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="26"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="36"/>
     </row>
     <row r="107" spans="1:9" ht="15">
       <c r="A107" s="7">
@@ -6673,13 +6673,13 @@
         <f t="shared" si="6"/>
         <v>8069</v>
       </c>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
       <c r="E107" s="7"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="25"/>
-      <c r="I107" s="26"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="36"/>
     </row>
     <row r="108" spans="1:9" ht="15">
       <c r="A108" s="7">
@@ -6700,8 +6700,8 @@
       <c r="G108" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="H108" s="25"/>
-      <c r="I108" s="26"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="36"/>
     </row>
     <row r="109" spans="1:9" ht="15">
       <c r="A109" s="7">
@@ -6722,8 +6722,8 @@
       <c r="G109" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="H109" s="25"/>
-      <c r="I109" s="26"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="36"/>
     </row>
     <row r="110" spans="1:9" ht="15">
       <c r="A110" s="7">
@@ -6744,8 +6744,8 @@
       <c r="G110" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="H110" s="25"/>
-      <c r="I110" s="26"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="36"/>
     </row>
     <row r="111" spans="1:9" ht="15">
       <c r="A111" s="7">
@@ -6755,19 +6755,19 @@
         <f t="shared" si="6"/>
         <v>806D</v>
       </c>
-      <c r="C111" s="22" t="s">
+      <c r="C111" s="24" t="s">
         <v>233</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
-      <c r="F111" s="22" t="s">
+      <c r="F111" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="G111" s="24" t="s">
+      <c r="G111" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="H111" s="25"/>
-      <c r="I111" s="26"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="36"/>
     </row>
     <row r="112" spans="1:9" ht="15">
       <c r="A112" s="7">
@@ -6777,13 +6777,13 @@
         <f t="shared" si="6"/>
         <v>806E</v>
       </c>
-      <c r="C112" s="22"/>
+      <c r="C112" s="24"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="26"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="36"/>
     </row>
     <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="7">
@@ -6794,7 +6794,7 @@
         <v>806F</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>224</v>
@@ -6808,8 +6808,8 @@
       <c r="G113" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="H113" s="25"/>
-      <c r="I113" s="26"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="36"/>
     </row>
     <row r="114" spans="1:9" ht="15">
       <c r="A114" s="7">
@@ -6834,8 +6834,8 @@
       <c r="G114" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="H114" s="25"/>
-      <c r="I114" s="26"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="36"/>
     </row>
     <row r="115" spans="1:9" ht="15">
       <c r="A115" s="7">
@@ -6860,8 +6860,8 @@
       <c r="G115" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="H115" s="25"/>
-      <c r="I115" s="26"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="36"/>
     </row>
     <row r="116" spans="1:9" ht="15">
       <c r="A116" s="7">
@@ -6871,19 +6871,19 @@
         <f t="shared" si="6"/>
         <v>8072</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="C116" s="24" t="s">
         <v>236</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
-      <c r="F116" s="22" t="s">
+      <c r="F116" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="G116" s="22" t="s">
+      <c r="G116" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="H116" s="25"/>
-      <c r="I116" s="26"/>
+      <c r="H116" s="23"/>
+      <c r="I116" s="36"/>
     </row>
     <row r="117" spans="1:9" ht="15">
       <c r="A117" s="7">
@@ -6893,13 +6893,13 @@
         <f t="shared" si="6"/>
         <v>8073</v>
       </c>
-      <c r="C117" s="22"/>
+      <c r="C117" s="24"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="26"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="36"/>
     </row>
     <row r="118" spans="1:9" ht="15">
       <c r="A118" s="7">
@@ -6909,13 +6909,13 @@
         <f t="shared" si="6"/>
         <v>8074</v>
       </c>
-      <c r="C118" s="22"/>
+      <c r="C118" s="24"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="26"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="36"/>
     </row>
     <row r="119" spans="1:9" ht="15">
       <c r="A119" s="7">
@@ -6925,13 +6925,13 @@
         <f t="shared" si="6"/>
         <v>8075</v>
       </c>
-      <c r="C119" s="22"/>
+      <c r="C119" s="24"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="25"/>
-      <c r="I119" s="26"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="36"/>
     </row>
     <row r="120" spans="1:9" ht="15">
       <c r="A120" s="7">
@@ -6941,13 +6941,13 @@
         <f t="shared" si="6"/>
         <v>8076</v>
       </c>
-      <c r="C120" s="22"/>
+      <c r="C120" s="24"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="26"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="36"/>
     </row>
     <row r="121" spans="1:9" ht="15">
       <c r="A121" s="7">
@@ -6957,13 +6957,13 @@
         <f t="shared" si="6"/>
         <v>8077</v>
       </c>
-      <c r="C121" s="22"/>
+      <c r="C121" s="24"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="H121" s="25"/>
-      <c r="I121" s="26"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="36"/>
     </row>
     <row r="122" spans="1:9" ht="15">
       <c r="A122" s="7">
@@ -6973,13 +6973,13 @@
         <f t="shared" si="6"/>
         <v>8078</v>
       </c>
-      <c r="C122" s="22"/>
+      <c r="C122" s="24"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="26"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="36"/>
     </row>
     <row r="123" spans="1:9" ht="15">
       <c r="A123" s="7">
@@ -6989,13 +6989,13 @@
         <f t="shared" si="6"/>
         <v>8079</v>
       </c>
-      <c r="C123" s="22"/>
+      <c r="C123" s="24"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="26"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="36"/>
     </row>
     <row r="124" spans="1:9" ht="15">
       <c r="A124" s="7">
@@ -7005,13 +7005,13 @@
         <f t="shared" si="6"/>
         <v>807A</v>
       </c>
-      <c r="C124" s="22"/>
+      <c r="C124" s="24"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="25"/>
-      <c r="I124" s="26"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="36"/>
     </row>
     <row r="125" spans="1:9" ht="15">
       <c r="A125" s="7">
@@ -7036,8 +7036,8 @@
       <c r="G125" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="H125" s="25"/>
-      <c r="I125" s="26"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="36"/>
     </row>
     <row r="126" spans="1:9" ht="15">
       <c r="A126" s="7">
@@ -7062,8 +7062,8 @@
       <c r="G126" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="H126" s="25"/>
-      <c r="I126" s="26"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="36"/>
     </row>
     <row r="127" spans="1:9" ht="15">
       <c r="A127" s="7">
@@ -7088,8 +7088,8 @@
       <c r="G127" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H127" s="25"/>
-      <c r="I127" s="26"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="36"/>
     </row>
     <row r="128" spans="1:9" ht="15">
       <c r="A128" s="7">
@@ -7100,7 +7100,7 @@
         <v>807E</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
@@ -7110,8 +7110,8 @@
       <c r="G128" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="H128" s="25"/>
-      <c r="I128" s="26"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="36"/>
     </row>
     <row r="129" spans="1:9" ht="15">
       <c r="A129" s="7">
@@ -7122,7 +7122,7 @@
         <v>807F</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
@@ -7132,8 +7132,8 @@
       <c r="G129" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="H129" s="25"/>
-      <c r="I129" s="26"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="36"/>
     </row>
     <row r="130" spans="1:9" ht="15">
       <c r="A130" s="7">
@@ -7144,7 +7144,7 @@
         <v>8080</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -7154,8 +7154,8 @@
       <c r="G130" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="H130" s="25"/>
-      <c r="I130" s="26"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="36"/>
     </row>
     <row r="131" spans="1:9" ht="15">
       <c r="A131" s="7">
@@ -7165,25 +7165,25 @@
         <f t="shared" si="6"/>
         <v>8081</v>
       </c>
-      <c r="C131" s="22" t="s">
+      <c r="C131" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D131" s="22" t="s">
+      <c r="D131" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="E131" s="22" t="s">
+      <c r="E131" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="F131" s="22" t="s">
+      <c r="F131" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="G131" s="24" t="s">
+      <c r="G131" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="H131" s="25" t="s">
+      <c r="H131" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="I131" s="26"/>
+      <c r="I131" s="36"/>
     </row>
     <row r="132" spans="1:9" ht="15">
       <c r="A132" s="7">
@@ -7193,13 +7193,13 @@
         <f t="shared" si="6"/>
         <v>8082</v>
       </c>
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="25"/>
-      <c r="I132" s="26"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="23"/>
+      <c r="I132" s="36"/>
     </row>
     <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="7">
@@ -7210,7 +7210,7 @@
         <v>8083</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>224</v>
@@ -7224,8 +7224,8 @@
       <c r="G133" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="H133" s="25"/>
-      <c r="I133" s="26"/>
+      <c r="H133" s="23"/>
+      <c r="I133" s="36"/>
     </row>
     <row r="134" spans="1:9" ht="15">
       <c r="A134" s="7">
@@ -7250,8 +7250,8 @@
       <c r="G134" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="H134" s="25"/>
-      <c r="I134" s="26"/>
+      <c r="H134" s="23"/>
+      <c r="I134" s="36"/>
     </row>
     <row r="135" spans="1:9" ht="15">
       <c r="A135" s="7">
@@ -7276,8 +7276,8 @@
       <c r="G135" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H135" s="25"/>
-      <c r="I135" s="26"/>
+      <c r="H135" s="23"/>
+      <c r="I135" s="36"/>
     </row>
     <row r="136" spans="1:9" ht="15">
       <c r="A136" s="7">
@@ -7298,8 +7298,8 @@
       <c r="G136" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H136" s="25"/>
-      <c r="I136" s="26"/>
+      <c r="H136" s="23"/>
+      <c r="I136" s="36"/>
     </row>
     <row r="137" spans="1:9" ht="15">
       <c r="A137" s="7">
@@ -7324,8 +7324,8 @@
       <c r="G137" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="H137" s="25"/>
-      <c r="I137" s="26"/>
+      <c r="H137" s="23"/>
+      <c r="I137" s="36"/>
     </row>
     <row r="138" spans="1:9" ht="15">
       <c r="A138" s="7">
@@ -7350,8 +7350,8 @@
       <c r="G138" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="H138" s="25"/>
-      <c r="I138" s="26"/>
+      <c r="H138" s="23"/>
+      <c r="I138" s="36"/>
     </row>
     <row r="139" spans="1:9" ht="15">
       <c r="A139" s="7">
@@ -7376,8 +7376,8 @@
       <c r="G139" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="H139" s="25"/>
-      <c r="I139" s="26"/>
+      <c r="H139" s="23"/>
+      <c r="I139" s="36"/>
     </row>
     <row r="140" spans="1:9" ht="15">
       <c r="A140" s="7">
@@ -7402,8 +7402,8 @@
       <c r="G140" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="H140" s="25"/>
-      <c r="I140" s="26"/>
+      <c r="H140" s="23"/>
+      <c r="I140" s="36"/>
     </row>
     <row r="141" spans="1:9" ht="15">
       <c r="A141" s="7">
@@ -7413,21 +7413,21 @@
         <f t="shared" si="6"/>
         <v>808B</v>
       </c>
-      <c r="C141" s="22" t="s">
+      <c r="C141" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="D141" s="22" t="s">
+      <c r="D141" s="24" t="s">
         <v>312</v>
       </c>
       <c r="E141" s="7"/>
-      <c r="F141" s="24" t="s">
+      <c r="F141" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="G141" s="27" t="s">
+      <c r="G141" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="H141" s="25"/>
-      <c r="I141" s="26"/>
+      <c r="H141" s="23"/>
+      <c r="I141" s="36"/>
     </row>
     <row r="142" spans="1:9" ht="15">
       <c r="A142" s="7">
@@ -7437,13 +7437,13 @@
         <f t="shared" si="6"/>
         <v>808C</v>
       </c>
-      <c r="C142" s="22"/>
-      <c r="D142" s="22"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
       <c r="E142" s="7"/>
-      <c r="F142" s="22"/>
-      <c r="G142" s="22"/>
-      <c r="H142" s="25"/>
-      <c r="I142" s="26"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="23"/>
+      <c r="I142" s="36"/>
     </row>
     <row r="143" spans="1:9" ht="15">
       <c r="A143" s="7">
@@ -7453,21 +7453,21 @@
         <f t="shared" si="6"/>
         <v>808D</v>
       </c>
-      <c r="C143" s="22" t="s">
+      <c r="C143" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="D143" s="22" t="s">
+      <c r="D143" s="24" t="s">
         <v>313</v>
       </c>
       <c r="E143" s="7"/>
-      <c r="F143" s="24" t="s">
+      <c r="F143" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="G143" s="27" t="s">
+      <c r="G143" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="H143" s="25"/>
-      <c r="I143" s="26"/>
+      <c r="H143" s="23"/>
+      <c r="I143" s="36"/>
     </row>
     <row r="144" spans="1:9" ht="15">
       <c r="A144" s="7">
@@ -7477,13 +7477,13 @@
         <f t="shared" si="6"/>
         <v>808E</v>
       </c>
-      <c r="C144" s="22"/>
-      <c r="D144" s="22"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
       <c r="E144" s="7"/>
-      <c r="F144" s="22"/>
-      <c r="G144" s="22"/>
-      <c r="H144" s="25"/>
-      <c r="I144" s="26"/>
+      <c r="F144" s="24"/>
+      <c r="G144" s="24"/>
+      <c r="H144" s="23"/>
+      <c r="I144" s="36"/>
     </row>
     <row r="145" spans="1:9" ht="15">
       <c r="A145" s="7">
@@ -7493,21 +7493,21 @@
         <f t="shared" si="6"/>
         <v>808F</v>
       </c>
-      <c r="C145" s="22" t="s">
+      <c r="C145" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="D145" s="22" t="s">
+      <c r="D145" s="24" t="s">
         <v>314</v>
       </c>
       <c r="E145" s="7"/>
-      <c r="F145" s="24" t="s">
+      <c r="F145" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="G145" s="27" t="s">
+      <c r="G145" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="H145" s="25"/>
-      <c r="I145" s="26"/>
+      <c r="H145" s="23"/>
+      <c r="I145" s="36"/>
     </row>
     <row r="146" spans="1:9" ht="15">
       <c r="A146" s="7">
@@ -7517,13 +7517,13 @@
         <f t="shared" si="6"/>
         <v>8090</v>
       </c>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24"/>
       <c r="E146" s="7"/>
-      <c r="F146" s="22"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="25"/>
-      <c r="I146" s="26"/>
+      <c r="F146" s="24"/>
+      <c r="G146" s="35"/>
+      <c r="H146" s="23"/>
+      <c r="I146" s="36"/>
     </row>
     <row r="147" spans="1:9" ht="15">
       <c r="A147" s="7">
@@ -7533,25 +7533,25 @@
         <f t="shared" si="6"/>
         <v>8091</v>
       </c>
-      <c r="C147" s="22" t="s">
+      <c r="C147" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="D147" s="22" t="s">
+      <c r="D147" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="E147" s="22" t="s">
+      <c r="E147" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="F147" s="22" t="s">
+      <c r="F147" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="G147" s="24" t="s">
+      <c r="G147" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="H147" s="25" t="s">
+      <c r="H147" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="I147" s="26"/>
+      <c r="I147" s="36"/>
     </row>
     <row r="148" spans="1:9" ht="15">
       <c r="A148" s="7">
@@ -7561,13 +7561,13 @@
         <f t="shared" si="6"/>
         <v>8092</v>
       </c>
-      <c r="C148" s="22"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="22"/>
-      <c r="F148" s="22"/>
-      <c r="G148" s="24"/>
-      <c r="H148" s="25"/>
-      <c r="I148" s="26"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="24"/>
+      <c r="F148" s="24"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="23"/>
+      <c r="I148" s="36"/>
     </row>
     <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="7">
@@ -7578,7 +7578,7 @@
         <v>8093</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>224</v>
@@ -7592,8 +7592,8 @@
       <c r="G149" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="H149" s="25"/>
-      <c r="I149" s="26"/>
+      <c r="H149" s="23"/>
+      <c r="I149" s="36"/>
     </row>
     <row r="150" spans="1:9" ht="15">
       <c r="A150" s="7">
@@ -7614,8 +7614,8 @@
       <c r="G150" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H150" s="25"/>
-      <c r="I150" s="26"/>
+      <c r="H150" s="23"/>
+      <c r="I150" s="36"/>
     </row>
     <row r="151" spans="1:9" ht="15">
       <c r="A151" s="7">
@@ -7636,8 +7636,8 @@
       <c r="G151" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H151" s="25"/>
-      <c r="I151" s="26"/>
+      <c r="H151" s="23"/>
+      <c r="I151" s="36"/>
     </row>
     <row r="152" spans="1:9" ht="15">
       <c r="A152" s="7">
@@ -7658,8 +7658,8 @@
       <c r="G152" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="H152" s="25"/>
-      <c r="I152" s="26"/>
+      <c r="H152" s="23"/>
+      <c r="I152" s="36"/>
     </row>
     <row r="153" spans="1:9" ht="15">
       <c r="A153" s="7">
@@ -7680,8 +7680,8 @@
       <c r="G153" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="H153" s="25"/>
-      <c r="I153" s="26"/>
+      <c r="H153" s="23"/>
+      <c r="I153" s="36"/>
     </row>
     <row r="154" spans="1:9" ht="15">
       <c r="A154" s="7">
@@ -7702,8 +7702,8 @@
       <c r="G154" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="H154" s="25"/>
-      <c r="I154" s="26"/>
+      <c r="H154" s="23"/>
+      <c r="I154" s="36"/>
     </row>
     <row r="155" spans="1:9" ht="15">
       <c r="A155" s="7">
@@ -7724,8 +7724,8 @@
       <c r="G155" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="H155" s="25"/>
-      <c r="I155" s="26"/>
+      <c r="H155" s="23"/>
+      <c r="I155" s="36"/>
     </row>
     <row r="156" spans="1:9" ht="15">
       <c r="A156" s="7">
@@ -7750,10 +7750,10 @@
       <c r="G156" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="H156" s="25" t="s">
+      <c r="H156" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="I156" s="26"/>
+      <c r="I156" s="36"/>
     </row>
     <row r="157" spans="1:9" ht="15">
       <c r="A157" s="7">
@@ -7774,8 +7774,8 @@
       <c r="G157" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="H157" s="25"/>
-      <c r="I157" s="26"/>
+      <c r="H157" s="23"/>
+      <c r="I157" s="36"/>
     </row>
     <row r="158" spans="1:9" ht="15">
       <c r="A158" s="7">
@@ -7796,8 +7796,8 @@
       <c r="G158" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="H158" s="25"/>
-      <c r="I158" s="26"/>
+      <c r="H158" s="23"/>
+      <c r="I158" s="36"/>
     </row>
     <row r="159" spans="1:9" ht="15">
       <c r="A159" s="7">
@@ -7817,7 +7817,7 @@
       <c r="H159" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I159" s="26"/>
+      <c r="I159" s="36"/>
     </row>
     <row r="160" spans="1:9" ht="15">
       <c r="A160" s="7">
@@ -7827,15 +7827,15 @@
         <f t="shared" si="6"/>
         <v>809E</v>
       </c>
-      <c r="C160" s="22" t="s">
+      <c r="C160" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="D160" s="22"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="22"/>
-      <c r="G160" s="22"/>
-      <c r="H160" s="22"/>
-      <c r="I160" s="22"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="24"/>
+      <c r="H160" s="24"/>
+      <c r="I160" s="24"/>
     </row>
     <row r="161" spans="1:9" ht="15">
       <c r="A161" s="7">
@@ -7845,13 +7845,13 @@
         <f t="shared" si="6"/>
         <v>809F</v>
       </c>
-      <c r="C161" s="22"/>
-      <c r="D161" s="22"/>
-      <c r="E161" s="22"/>
-      <c r="F161" s="22"/>
-      <c r="G161" s="22"/>
-      <c r="H161" s="22"/>
-      <c r="I161" s="22"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
+      <c r="H161" s="24"/>
+      <c r="I161" s="24"/>
     </row>
     <row r="162" spans="1:9" ht="15">
       <c r="A162" s="7">
@@ -7861,13 +7861,13 @@
         <f t="shared" si="6"/>
         <v>80A0</v>
       </c>
-      <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
-      <c r="E162" s="22"/>
-      <c r="F162" s="22"/>
-      <c r="G162" s="22"/>
-      <c r="H162" s="22"/>
-      <c r="I162" s="22"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="24"/>
+      <c r="G162" s="24"/>
+      <c r="H162" s="24"/>
+      <c r="I162" s="24"/>
     </row>
     <row r="163" spans="1:9" ht="15.75" thickBot="1">
       <c r="A163" s="7">
@@ -7877,13 +7877,13 @@
         <f t="shared" si="6"/>
         <v>80A1</v>
       </c>
-      <c r="C163" s="22"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="22"/>
-      <c r="F163" s="22"/>
-      <c r="G163" s="22"/>
-      <c r="H163" s="22"/>
-      <c r="I163" s="22"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="24"/>
+      <c r="F163" s="24"/>
+      <c r="G163" s="24"/>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
     </row>
     <row r="164" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A164" s="7">
@@ -7900,17 +7900,17 @@
         <v>212</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H164" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="I164" s="24" t="s">
-        <v>388</v>
+      <c r="I164" s="25" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -7925,19 +7925,19 @@
         <v>196</v>
       </c>
       <c r="D165" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E165" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="F165" s="7"/>
       <c r="G165" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="H165" s="23" t="s">
+      <c r="H165" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="I165" s="22"/>
+      <c r="I165" s="24"/>
     </row>
     <row r="166" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A166" s="7">
@@ -7951,17 +7951,17 @@
         <v>194</v>
       </c>
       <c r="D166" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="E166" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="F166" s="7"/>
       <c r="G166" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="H166" s="23"/>
-      <c r="I166" s="22"/>
+      <c r="H166" s="37"/>
+      <c r="I166" s="24"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A167" s="7">
@@ -7984,8 +7984,8 @@
       <c r="G167" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="H167" s="23"/>
-      <c r="I167" s="22"/>
+      <c r="H167" s="37"/>
+      <c r="I167" s="24"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A168" s="7">
@@ -8008,8 +8008,8 @@
       <c r="G168" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="H168" s="23"/>
-      <c r="I168" s="22"/>
+      <c r="H168" s="37"/>
+      <c r="I168" s="24"/>
     </row>
     <row r="169" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A169" s="7">
@@ -8019,19 +8019,19 @@
         <f t="shared" si="7"/>
         <v>80A7</v>
       </c>
-      <c r="C169" s="22" t="s">
+      <c r="C169" s="24" t="s">
         <v>339</v>
       </c>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
-      <c r="G169" s="24" t="s">
+      <c r="G169" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="H169" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="I169" s="22"/>
+      <c r="H169" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="I169" s="24"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A170" s="7">
@@ -8041,13 +8041,13 @@
         <f t="shared" si="7"/>
         <v>80A8</v>
       </c>
-      <c r="C170" s="22"/>
+      <c r="C170" s="24"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
-      <c r="G170" s="22"/>
-      <c r="H170" s="23"/>
-      <c r="I170" s="22"/>
+      <c r="G170" s="24"/>
+      <c r="H170" s="37"/>
+      <c r="I170" s="24"/>
     </row>
     <row r="171" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A171" s="7">
@@ -8061,7 +8061,7 @@
         <v>340</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>201</v>
@@ -8070,10 +8070,10 @@
         <v>304</v>
       </c>
       <c r="G171" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="H171" s="23"/>
-      <c r="I171" s="22"/>
+        <v>359</v>
+      </c>
+      <c r="H171" s="37"/>
+      <c r="I171" s="24"/>
     </row>
     <row r="172" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A172" s="7">
@@ -8084,22 +8084,22 @@
         <v>80AA</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="D172" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E172" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="E172" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="F172" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G172" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="H172" s="23"/>
-      <c r="I172" s="22"/>
+        <v>361</v>
+      </c>
+      <c r="H172" s="37"/>
+      <c r="I172" s="24"/>
     </row>
     <row r="173" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A173" s="7">
@@ -8110,22 +8110,22 @@
         <v>80AB</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D173" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E173" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>221</v>
       </c>
       <c r="G173" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="H173" s="23"/>
-      <c r="I173" s="22"/>
+        <v>365</v>
+      </c>
+      <c r="H173" s="37"/>
+      <c r="I173" s="24"/>
     </row>
     <row r="174" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A174" s="7">
@@ -8136,7 +8136,7 @@
         <v>80AC</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>279</v>
@@ -8148,10 +8148,10 @@
         <v>275</v>
       </c>
       <c r="G174" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="H174" s="23"/>
-      <c r="I174" s="22"/>
+        <v>368</v>
+      </c>
+      <c r="H174" s="37"/>
+      <c r="I174" s="24"/>
     </row>
     <row r="175" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A175" s="7">
@@ -8162,10 +8162,10 @@
         <v>80AD</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>201</v>
@@ -8174,10 +8174,10 @@
         <v>304</v>
       </c>
       <c r="G175" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="H175" s="23"/>
-      <c r="I175" s="22"/>
+        <v>369</v>
+      </c>
+      <c r="H175" s="37"/>
+      <c r="I175" s="24"/>
     </row>
     <row r="176" spans="1:9" ht="18" thickTop="1" thickBot="1">
       <c r="A176" s="7">
@@ -8188,22 +8188,22 @@
         <v>80AE</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D176" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E176" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="F176" s="7" t="s">
         <v>226</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="H176" s="23"/>
-      <c r="I176" s="22"/>
+        <v>370</v>
+      </c>
+      <c r="H176" s="37"/>
+      <c r="I176" s="24"/>
     </row>
     <row r="177" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A177" s="7">
@@ -8214,7 +8214,7 @@
         <v>80AF</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>279</v>
@@ -8226,10 +8226,10 @@
         <v>275</v>
       </c>
       <c r="G177" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="H177" s="23"/>
-      <c r="I177" s="22"/>
+        <v>373</v>
+      </c>
+      <c r="H177" s="37"/>
+      <c r="I177" s="24"/>
     </row>
     <row r="178" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A178" s="7">
@@ -8240,22 +8240,22 @@
         <v>80B0</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D178" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E178" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E178" s="7" t="s">
-        <v>368</v>
-      </c>
       <c r="F178" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G178" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="H178" s="23"/>
-      <c r="I178" s="22"/>
+        <v>374</v>
+      </c>
+      <c r="H178" s="37"/>
+      <c r="I178" s="24"/>
     </row>
     <row r="179" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A179" s="7">
@@ -8266,22 +8266,22 @@
         <v>80B1</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D179" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E179" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="F179" s="7" t="s">
         <v>304</v>
       </c>
       <c r="G179" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="H179" s="23"/>
-      <c r="I179" s="22"/>
+        <v>376</v>
+      </c>
+      <c r="H179" s="37"/>
+      <c r="I179" s="24"/>
     </row>
     <row r="180" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A180" s="7">
@@ -8292,7 +8292,7 @@
         <v>80B2</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>286</v>
@@ -8304,10 +8304,10 @@
         <v>304</v>
       </c>
       <c r="G180" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="H180" s="23"/>
-      <c r="I180" s="22"/>
+        <v>377</v>
+      </c>
+      <c r="H180" s="37"/>
+      <c r="I180" s="24"/>
     </row>
     <row r="181" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A181" s="7">
@@ -8318,7 +8318,7 @@
         <v>80B3</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>286</v>
@@ -8330,10 +8330,10 @@
         <v>304</v>
       </c>
       <c r="G181" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="H181" s="23"/>
-      <c r="I181" s="22"/>
+        <v>378</v>
+      </c>
+      <c r="H181" s="37"/>
+      <c r="I181" s="24"/>
     </row>
     <row r="182" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A182" s="7">
@@ -8344,22 +8344,22 @@
         <v>80B4</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D182" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E182" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="E182" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="F182" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G182" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="H182" s="23"/>
-      <c r="I182" s="22"/>
+        <v>379</v>
+      </c>
+      <c r="H182" s="37"/>
+      <c r="I182" s="24"/>
     </row>
     <row r="183" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A183" s="7">
@@ -8370,22 +8370,22 @@
         <v>80B5</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D183" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="E183" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="E183" s="7" t="s">
-        <v>387</v>
-      </c>
       <c r="F183" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G183" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="H183" s="23"/>
-      <c r="I183" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="H183" s="37"/>
+      <c r="I183" s="24"/>
     </row>
     <row r="184" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A184" s="7">
@@ -8405,7 +8405,7 @@
       <c r="H184" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I184" s="22"/>
+      <c r="I184" s="24"/>
     </row>
     <row r="185" spans="1:9" ht="15.75" thickTop="1">
       <c r="A185" s="15"/>
@@ -9905,36 +9905,33 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="H50:H57"/>
-    <mergeCell ref="H58:H66"/>
-    <mergeCell ref="H67:H76"/>
-    <mergeCell ref="H77:H83"/>
-    <mergeCell ref="H94:H98"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="G94:G98"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I25"/>
-    <mergeCell ref="I26:I84"/>
-    <mergeCell ref="C85:I88"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="H31:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="H9:H24"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C116:C124"/>
-    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="H165:H168"/>
+    <mergeCell ref="H169:H183"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="I164:I184"/>
+    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="H147:H155"/>
+    <mergeCell ref="I89:I159"/>
+    <mergeCell ref="C160:I163"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="H131:H146"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="D141:D142"/>
     <mergeCell ref="C141:C142"/>
     <mergeCell ref="C143:C144"/>
     <mergeCell ref="C145:C146"/>
@@ -9951,33 +9948,36 @@
     <mergeCell ref="F111:F112"/>
     <mergeCell ref="G116:G124"/>
     <mergeCell ref="F116:F124"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="H156:H158"/>
-    <mergeCell ref="H147:H155"/>
-    <mergeCell ref="I89:I159"/>
-    <mergeCell ref="C160:I163"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="H131:H146"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="H165:H168"/>
-    <mergeCell ref="H169:H183"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="I164:I184"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C116:C124"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="G94:G98"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I25"/>
+    <mergeCell ref="I26:I84"/>
+    <mergeCell ref="C85:I88"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H9:H24"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="H50:H57"/>
+    <mergeCell ref="H58:H66"/>
+    <mergeCell ref="H67:H76"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="H94:H98"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LWD_NMR_DSP/新版数据空间分配.xlsx
+++ b/LWD_NMR_DSP/新版数据空间分配.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208E5919-8AE5-4869-AD61-4765045A5E3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8B76AC-CC1C-405A-95DB-4D267BF04812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="421">
   <si>
     <t>TableID</t>
   </si>
@@ -270,14 +270,6 @@
   </si>
   <si>
     <t>0008</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0015</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0013</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2140,10 +2132,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0030</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>表总长度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3254,6 +3242,114 @@
   </si>
   <si>
     <t>AutoAmpThd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDS_FREQ_ADDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kHz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处用来保存DDS设定频率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>以前程序这样使用，此处可以修改为变量，但此处不修改与以前保持一致。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0047</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0045</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4D52</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5439</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>352D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3231</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3031</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0007</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0008</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1718</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0016</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3264,7 +3360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3412,6 +3508,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3532,7 +3636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3570,7 +3674,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3595,17 +3698,44 @@
     <xf numFmtId="49" fontId="13" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3628,19 +3758,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4022,51 +4152,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="31.75" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="7" max="7" width="35.5" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
-    <col min="9" max="9" width="31.625" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="35.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.4">
       <c r="A1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>119</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.4">
       <c r="A2" s="10">
         <v>32768</v>
       </c>
@@ -4085,14 +4215,14 @@
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H2" s="33"/>
-      <c r="I2" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15">
+      <c r="I2" s="34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="10">
         <v>32769</v>
       </c>
@@ -4111,12 +4241,12 @@
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H3" s="33"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="1:9" ht="15">
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="10">
         <v>32770</v>
       </c>
@@ -4131,20 +4261,20 @@
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>71</v>
+        <v>420</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15">
+      <c r="I4" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="10">
         <v>32771</v>
       </c>
@@ -4163,14 +4293,14 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:9" ht="15">
+        <v>121</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="10">
         <v>32772</v>
       </c>
@@ -4179,22 +4309,22 @@
         <v>8004</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D6" s="10">
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9" ht="15">
+        <v>123</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="10">
         <v>32773</v>
       </c>
@@ -4206,19 +4336,19 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:9" ht="15">
+        <v>124</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="10">
         <v>32774</v>
       </c>
@@ -4233,16 +4363,16 @@
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:9" ht="15">
+        <v>124</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="10">
         <v>32775</v>
       </c>
@@ -4254,21 +4384,21 @@
         <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9" ht="15">
+        <v>125</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="10">
         <v>32776</v>
       </c>
@@ -4277,22 +4407,22 @@
         <v>8008</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" s="10">
         <v>512</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:9" ht="15">
+        <v>165</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="10">
         <v>32777</v>
       </c>
@@ -4301,24 +4431,24 @@
         <v>8009</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D11" s="10">
         <v>4750</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>65</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:9" ht="15">
+        <v>127</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="10">
         <v>32778</v>
       </c>
@@ -4333,18 +4463,18 @@
         <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="1:9" ht="15">
+        <v>128</v>
+      </c>
+      <c r="H12" s="42"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="10">
         <v>32779</v>
       </c>
@@ -4359,18 +4489,18 @@
         <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:9" ht="15">
+        <v>129</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="10">
         <v>32780</v>
       </c>
@@ -4385,18 +4515,18 @@
         <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:9" ht="15">
+        <v>130</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="10">
         <v>32781</v>
       </c>
@@ -4411,18 +4541,18 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:9" ht="15">
+        <v>131</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="10">
         <v>32782</v>
       </c>
@@ -4437,18 +4567,18 @@
         <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:9" ht="15">
+        <v>132</v>
+      </c>
+      <c r="H16" s="42"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="10">
         <v>32783</v>
       </c>
@@ -4463,18 +4593,18 @@
         <v>135</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="1:9" ht="15">
+        <v>133</v>
+      </c>
+      <c r="H17" s="42"/>
+      <c r="I17" s="36"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="10">
         <v>32784</v>
       </c>
@@ -4489,18 +4619,18 @@
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:9" ht="15">
+        <v>134</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="10">
         <v>32785</v>
       </c>
@@ -4521,12 +4651,12 @@
         <v>22</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:9" ht="15">
+        <v>135</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="10">
         <v>32786</v>
       </c>
@@ -4541,18 +4671,18 @@
         <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:9" ht="15">
+        <v>136</v>
+      </c>
+      <c r="H20" s="42"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="10">
         <v>32787</v>
       </c>
@@ -4567,18 +4697,18 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>66</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:9" ht="15">
+        <v>137</v>
+      </c>
+      <c r="H21" s="42"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="10">
         <v>32788</v>
       </c>
@@ -4593,18 +4723,18 @@
         <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="1:9" ht="15">
+        <v>138</v>
+      </c>
+      <c r="H22" s="42"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="10">
         <v>32789</v>
       </c>
@@ -4619,18 +4749,18 @@
         <v>100</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="28"/>
-    </row>
-    <row r="24" spans="1:9" ht="15">
+        <v>139</v>
+      </c>
+      <c r="H23" s="42"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="10">
         <v>32790</v>
       </c>
@@ -4645,18 +4775,18 @@
         <v>80</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="28"/>
-    </row>
-    <row r="25" spans="1:9" ht="15">
+        <v>140</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="10">
         <v>32791</v>
       </c>
@@ -4674,9 +4804,9 @@
       <c r="H25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="1:9" ht="15">
+      <c r="I25" s="37"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="10">
         <v>32792</v>
       </c>
@@ -4691,20 +4821,20 @@
         <v>59</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="20" t="s">
-        <v>143</v>
+      <c r="G26" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15">
+      <c r="I26" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.4">
       <c r="A27" s="10">
         <v>32793</v>
       </c>
@@ -4719,18 +4849,18 @@
         <v>3</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="1:9" ht="15">
+        <v>146</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.4">
       <c r="A28" s="10">
         <v>32794</v>
       </c>
@@ -4739,22 +4869,22 @@
         <v>801A</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D28" s="6">
         <v>57</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:9" ht="15">
+        <v>148</v>
+      </c>
+      <c r="H28" s="41"/>
+      <c r="I28" s="39"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.4">
       <c r="A29" s="10">
         <v>32795</v>
       </c>
@@ -4769,16 +4899,16 @@
         <v>3</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="1:9" ht="15">
+        <v>149</v>
+      </c>
+      <c r="H29" s="41"/>
+      <c r="I29" s="39"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.4">
       <c r="A30" s="10">
         <v>32796</v>
       </c>
@@ -4793,16 +4923,16 @@
         <v>3</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="31"/>
-    </row>
-    <row r="31" spans="1:9" ht="15">
+        <v>150</v>
+      </c>
+      <c r="H30" s="41"/>
+      <c r="I30" s="39"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.4">
       <c r="A31" s="10">
         <v>32797</v>
       </c>
@@ -4817,18 +4947,18 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="1:9" ht="15">
+      <c r="I31" s="39"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.4">
       <c r="A32" s="10">
         <v>32798</v>
       </c>
@@ -4843,18 +4973,18 @@
         <v>4850</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="31"/>
-    </row>
-    <row r="33" spans="1:9" ht="15">
+        <v>152</v>
+      </c>
+      <c r="H32" s="41"/>
+      <c r="I32" s="39"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.4">
       <c r="A33" s="10">
         <v>32799</v>
       </c>
@@ -4869,18 +4999,18 @@
         <v>50</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="31"/>
-    </row>
-    <row r="34" spans="1:9" ht="15">
+        <v>153</v>
+      </c>
+      <c r="H33" s="41"/>
+      <c r="I33" s="39"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.4">
       <c r="A34" s="10">
         <v>32800</v>
       </c>
@@ -4895,18 +5025,18 @@
         <v>60</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="31"/>
-    </row>
-    <row r="35" spans="1:9" ht="15">
+        <v>154</v>
+      </c>
+      <c r="H34" s="41"/>
+      <c r="I34" s="39"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.4">
       <c r="A35" s="10">
         <v>32801</v>
       </c>
@@ -4921,18 +5051,18 @@
         <v>50</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="H35" s="22"/>
-      <c r="I35" s="31"/>
-    </row>
-    <row r="36" spans="1:9" ht="15">
+        <v>155</v>
+      </c>
+      <c r="H35" s="41"/>
+      <c r="I35" s="39"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.4">
       <c r="A36" s="10">
         <v>32802</v>
       </c>
@@ -4947,18 +5077,18 @@
         <v>135</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="31"/>
-    </row>
-    <row r="37" spans="1:9" ht="15">
+        <v>156</v>
+      </c>
+      <c r="H36" s="41"/>
+      <c r="I36" s="39"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.4">
       <c r="A37" s="10">
         <v>32803</v>
       </c>
@@ -4973,18 +5103,18 @@
         <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H37" s="22"/>
-      <c r="I37" s="31"/>
-    </row>
-    <row r="38" spans="1:9" ht="15">
+        <v>157</v>
+      </c>
+      <c r="H37" s="41"/>
+      <c r="I37" s="39"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.4">
       <c r="A38" s="10">
         <v>32804</v>
       </c>
@@ -4999,16 +5129,16 @@
         <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="31"/>
-    </row>
-    <row r="39" spans="1:9" ht="15">
+        <v>158</v>
+      </c>
+      <c r="H38" s="41"/>
+      <c r="I38" s="39"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.4">
       <c r="A39" s="10">
         <v>32805</v>
       </c>
@@ -5023,18 +5153,18 @@
         <v>23</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H39" s="22"/>
-      <c r="I39" s="31"/>
-    </row>
-    <row r="40" spans="1:9" ht="15">
+        <v>159</v>
+      </c>
+      <c r="H39" s="41"/>
+      <c r="I39" s="39"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.4">
       <c r="A40" s="10">
         <v>32806</v>
       </c>
@@ -5049,20 +5179,20 @@
         <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H40" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="31"/>
-    </row>
-    <row r="41" spans="1:9" ht="15">
+      <c r="I40" s="39"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="10">
         <v>32807</v>
       </c>
@@ -5077,16 +5207,16 @@
         <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="31"/>
-    </row>
-    <row r="42" spans="1:9" ht="15">
+      <c r="H41" s="41"/>
+      <c r="I41" s="39"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="10">
         <v>32808</v>
       </c>
@@ -5095,22 +5225,22 @@
         <v>8028</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D42" s="10">
         <v>1000</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="10"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="31"/>
-    </row>
-    <row r="43" spans="1:9" ht="15">
+      <c r="H42" s="41"/>
+      <c r="I42" s="39"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.4">
       <c r="A43" s="10">
         <v>32809</v>
       </c>
@@ -5125,20 +5255,20 @@
         <v>17</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H43" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="31"/>
-    </row>
-    <row r="44" spans="1:9" ht="15">
+      <c r="I43" s="39"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.4">
       <c r="A44" s="10">
         <v>32810</v>
       </c>
@@ -5153,18 +5283,18 @@
         <v>30</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" s="22"/>
-      <c r="I44" s="31"/>
-    </row>
-    <row r="45" spans="1:9" ht="15">
+        <v>169</v>
+      </c>
+      <c r="H44" s="41"/>
+      <c r="I44" s="39"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.4">
       <c r="A45" s="10">
         <v>32811</v>
       </c>
@@ -5179,18 +5309,18 @@
         <v>6</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H45" s="22"/>
-      <c r="I45" s="31"/>
-    </row>
-    <row r="46" spans="1:9" ht="15">
+        <v>170</v>
+      </c>
+      <c r="H45" s="41"/>
+      <c r="I45" s="39"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.4">
       <c r="A46" s="10">
         <v>32812</v>
       </c>
@@ -5205,18 +5335,18 @@
         <v>6</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H46" s="22"/>
-      <c r="I46" s="31"/>
-    </row>
-    <row r="47" spans="1:9" ht="15">
+        <v>171</v>
+      </c>
+      <c r="H46" s="41"/>
+      <c r="I46" s="39"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.4">
       <c r="A47" s="10">
         <v>32813</v>
       </c>
@@ -5231,18 +5361,18 @@
         <v>1000</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="31"/>
-    </row>
-    <row r="48" spans="1:9" ht="15">
+        <v>172</v>
+      </c>
+      <c r="H47" s="41"/>
+      <c r="I47" s="39"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.4">
       <c r="A48" s="10">
         <v>32814</v>
       </c>
@@ -5257,18 +5387,18 @@
         <v>50</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="31"/>
-    </row>
-    <row r="49" spans="1:9" ht="15">
+        <v>173</v>
+      </c>
+      <c r="H48" s="41"/>
+      <c r="I48" s="39"/>
+    </row>
+    <row r="49" spans="1:9" ht="14.4">
       <c r="A49" s="10">
         <v>32815</v>
       </c>
@@ -5283,18 +5413,18 @@
         <v>96</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="31"/>
-    </row>
-    <row r="50" spans="1:9" ht="15">
+        <v>174</v>
+      </c>
+      <c r="H49" s="41"/>
+      <c r="I49" s="39"/>
+    </row>
+    <row r="50" spans="1:9" ht="14.4">
       <c r="A50" s="10">
         <v>32816</v>
       </c>
@@ -5309,20 +5439,20 @@
         <v>17</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H50" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H50" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="I50" s="31"/>
-    </row>
-    <row r="51" spans="1:9" ht="15">
+      <c r="I50" s="39"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.4">
       <c r="A51" s="10">
         <v>32817</v>
       </c>
@@ -5337,18 +5467,18 @@
         <v>30</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H51" s="22"/>
-      <c r="I51" s="31"/>
-    </row>
-    <row r="52" spans="1:9" ht="15">
+        <v>169</v>
+      </c>
+      <c r="H51" s="41"/>
+      <c r="I51" s="39"/>
+    </row>
+    <row r="52" spans="1:9" ht="14.4">
       <c r="A52" s="10">
         <v>32818</v>
       </c>
@@ -5363,18 +5493,18 @@
         <v>1800</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H52" s="22"/>
-      <c r="I52" s="31"/>
-    </row>
-    <row r="53" spans="1:9" ht="15">
+        <v>175</v>
+      </c>
+      <c r="H52" s="41"/>
+      <c r="I52" s="39"/>
+    </row>
+    <row r="53" spans="1:9" ht="14.4">
       <c r="A53" s="10">
         <v>32819</v>
       </c>
@@ -5383,24 +5513,24 @@
         <v>8033</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="6">
         <v>6</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H53" s="22"/>
-      <c r="I53" s="31"/>
-    </row>
-    <row r="54" spans="1:9" ht="15">
+        <v>176</v>
+      </c>
+      <c r="H53" s="41"/>
+      <c r="I53" s="39"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.4">
       <c r="A54" s="10">
         <v>32820</v>
       </c>
@@ -5415,18 +5545,18 @@
         <v>6</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H54" s="22"/>
-      <c r="I54" s="31"/>
-    </row>
-    <row r="55" spans="1:9" ht="15">
+        <v>171</v>
+      </c>
+      <c r="H54" s="41"/>
+      <c r="I54" s="39"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.4">
       <c r="A55" s="10">
         <v>32821</v>
       </c>
@@ -5435,24 +5565,24 @@
         <v>8035</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="6">
         <v>1000</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H55" s="22"/>
-      <c r="I55" s="31"/>
-    </row>
-    <row r="56" spans="1:9" ht="15">
+        <v>177</v>
+      </c>
+      <c r="H55" s="41"/>
+      <c r="I55" s="39"/>
+    </row>
+    <row r="56" spans="1:9" ht="14.4">
       <c r="A56" s="10">
         <v>32822</v>
       </c>
@@ -5467,18 +5597,18 @@
         <v>50</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H56" s="22"/>
-      <c r="I56" s="31"/>
-    </row>
-    <row r="57" spans="1:9" ht="15">
+        <v>173</v>
+      </c>
+      <c r="H56" s="41"/>
+      <c r="I56" s="39"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.4">
       <c r="A57" s="10">
         <v>32823</v>
       </c>
@@ -5493,18 +5623,18 @@
         <v>25</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H57" s="22"/>
-      <c r="I57" s="31"/>
-    </row>
-    <row r="58" spans="1:9" ht="15">
+        <v>174</v>
+      </c>
+      <c r="H57" s="41"/>
+      <c r="I57" s="39"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.4">
       <c r="A58" s="10">
         <v>32824</v>
       </c>
@@ -5513,26 +5643,26 @@
         <v>8038</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H58" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H58" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="I58" s="31"/>
-    </row>
-    <row r="59" spans="1:9" ht="15">
+      <c r="I58" s="39"/>
+    </row>
+    <row r="59" spans="1:9" ht="14.4">
       <c r="A59" s="10">
         <v>32825</v>
       </c>
@@ -5547,18 +5677,18 @@
         <v>40</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H59" s="22"/>
-      <c r="I59" s="31"/>
-    </row>
-    <row r="60" spans="1:9" ht="15">
+        <v>169</v>
+      </c>
+      <c r="H59" s="41"/>
+      <c r="I59" s="39"/>
+    </row>
+    <row r="60" spans="1:9" ht="28.8">
       <c r="A60" s="10">
         <v>32826</v>
       </c>
@@ -5573,18 +5703,18 @@
         <v>2</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H60" s="22"/>
-      <c r="I60" s="31"/>
-    </row>
-    <row r="61" spans="1:9" ht="15">
+        <v>179</v>
+      </c>
+      <c r="H60" s="41"/>
+      <c r="I60" s="39"/>
+    </row>
+    <row r="61" spans="1:9" ht="14.4">
       <c r="A61" s="10">
         <v>32827</v>
       </c>
@@ -5599,18 +5729,18 @@
         <v>6</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H61" s="22"/>
-      <c r="I61" s="31"/>
-    </row>
-    <row r="62" spans="1:9" ht="15">
+        <v>170</v>
+      </c>
+      <c r="H61" s="41"/>
+      <c r="I61" s="39"/>
+    </row>
+    <row r="62" spans="1:9" ht="14.4">
       <c r="A62" s="10">
         <v>32828</v>
       </c>
@@ -5625,18 +5755,18 @@
         <v>6</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H62" s="22"/>
-      <c r="I62" s="31"/>
-    </row>
-    <row r="63" spans="1:9" ht="15">
+        <v>180</v>
+      </c>
+      <c r="H62" s="41"/>
+      <c r="I62" s="39"/>
+    </row>
+    <row r="63" spans="1:9" ht="14.4">
       <c r="A63" s="10">
         <v>32829</v>
       </c>
@@ -5651,18 +5781,18 @@
         <v>1000</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H63" s="22"/>
-      <c r="I63" s="31"/>
-    </row>
-    <row r="64" spans="1:9" ht="15">
+        <v>172</v>
+      </c>
+      <c r="H63" s="41"/>
+      <c r="I63" s="39"/>
+    </row>
+    <row r="64" spans="1:9" ht="14.4">
       <c r="A64" s="10">
         <v>32830</v>
       </c>
@@ -5677,18 +5807,18 @@
         <v>50</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H64" s="22"/>
-      <c r="I64" s="31"/>
-    </row>
-    <row r="65" spans="1:9" ht="15">
+        <v>173</v>
+      </c>
+      <c r="H64" s="41"/>
+      <c r="I64" s="39"/>
+    </row>
+    <row r="65" spans="1:9" ht="14.4">
       <c r="A65" s="10">
         <v>32831</v>
       </c>
@@ -5703,18 +5833,18 @@
         <v>16</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H65" s="22"/>
-      <c r="I65" s="31"/>
-    </row>
-    <row r="66" spans="1:9" ht="15">
+        <v>181</v>
+      </c>
+      <c r="H65" s="41"/>
+      <c r="I65" s="39"/>
+    </row>
+    <row r="66" spans="1:9" ht="14.4">
       <c r="A66" s="10">
         <v>32832</v>
       </c>
@@ -5729,18 +5859,18 @@
         <v>50</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H66" s="22"/>
-      <c r="I66" s="31"/>
-    </row>
-    <row r="67" spans="1:9" ht="15">
+        <v>174</v>
+      </c>
+      <c r="H66" s="41"/>
+      <c r="I66" s="39"/>
+    </row>
+    <row r="67" spans="1:9" ht="14.4">
       <c r="A67" s="10">
         <v>32833</v>
       </c>
@@ -5755,20 +5885,20 @@
         <v>71</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H67" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="I67" s="31"/>
-    </row>
-    <row r="68" spans="1:9" ht="15">
+      <c r="I67" s="39"/>
+    </row>
+    <row r="68" spans="1:9" ht="14.4">
       <c r="A68" s="10">
         <v>32834</v>
       </c>
@@ -5783,18 +5913,18 @@
         <v>40</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H68" s="22"/>
-      <c r="I68" s="31"/>
-    </row>
-    <row r="69" spans="1:9" ht="15">
+        <v>169</v>
+      </c>
+      <c r="H68" s="41"/>
+      <c r="I68" s="39"/>
+    </row>
+    <row r="69" spans="1:9" ht="14.4">
       <c r="A69" s="10">
         <v>32835</v>
       </c>
@@ -5809,18 +5939,18 @@
         <v>13000</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="H69" s="22"/>
-      <c r="I69" s="31"/>
-    </row>
-    <row r="70" spans="1:9" ht="15">
+        <v>182</v>
+      </c>
+      <c r="H69" s="41"/>
+      <c r="I69" s="39"/>
+    </row>
+    <row r="70" spans="1:9" ht="14.4">
       <c r="A70" s="10">
         <v>32836</v>
       </c>
@@ -5835,18 +5965,18 @@
         <v>11000</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H70" s="22"/>
-      <c r="I70" s="31"/>
-    </row>
-    <row r="71" spans="1:9" ht="15">
+        <v>183</v>
+      </c>
+      <c r="H70" s="41"/>
+      <c r="I70" s="39"/>
+    </row>
+    <row r="71" spans="1:9" ht="14.4">
       <c r="A71" s="10">
         <v>32837</v>
       </c>
@@ -5861,18 +5991,18 @@
         <v>10000</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H71" s="22"/>
-      <c r="I71" s="31"/>
-    </row>
-    <row r="72" spans="1:9" ht="15">
+        <v>184</v>
+      </c>
+      <c r="H71" s="41"/>
+      <c r="I71" s="39"/>
+    </row>
+    <row r="72" spans="1:9" ht="14.4">
       <c r="A72" s="10">
         <v>32838</v>
       </c>
@@ -5887,18 +6017,18 @@
         <v>8000</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H72" s="22"/>
-      <c r="I72" s="31"/>
-    </row>
-    <row r="73" spans="1:9" ht="15">
+        <v>185</v>
+      </c>
+      <c r="H72" s="41"/>
+      <c r="I72" s="39"/>
+    </row>
+    <row r="73" spans="1:9" ht="14.4">
       <c r="A73" s="10">
         <v>32839</v>
       </c>
@@ -5913,18 +6043,18 @@
         <v>6000</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="H73" s="22"/>
-      <c r="I73" s="31"/>
-    </row>
-    <row r="74" spans="1:9" ht="15">
+        <v>186</v>
+      </c>
+      <c r="H73" s="41"/>
+      <c r="I73" s="39"/>
+    </row>
+    <row r="74" spans="1:9" ht="14.4">
       <c r="A74" s="10">
         <v>32840</v>
       </c>
@@ -5939,18 +6069,18 @@
         <v>6</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H74" s="22"/>
-      <c r="I74" s="31"/>
-    </row>
-    <row r="75" spans="1:9" ht="15">
+        <v>187</v>
+      </c>
+      <c r="H74" s="41"/>
+      <c r="I74" s="39"/>
+    </row>
+    <row r="75" spans="1:9" ht="14.4">
       <c r="A75" s="10">
         <v>32841</v>
       </c>
@@ -5965,18 +6095,18 @@
         <v>6</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H75" s="22"/>
-      <c r="I75" s="31"/>
-    </row>
-    <row r="76" spans="1:9" ht="15">
+        <v>171</v>
+      </c>
+      <c r="H75" s="41"/>
+      <c r="I75" s="39"/>
+    </row>
+    <row r="76" spans="1:9" ht="14.4">
       <c r="A76" s="10">
         <v>32842</v>
       </c>
@@ -5991,18 +6121,18 @@
         <v>50</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H76" s="22"/>
-      <c r="I76" s="31"/>
-    </row>
-    <row r="77" spans="1:9" ht="15">
+        <v>174</v>
+      </c>
+      <c r="H76" s="41"/>
+      <c r="I76" s="39"/>
+    </row>
+    <row r="77" spans="1:9" ht="14.4">
       <c r="A77" s="10">
         <v>32843</v>
       </c>
@@ -6017,20 +6147,20 @@
         <v>6</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H77" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H77" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="I77" s="31"/>
-    </row>
-    <row r="78" spans="1:9" ht="15">
+      <c r="I77" s="39"/>
+    </row>
+    <row r="78" spans="1:9" ht="14.4">
       <c r="A78" s="10">
         <v>32844</v>
       </c>
@@ -6045,18 +6175,18 @@
         <v>40</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H78" s="22"/>
-      <c r="I78" s="31"/>
-    </row>
-    <row r="79" spans="1:9" ht="15">
+        <v>169</v>
+      </c>
+      <c r="H78" s="41"/>
+      <c r="I78" s="39"/>
+    </row>
+    <row r="79" spans="1:9" ht="14.4">
       <c r="A79" s="10">
         <v>32845</v>
       </c>
@@ -6071,18 +6201,18 @@
         <v>6</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="H79" s="22"/>
-      <c r="I79" s="31"/>
-    </row>
-    <row r="80" spans="1:9" ht="15">
+        <v>170</v>
+      </c>
+      <c r="H79" s="41"/>
+      <c r="I79" s="39"/>
+    </row>
+    <row r="80" spans="1:9" ht="14.4">
       <c r="A80" s="10">
         <v>32846</v>
       </c>
@@ -6097,18 +6227,18 @@
         <v>6</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H80" s="22"/>
-      <c r="I80" s="31"/>
-    </row>
-    <row r="81" spans="1:16" ht="15">
+        <v>171</v>
+      </c>
+      <c r="H80" s="41"/>
+      <c r="I80" s="39"/>
+    </row>
+    <row r="81" spans="1:16" ht="14.4">
       <c r="A81" s="10">
         <v>32847</v>
       </c>
@@ -6123,21 +6253,21 @@
         <v>1000</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H81" s="22"/>
-      <c r="I81" s="31"/>
+        <v>172</v>
+      </c>
+      <c r="H81" s="41"/>
+      <c r="I81" s="39"/>
       <c r="P81" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15">
+    <row r="82" spans="1:16" ht="14.4">
       <c r="A82" s="10">
         <v>32848</v>
       </c>
@@ -6152,18 +6282,18 @@
         <v>50</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H82" s="22"/>
-      <c r="I82" s="31"/>
-    </row>
-    <row r="83" spans="1:16" ht="15">
+        <v>161</v>
+      </c>
+      <c r="H82" s="41"/>
+      <c r="I82" s="39"/>
+    </row>
+    <row r="83" spans="1:16" ht="14.4">
       <c r="A83" s="10">
         <v>32849</v>
       </c>
@@ -6178,18 +6308,18 @@
         <v>50</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H83" s="22"/>
-      <c r="I83" s="31"/>
-    </row>
-    <row r="84" spans="1:16" ht="15">
+        <v>174</v>
+      </c>
+      <c r="H83" s="41"/>
+      <c r="I83" s="39"/>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="10">
         <v>32850</v>
       </c>
@@ -6207,9 +6337,9 @@
       <c r="H84" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I84" s="32"/>
-    </row>
-    <row r="85" spans="1:16" ht="15">
+      <c r="I84" s="40"/>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="10">
         <v>32851</v>
       </c>
@@ -6218,7 +6348,7 @@
         <v>8053</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D85" s="33"/>
       <c r="E85" s="33"/>
@@ -6227,7 +6357,7 @@
       <c r="H85" s="33"/>
       <c r="I85" s="33"/>
     </row>
-    <row r="86" spans="1:16" ht="15">
+    <row r="86" spans="1:16">
       <c r="A86" s="10">
         <v>32852</v>
       </c>
@@ -6243,7 +6373,7 @@
       <c r="H86" s="33"/>
       <c r="I86" s="33"/>
     </row>
-    <row r="87" spans="1:16" ht="15">
+    <row r="87" spans="1:16">
       <c r="A87" s="10">
         <v>32853</v>
       </c>
@@ -6259,7 +6389,7 @@
       <c r="H87" s="33"/>
       <c r="I87" s="33"/>
     </row>
-    <row r="88" spans="1:16" ht="15">
+    <row r="88" spans="1:16">
       <c r="A88" s="10">
         <v>32854</v>
       </c>
@@ -6275,7 +6405,7 @@
       <c r="H88" s="33"/>
       <c r="I88" s="33"/>
     </row>
-    <row r="89" spans="1:16" ht="15">
+    <row r="89" spans="1:16" ht="28.2">
       <c r="A89" s="7">
         <v>32855</v>
       </c>
@@ -6284,24 +6414,26 @@
         <v>8057</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="E89" s="7"/>
+        <v>333</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>397</v>
+      </c>
       <c r="F89" s="7"/>
-      <c r="G89" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="H89" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="I89" s="36" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="15">
+      <c r="G89" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="I89" s="45" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="14.4">
       <c r="A90" s="7">
         <v>32856</v>
       </c>
@@ -6310,24 +6442,24 @@
         <v>8058</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D90" s="7">
         <v>1</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F90" s="7"/>
-      <c r="G90" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="H90" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I90" s="36"/>
-    </row>
-    <row r="91" spans="1:16" ht="15">
+      <c r="G90" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="H90" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="I90" s="45"/>
+    </row>
+    <row r="91" spans="1:16" ht="14.4">
       <c r="A91" s="7">
         <v>32857</v>
       </c>
@@ -6336,22 +6468,22 @@
         <v>8059</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>203</v>
+        <v>398</v>
       </c>
       <c r="F91" s="7"/>
-      <c r="G91" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="H91" s="23"/>
-      <c r="I91" s="36"/>
-    </row>
-    <row r="92" spans="1:16" ht="15">
+      <c r="G91" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="H91" s="32"/>
+      <c r="I91" s="45"/>
+    </row>
+    <row r="92" spans="1:16" ht="14.4">
       <c r="A92" s="7">
         <v>32858</v>
       </c>
@@ -6363,19 +6495,19 @@
         <v>1</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F92" s="7"/>
-      <c r="G92" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="H92" s="23"/>
-      <c r="I92" s="36"/>
-    </row>
-    <row r="93" spans="1:16" ht="15">
+      <c r="G92" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="H92" s="32"/>
+      <c r="I92" s="45"/>
+    </row>
+    <row r="93" spans="1:16" ht="14.4">
       <c r="A93" s="7">
         <v>32859</v>
       </c>
@@ -6384,22 +6516,22 @@
         <v>805B</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F93" s="7"/>
-      <c r="G93" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="H93" s="23"/>
-      <c r="I93" s="36"/>
-    </row>
-    <row r="94" spans="1:16" ht="15">
+      <c r="G93" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H93" s="32"/>
+      <c r="I93" s="45"/>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="7">
         <v>32860</v>
       </c>
@@ -6407,25 +6539,27 @@
         <f t="shared" si="5"/>
         <v>805C</v>
       </c>
-      <c r="C94" s="24" t="s">
-        <v>208</v>
+      <c r="C94" s="28" t="s">
+        <v>205</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="G94" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="H94" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="I94" s="36"/>
-    </row>
-    <row r="95" spans="1:16" ht="15">
+        <v>206</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G94" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="H94" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="I94" s="45"/>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="7">
         <v>32861</v>
       </c>
@@ -6433,17 +6567,19 @@
         <f t="shared" si="5"/>
         <v>805D</v>
       </c>
-      <c r="C95" s="24"/>
+      <c r="C95" s="28"/>
       <c r="D95" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="36"/>
-    </row>
-    <row r="96" spans="1:16" ht="15">
+        <v>207</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="45"/>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="7">
         <v>32862</v>
       </c>
@@ -6451,17 +6587,19 @@
         <f t="shared" si="5"/>
         <v>805E</v>
       </c>
-      <c r="C96" s="24"/>
+      <c r="C96" s="28"/>
       <c r="D96" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="36"/>
-    </row>
-    <row r="97" spans="1:9" ht="15">
+        <v>208</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="45"/>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="7">
         <v>32863</v>
       </c>
@@ -6469,17 +6607,19 @@
         <f t="shared" si="5"/>
         <v>805F</v>
       </c>
-      <c r="C97" s="24"/>
+      <c r="C97" s="28"/>
       <c r="D97" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="36"/>
-    </row>
-    <row r="98" spans="1:9" ht="15">
+        <v>209</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="45"/>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="7">
         <v>32864</v>
       </c>
@@ -6487,17 +6627,19 @@
         <f t="shared" si="5"/>
         <v>8060</v>
       </c>
-      <c r="C98" s="24"/>
+      <c r="C98" s="28"/>
       <c r="D98" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="36"/>
-    </row>
-    <row r="99" spans="1:9" ht="15">
+        <v>210</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="45"/>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="7">
         <v>32865</v>
       </c>
@@ -6505,25 +6647,27 @@
         <f t="shared" si="5"/>
         <v>8061</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F99" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="D99" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="G99" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="H99" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="I99" s="36"/>
-    </row>
-    <row r="100" spans="1:9" ht="15">
+      <c r="G99" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="H99" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="I99" s="45"/>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="7">
         <v>32866</v>
       </c>
@@ -6531,15 +6675,17 @@
         <f t="shared" si="5"/>
         <v>8062</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="36"/>
-    </row>
-    <row r="101" spans="1:9" ht="16.5">
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="45"/>
+    </row>
+    <row r="101" spans="1:9" ht="16.8">
       <c r="A101" s="7">
         <v>32867</v>
       </c>
@@ -6548,24 +6694,24 @@
         <v>8063</v>
       </c>
       <c r="C101" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="F101" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G101" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="H101" s="23"/>
-      <c r="I101" s="36"/>
-    </row>
-    <row r="102" spans="1:9" ht="15">
+      <c r="G101" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="H101" s="32"/>
+      <c r="I101" s="45"/>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="7">
         <v>32868</v>
       </c>
@@ -6573,23 +6719,25 @@
         <f t="shared" si="5"/>
         <v>8064</v>
       </c>
-      <c r="C102" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D102" s="24" t="s">
+      <c r="C102" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F102" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="E102" s="7"/>
-      <c r="F102" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="G102" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="H102" s="23"/>
-      <c r="I102" s="36"/>
-    </row>
-    <row r="103" spans="1:9" ht="15">
+      <c r="G102" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="H102" s="32"/>
+      <c r="I102" s="45"/>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="7">
         <v>32869</v>
       </c>
@@ -6597,15 +6745,17 @@
         <f t="shared" ref="B103:B166" si="6">DEC2HEX(A103)</f>
         <v>8065</v>
       </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="7"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="7" t="s">
+        <v>399</v>
+      </c>
       <c r="F103" s="33"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="36"/>
-    </row>
-    <row r="104" spans="1:9" ht="15">
+      <c r="G103" s="28"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="45"/>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="7">
         <v>32870</v>
       </c>
@@ -6613,21 +6763,23 @@
         <f t="shared" si="6"/>
         <v>8066</v>
       </c>
-      <c r="C104" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="G104" s="24"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="36"/>
-    </row>
-    <row r="105" spans="1:9" ht="15">
+      <c r="C104" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F104" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G104" s="28"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="45"/>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="7">
         <v>32871</v>
       </c>
@@ -6635,15 +6787,17 @@
         <f t="shared" si="6"/>
         <v>8067</v>
       </c>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="36"/>
-    </row>
-    <row r="106" spans="1:9" ht="15">
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="45"/>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="7">
         <v>32872</v>
       </c>
@@ -6651,21 +6805,23 @@
         <f t="shared" si="6"/>
         <v>8068</v>
       </c>
-      <c r="C106" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="E106" s="7"/>
-      <c r="F106" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="G106" s="24"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="36"/>
-    </row>
-    <row r="107" spans="1:9" ht="15">
+      <c r="C106" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F106" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="G106" s="28"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="45"/>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="7">
         <v>32873</v>
       </c>
@@ -6673,15 +6829,17 @@
         <f t="shared" si="6"/>
         <v>8069</v>
       </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="36"/>
-    </row>
-    <row r="108" spans="1:9" ht="15">
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="45"/>
+    </row>
+    <row r="108" spans="1:9" ht="14.4">
       <c r="A108" s="7">
         <v>32874</v>
       </c>
@@ -6690,20 +6848,22 @@
         <v>806A</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D108" s="7"/>
-      <c r="E108" s="13"/>
+      <c r="E108" s="27" t="s">
+        <v>405</v>
+      </c>
       <c r="F108" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G108" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="H108" s="23"/>
-      <c r="I108" s="36"/>
-    </row>
-    <row r="109" spans="1:9" ht="15">
+        <v>268</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H108" s="32"/>
+      <c r="I108" s="45"/>
+    </row>
+    <row r="109" spans="1:9" ht="14.4">
       <c r="A109" s="7">
         <v>32875</v>
       </c>
@@ -6712,20 +6872,22 @@
         <v>806B</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D109" s="7"/>
-      <c r="E109" s="13"/>
+      <c r="E109" s="27" t="s">
+        <v>406</v>
+      </c>
       <c r="F109" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G109" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="H109" s="23"/>
-      <c r="I109" s="36"/>
-    </row>
-    <row r="110" spans="1:9" ht="15">
+      <c r="G109" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H109" s="32"/>
+      <c r="I109" s="45"/>
+    </row>
+    <row r="110" spans="1:9" ht="14.4">
       <c r="A110" s="7">
         <v>32876</v>
       </c>
@@ -6734,20 +6896,22 @@
         <v>806C</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D110" s="7"/>
-      <c r="E110" s="13"/>
+      <c r="E110" s="27" t="s">
+        <v>408</v>
+      </c>
       <c r="F110" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G110" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="H110" s="23"/>
-      <c r="I110" s="36"/>
-    </row>
-    <row r="111" spans="1:9" ht="15">
+        <v>268</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H110" s="32"/>
+      <c r="I110" s="45"/>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="7">
         <v>32877</v>
       </c>
@@ -6755,21 +6919,23 @@
         <f t="shared" si="6"/>
         <v>806D</v>
       </c>
-      <c r="C111" s="24" t="s">
-        <v>233</v>
+      <c r="C111" s="28" t="s">
+        <v>230</v>
       </c>
       <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="G111" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="H111" s="23"/>
-      <c r="I111" s="36"/>
-    </row>
-    <row r="112" spans="1:9" ht="15">
+      <c r="E111" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="F111" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G111" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="H111" s="32"/>
+      <c r="I111" s="45"/>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="7">
         <v>32878</v>
       </c>
@@ -6777,15 +6943,17 @@
         <f t="shared" si="6"/>
         <v>806E</v>
       </c>
-      <c r="C112" s="24"/>
+      <c r="C112" s="28"/>
       <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="36"/>
-    </row>
-    <row r="113" spans="1:9" ht="16.5">
+      <c r="E112" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="45"/>
+    </row>
+    <row r="113" spans="1:9" ht="16.8">
       <c r="A113" s="7">
         <v>32879</v>
       </c>
@@ -6794,24 +6962,24 @@
         <v>806F</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G113" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="H113" s="23"/>
-      <c r="I113" s="36"/>
-    </row>
-    <row r="114" spans="1:9" ht="15">
+        <v>223</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="H113" s="32"/>
+      <c r="I113" s="45"/>
+    </row>
+    <row r="114" spans="1:9" ht="14.4">
       <c r="A114" s="7">
         <v>32880</v>
       </c>
@@ -6820,24 +6988,24 @@
         <v>8070</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G114" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="H114" s="23"/>
-      <c r="I114" s="36"/>
-    </row>
-    <row r="115" spans="1:9" ht="15">
+        <v>272</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H114" s="32"/>
+      <c r="I114" s="45"/>
+    </row>
+    <row r="115" spans="1:9" ht="14.4">
       <c r="A115" s="7">
         <v>32881</v>
       </c>
@@ -6846,24 +7014,24 @@
         <v>8071</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F115" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G115" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="G115" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="H115" s="23"/>
-      <c r="I115" s="36"/>
-    </row>
-    <row r="116" spans="1:9" ht="15">
+      <c r="H115" s="32"/>
+      <c r="I115" s="45"/>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="7">
         <v>32882</v>
       </c>
@@ -6871,21 +7039,23 @@
         <f t="shared" si="6"/>
         <v>8072</v>
       </c>
-      <c r="C116" s="24" t="s">
-        <v>236</v>
+      <c r="C116" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="G116" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="H116" s="23"/>
-      <c r="I116" s="36"/>
-    </row>
-    <row r="117" spans="1:9" ht="15">
+      <c r="E116" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F116" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="G116" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="H116" s="32"/>
+      <c r="I116" s="45"/>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="7">
         <v>32883</v>
       </c>
@@ -6893,15 +7063,17 @@
         <f t="shared" si="6"/>
         <v>8073</v>
       </c>
-      <c r="C117" s="24"/>
+      <c r="C117" s="28"/>
       <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="23"/>
-      <c r="I117" s="36"/>
-    </row>
-    <row r="118" spans="1:9" ht="15">
+      <c r="E117" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="45"/>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="7">
         <v>32884</v>
       </c>
@@ -6909,15 +7081,17 @@
         <f t="shared" si="6"/>
         <v>8074</v>
       </c>
-      <c r="C118" s="24"/>
+      <c r="C118" s="28"/>
       <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="36"/>
-    </row>
-    <row r="119" spans="1:9" ht="15">
+      <c r="E118" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="45"/>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="7">
         <v>32885</v>
       </c>
@@ -6925,15 +7099,17 @@
         <f t="shared" si="6"/>
         <v>8075</v>
       </c>
-      <c r="C119" s="24"/>
+      <c r="C119" s="28"/>
       <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="36"/>
-    </row>
-    <row r="120" spans="1:9" ht="15">
+      <c r="E119" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F119" s="28"/>
+      <c r="G119" s="28"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="45"/>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="7">
         <v>32886</v>
       </c>
@@ -6941,15 +7117,17 @@
         <f t="shared" si="6"/>
         <v>8076</v>
       </c>
-      <c r="C120" s="24"/>
+      <c r="C120" s="28"/>
       <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="36"/>
-    </row>
-    <row r="121" spans="1:9" ht="15">
+      <c r="E120" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="45"/>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="7">
         <v>32887</v>
       </c>
@@ -6957,15 +7135,17 @@
         <f t="shared" si="6"/>
         <v>8077</v>
       </c>
-      <c r="C121" s="24"/>
+      <c r="C121" s="28"/>
       <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="23"/>
-      <c r="I121" s="36"/>
-    </row>
-    <row r="122" spans="1:9" ht="15">
+      <c r="E121" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="45"/>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="7">
         <v>32888</v>
       </c>
@@ -6973,15 +7153,17 @@
         <f t="shared" si="6"/>
         <v>8078</v>
       </c>
-      <c r="C122" s="24"/>
+      <c r="C122" s="28"/>
       <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="24"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="36"/>
-    </row>
-    <row r="123" spans="1:9" ht="15">
+      <c r="E122" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F122" s="28"/>
+      <c r="G122" s="28"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="45"/>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="7">
         <v>32889</v>
       </c>
@@ -6989,15 +7171,17 @@
         <f t="shared" si="6"/>
         <v>8079</v>
       </c>
-      <c r="C123" s="24"/>
+      <c r="C123" s="28"/>
       <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="23"/>
-      <c r="I123" s="36"/>
-    </row>
-    <row r="124" spans="1:9" ht="15">
+      <c r="E123" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="45"/>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="7">
         <v>32890</v>
       </c>
@@ -7005,15 +7189,17 @@
         <f t="shared" si="6"/>
         <v>807A</v>
       </c>
-      <c r="C124" s="24"/>
+      <c r="C124" s="28"/>
       <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="23"/>
-      <c r="I124" s="36"/>
-    </row>
-    <row r="125" spans="1:9" ht="15">
+      <c r="E124" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F124" s="28"/>
+      <c r="G124" s="28"/>
+      <c r="H124" s="32"/>
+      <c r="I124" s="45"/>
+    </row>
+    <row r="125" spans="1:9" ht="14.4">
       <c r="A125" s="7">
         <v>32891</v>
       </c>
@@ -7022,24 +7208,24 @@
         <v>807B</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G125" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="H125" s="23"/>
-      <c r="I125" s="36"/>
-    </row>
-    <row r="126" spans="1:9" ht="15">
+        <v>272</v>
+      </c>
+      <c r="G125" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H125" s="32"/>
+      <c r="I125" s="45"/>
+    </row>
+    <row r="126" spans="1:9" ht="14.4">
       <c r="A126" s="7">
         <v>32892</v>
       </c>
@@ -7048,24 +7234,24 @@
         <v>807C</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G126" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="H126" s="23"/>
-      <c r="I126" s="36"/>
-    </row>
-    <row r="127" spans="1:9" ht="15">
+        <v>268</v>
+      </c>
+      <c r="G126" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H126" s="32"/>
+      <c r="I126" s="45"/>
+    </row>
+    <row r="127" spans="1:9" ht="14.4">
       <c r="A127" s="7">
         <v>32893</v>
       </c>
@@ -7074,24 +7260,24 @@
         <v>807D</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D127" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E127" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F127" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H127" s="23"/>
-      <c r="I127" s="36"/>
-    </row>
-    <row r="128" spans="1:9" ht="15">
+      <c r="H127" s="32"/>
+      <c r="I127" s="45"/>
+    </row>
+    <row r="128" spans="1:9" ht="14.4">
       <c r="A128" s="7">
         <v>32894</v>
       </c>
@@ -7100,20 +7286,22 @@
         <v>807E</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
+      <c r="E128" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="F128" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G128" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="H128" s="23"/>
-      <c r="I128" s="36"/>
-    </row>
-    <row r="129" spans="1:9" ht="15">
+        <v>268</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H128" s="32"/>
+      <c r="I128" s="45"/>
+    </row>
+    <row r="129" spans="1:9" ht="14.4">
       <c r="A129" s="7">
         <v>32895</v>
       </c>
@@ -7122,20 +7310,22 @@
         <v>807F</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
+      <c r="E129" s="7" t="s">
+        <v>406</v>
+      </c>
       <c r="F129" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G129" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="H129" s="23"/>
-      <c r="I129" s="36"/>
-    </row>
-    <row r="130" spans="1:9" ht="15">
+      <c r="G129" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="H129" s="32"/>
+      <c r="I129" s="45"/>
+    </row>
+    <row r="130" spans="1:9" ht="14.4">
       <c r="A130" s="7">
         <v>32896</v>
       </c>
@@ -7144,20 +7334,22 @@
         <v>8080</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
+      <c r="E130" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="F130" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G130" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="H130" s="23"/>
-      <c r="I130" s="36"/>
-    </row>
-    <row r="131" spans="1:9" ht="15">
+        <v>267</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H130" s="32"/>
+      <c r="I130" s="45"/>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="7">
         <v>32897</v>
       </c>
@@ -7165,27 +7357,27 @@
         <f t="shared" si="6"/>
         <v>8081</v>
       </c>
-      <c r="C131" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="D131" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E131" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="F131" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="G131" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="H131" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="I131" s="36"/>
-    </row>
-    <row r="132" spans="1:9" ht="15">
+      <c r="C131" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="F131" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G131" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="H131" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="I131" s="45"/>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="7">
         <v>32898</v>
       </c>
@@ -7193,15 +7385,17 @@
         <f t="shared" si="6"/>
         <v>8082</v>
       </c>
-      <c r="C132" s="24"/>
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="23"/>
-      <c r="I132" s="36"/>
-    </row>
-    <row r="133" spans="1:9" ht="16.5">
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="F132" s="28"/>
+      <c r="G132" s="28"/>
+      <c r="H132" s="32"/>
+      <c r="I132" s="45"/>
+    </row>
+    <row r="133" spans="1:9" ht="16.8">
       <c r="A133" s="7">
         <v>32899</v>
       </c>
@@ -7210,24 +7404,24 @@
         <v>8083</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G133" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="H133" s="23"/>
-      <c r="I133" s="36"/>
-    </row>
-    <row r="134" spans="1:9" ht="15">
+        <v>223</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="H133" s="32"/>
+      <c r="I133" s="45"/>
+    </row>
+    <row r="134" spans="1:9" ht="14.4">
       <c r="A134" s="7">
         <v>32900</v>
       </c>
@@ -7236,24 +7430,24 @@
         <v>8084</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H134" s="23"/>
-      <c r="I134" s="36"/>
-    </row>
-    <row r="135" spans="1:9" ht="15">
+        <v>289</v>
+      </c>
+      <c r="H134" s="32"/>
+      <c r="I134" s="45"/>
+    </row>
+    <row r="135" spans="1:9" ht="14.4">
       <c r="A135" s="7">
         <v>32901</v>
       </c>
@@ -7262,24 +7456,24 @@
         <v>8085</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H135" s="23"/>
-      <c r="I135" s="36"/>
-    </row>
-    <row r="136" spans="1:9" ht="15">
+        <v>293</v>
+      </c>
+      <c r="H135" s="32"/>
+      <c r="I135" s="45"/>
+    </row>
+    <row r="136" spans="1:9" ht="14.4">
       <c r="A136" s="7">
         <v>32902</v>
       </c>
@@ -7288,20 +7482,22 @@
         <v>8086</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
+      <c r="E136" s="7" t="s">
+        <v>399</v>
+      </c>
       <c r="F136" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H136" s="23"/>
-      <c r="I136" s="36"/>
-    </row>
-    <row r="137" spans="1:9" ht="15">
+        <v>295</v>
+      </c>
+      <c r="H136" s="32"/>
+      <c r="I136" s="45"/>
+    </row>
+    <row r="137" spans="1:9" ht="14.4">
       <c r="A137" s="7">
         <v>32903</v>
       </c>
@@ -7310,24 +7506,24 @@
         <v>8087</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F137" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G137" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="G137" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="H137" s="23"/>
-      <c r="I137" s="36"/>
-    </row>
-    <row r="138" spans="1:9" ht="15">
+      <c r="H137" s="32"/>
+      <c r="I137" s="45"/>
+    </row>
+    <row r="138" spans="1:9" ht="14.4">
       <c r="A138" s="7">
         <v>32904</v>
       </c>
@@ -7336,24 +7532,24 @@
         <v>8088</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D138" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E138" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="E138" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="F138" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G138" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="H138" s="23"/>
-      <c r="I138" s="36"/>
-    </row>
-    <row r="139" spans="1:9" ht="15">
+        <v>290</v>
+      </c>
+      <c r="G138" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H138" s="32"/>
+      <c r="I138" s="45"/>
+    </row>
+    <row r="139" spans="1:9" ht="14.4">
       <c r="A139" s="7">
         <v>32905</v>
       </c>
@@ -7362,24 +7558,24 @@
         <v>8089</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G139" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="H139" s="23"/>
-      <c r="I139" s="36"/>
-    </row>
-    <row r="140" spans="1:9" ht="15">
+        <v>290</v>
+      </c>
+      <c r="G139" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="H139" s="32"/>
+      <c r="I139" s="45"/>
+    </row>
+    <row r="140" spans="1:9" ht="14.4">
       <c r="A140" s="7">
         <v>32906</v>
       </c>
@@ -7388,24 +7584,24 @@
         <v>808A</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G140" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="H140" s="23"/>
-      <c r="I140" s="36"/>
-    </row>
-    <row r="141" spans="1:9" ht="15">
+        <v>301</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="H140" s="32"/>
+      <c r="I140" s="45"/>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="7">
         <v>32907</v>
       </c>
@@ -7413,23 +7609,25 @@
         <f t="shared" si="6"/>
         <v>808B</v>
       </c>
-      <c r="C141" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D141" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="G141" s="35" t="s">
+      <c r="C141" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D141" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="H141" s="23"/>
-      <c r="I141" s="36"/>
-    </row>
-    <row r="142" spans="1:9" ht="15">
+      <c r="E141" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F141" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G141" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="H141" s="32"/>
+      <c r="I141" s="45"/>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="7">
         <v>32908</v>
       </c>
@@ -7437,15 +7635,17 @@
         <f t="shared" si="6"/>
         <v>808C</v>
       </c>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="24"/>
-      <c r="G142" s="24"/>
-      <c r="H142" s="23"/>
-      <c r="I142" s="36"/>
-    </row>
-    <row r="143" spans="1:9" ht="15">
+      <c r="C142" s="28"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="45"/>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="7">
         <v>32909</v>
       </c>
@@ -7453,23 +7653,25 @@
         <f t="shared" si="6"/>
         <v>808D</v>
       </c>
-      <c r="C143" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="D143" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="G143" s="35" t="s">
+      <c r="C143" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D143" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="H143" s="23"/>
-      <c r="I143" s="36"/>
-    </row>
-    <row r="144" spans="1:9" ht="15">
+      <c r="E143" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F143" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G143" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="H143" s="32"/>
+      <c r="I143" s="45"/>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="7">
         <v>32910</v>
       </c>
@@ -7477,15 +7679,17 @@
         <f t="shared" si="6"/>
         <v>808E</v>
       </c>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="24"/>
-      <c r="G144" s="24"/>
-      <c r="H144" s="23"/>
-      <c r="I144" s="36"/>
-    </row>
-    <row r="145" spans="1:9" ht="15">
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
+      <c r="H144" s="32"/>
+      <c r="I144" s="45"/>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="7">
         <v>32911</v>
       </c>
@@ -7493,23 +7697,25 @@
         <f t="shared" si="6"/>
         <v>808F</v>
       </c>
-      <c r="C145" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D145" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="E145" s="7"/>
-      <c r="F145" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="G145" s="35" t="s">
+      <c r="C145" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D145" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="H145" s="23"/>
-      <c r="I145" s="36"/>
-    </row>
-    <row r="146" spans="1:9" ht="15">
+      <c r="E145" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F145" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G145" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="H145" s="32"/>
+      <c r="I145" s="45"/>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="7">
         <v>32912</v>
       </c>
@@ -7517,15 +7723,17 @@
         <f t="shared" si="6"/>
         <v>8090</v>
       </c>
-      <c r="C146" s="24"/>
-      <c r="D146" s="24"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="35"/>
-      <c r="H146" s="23"/>
-      <c r="I146" s="36"/>
-    </row>
-    <row r="147" spans="1:9" ht="15">
+      <c r="C146" s="28"/>
+      <c r="D146" s="28"/>
+      <c r="E146" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F146" s="28"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="32"/>
+      <c r="I146" s="45"/>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="7">
         <v>32913</v>
       </c>
@@ -7533,27 +7741,27 @@
         <f t="shared" si="6"/>
         <v>8091</v>
       </c>
-      <c r="C147" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="D147" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E147" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="F147" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="G147" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="H147" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="I147" s="36"/>
-    </row>
-    <row r="148" spans="1:9" ht="15">
+      <c r="C147" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D147" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="F147" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G147" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="H147" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="I147" s="45"/>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="7">
         <v>32914</v>
       </c>
@@ -7561,15 +7769,17 @@
         <f t="shared" si="6"/>
         <v>8092</v>
       </c>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="24"/>
-      <c r="G148" s="25"/>
-      <c r="H148" s="23"/>
-      <c r="I148" s="36"/>
-    </row>
-    <row r="149" spans="1:9" ht="16.5">
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="F148" s="28"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="45"/>
+    </row>
+    <row r="149" spans="1:9" ht="16.8">
       <c r="A149" s="7">
         <v>32915</v>
       </c>
@@ -7578,24 +7788,24 @@
         <v>8093</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G149" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="H149" s="23"/>
-      <c r="I149" s="36"/>
-    </row>
-    <row r="150" spans="1:9" ht="15">
+        <v>223</v>
+      </c>
+      <c r="G149" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="H149" s="32"/>
+      <c r="I149" s="45"/>
+    </row>
+    <row r="150" spans="1:9" ht="14.4">
       <c r="A150" s="7">
         <v>32916</v>
       </c>
@@ -7604,20 +7814,22 @@
         <v>8094</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
+      <c r="E150" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="F150" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G150" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="H150" s="23"/>
-      <c r="I150" s="36"/>
-    </row>
-    <row r="151" spans="1:9" ht="15">
+        <v>268</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="H150" s="32"/>
+      <c r="I150" s="45"/>
+    </row>
+    <row r="151" spans="1:9" ht="14.4">
       <c r="A151" s="7">
         <v>32917</v>
       </c>
@@ -7626,20 +7838,22 @@
         <v>8095</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
+      <c r="E151" s="7" t="s">
+        <v>406</v>
+      </c>
       <c r="F151" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H151" s="23"/>
-      <c r="I151" s="36"/>
-    </row>
-    <row r="152" spans="1:9" ht="15">
+        <v>316</v>
+      </c>
+      <c r="H151" s="32"/>
+      <c r="I151" s="45"/>
+    </row>
+    <row r="152" spans="1:9" ht="14.4">
       <c r="A152" s="7">
         <v>32918</v>
       </c>
@@ -7648,20 +7862,22 @@
         <v>8096</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
+      <c r="E152" s="26" t="s">
+        <v>407</v>
+      </c>
       <c r="F152" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G152" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="H152" s="23"/>
-      <c r="I152" s="36"/>
-    </row>
-    <row r="153" spans="1:9" ht="15">
+        <v>325</v>
+      </c>
+      <c r="G152" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="H152" s="32"/>
+      <c r="I152" s="45"/>
+    </row>
+    <row r="153" spans="1:9" ht="14.4">
       <c r="A153" s="7">
         <v>32919</v>
       </c>
@@ -7670,20 +7886,22 @@
         <v>8097</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
+      <c r="E153" s="26" t="s">
+        <v>409</v>
+      </c>
       <c r="F153" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G153" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="H153" s="23"/>
-      <c r="I153" s="36"/>
-    </row>
-    <row r="154" spans="1:9" ht="15">
+        <v>268</v>
+      </c>
+      <c r="G153" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H153" s="32"/>
+      <c r="I153" s="45"/>
+    </row>
+    <row r="154" spans="1:9" ht="14.4">
       <c r="A154" s="7">
         <v>32920</v>
       </c>
@@ -7692,20 +7910,22 @@
         <v>8098</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="G154" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="H154" s="23"/>
-      <c r="I154" s="36"/>
-    </row>
-    <row r="155" spans="1:9" ht="15">
+      <c r="E154" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="F154" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="H154" s="32"/>
+      <c r="I154" s="45"/>
+    </row>
+    <row r="155" spans="1:9" ht="14.4">
       <c r="A155" s="7">
         <v>32921</v>
       </c>
@@ -7714,20 +7934,22 @@
         <v>8099</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
+      <c r="E155" s="26" t="s">
+        <v>413</v>
+      </c>
       <c r="F155" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G155" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="H155" s="23"/>
-      <c r="I155" s="36"/>
-    </row>
-    <row r="156" spans="1:9" ht="15">
+        <v>272</v>
+      </c>
+      <c r="G155" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="H155" s="32"/>
+      <c r="I155" s="45"/>
+    </row>
+    <row r="156" spans="1:9" ht="14.4">
       <c r="A156" s="7">
         <v>32922</v>
       </c>
@@ -7736,26 +7958,26 @@
         <v>809A</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G156" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="H156" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="G156" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="H156" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="I156" s="36"/>
-    </row>
-    <row r="157" spans="1:9" ht="15">
+      <c r="I156" s="45"/>
+    </row>
+    <row r="157" spans="1:9" ht="14.4">
       <c r="A157" s="7">
         <v>32923</v>
       </c>
@@ -7764,20 +7986,22 @@
         <v>809B</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
+      <c r="E157" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="F157" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G157" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="H157" s="23"/>
-      <c r="I157" s="36"/>
-    </row>
-    <row r="158" spans="1:9" ht="15">
+        <v>268</v>
+      </c>
+      <c r="G157" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="H157" s="32"/>
+      <c r="I157" s="45"/>
+    </row>
+    <row r="158" spans="1:9" ht="14.4">
       <c r="A158" s="7">
         <v>32924</v>
       </c>
@@ -7786,20 +8010,22 @@
         <v>809C</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
+      <c r="E158" s="7" t="s">
+        <v>406</v>
+      </c>
       <c r="F158" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G158" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="H158" s="23"/>
-      <c r="I158" s="36"/>
-    </row>
-    <row r="159" spans="1:9" ht="15">
+        <v>268</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="H158" s="32"/>
+      <c r="I158" s="45"/>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="7">
         <v>32925</v>
       </c>
@@ -7811,15 +8037,17 @@
         <v>59</v>
       </c>
       <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
+      <c r="E159" s="7" t="s">
+        <v>419</v>
+      </c>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
-      <c r="H159" s="19" t="s">
+      <c r="H159" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I159" s="36"/>
-    </row>
-    <row r="160" spans="1:9" ht="15">
+      <c r="I159" s="45"/>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="7">
         <v>32926</v>
       </c>
@@ -7827,17 +8055,17 @@
         <f t="shared" si="6"/>
         <v>809E</v>
       </c>
-      <c r="C160" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D160" s="24"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="24"/>
-      <c r="H160" s="24"/>
-      <c r="I160" s="24"/>
-    </row>
-    <row r="161" spans="1:9" ht="15">
+      <c r="C160" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="D160" s="28"/>
+      <c r="E160" s="28"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="28"/>
+      <c r="H160" s="28"/>
+      <c r="I160" s="28"/>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="7">
         <v>32927</v>
       </c>
@@ -7845,15 +8073,15 @@
         <f t="shared" si="6"/>
         <v>809F</v>
       </c>
-      <c r="C161" s="24"/>
-      <c r="D161" s="24"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="24"/>
-      <c r="H161" s="24"/>
-      <c r="I161" s="24"/>
-    </row>
-    <row r="162" spans="1:9" ht="15">
+      <c r="C161" s="28"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="28"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="28"/>
+      <c r="H161" s="28"/>
+      <c r="I161" s="28"/>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="7">
         <v>32928</v>
       </c>
@@ -7861,15 +8089,15 @@
         <f t="shared" si="6"/>
         <v>80A0</v>
       </c>
-      <c r="C162" s="24"/>
-      <c r="D162" s="24"/>
-      <c r="E162" s="24"/>
-      <c r="F162" s="24"/>
-      <c r="G162" s="24"/>
-      <c r="H162" s="24"/>
-      <c r="I162" s="24"/>
-    </row>
-    <row r="163" spans="1:9" ht="15.75" thickBot="1">
+      <c r="C162" s="28"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="28"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="28"/>
+      <c r="H162" s="28"/>
+      <c r="I162" s="28"/>
+    </row>
+    <row r="163" spans="1:9" ht="14.4" thickBot="1">
       <c r="A163" s="7">
         <v>32929</v>
       </c>
@@ -7877,15 +8105,15 @@
         <f t="shared" si="6"/>
         <v>80A1</v>
       </c>
-      <c r="C163" s="24"/>
-      <c r="D163" s="24"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
-      <c r="G163" s="24"/>
-      <c r="H163" s="24"/>
-      <c r="I163" s="24"/>
-    </row>
-    <row r="164" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C163" s="28"/>
+      <c r="D163" s="28"/>
+      <c r="E163" s="28"/>
+      <c r="F163" s="28"/>
+      <c r="G163" s="28"/>
+      <c r="H163" s="28"/>
+      <c r="I163" s="28"/>
+    </row>
+    <row r="164" spans="1:9" ht="29.4" thickTop="1" thickBot="1">
       <c r="A164" s="7">
         <v>32930</v>
       </c>
@@ -7894,26 +8122,26 @@
         <v>80A2</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F164" s="7"/>
-      <c r="G164" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="H164" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="I164" s="25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="G164" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="H164" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I164" s="30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A165" s="7">
         <v>32931</v>
       </c>
@@ -7922,24 +8150,24 @@
         <v>80A3</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F165" s="7"/>
-      <c r="G165" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="H165" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="I165" s="24"/>
-    </row>
-    <row r="166" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="G165" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="H165" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="I165" s="28"/>
+    </row>
+    <row r="166" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A166" s="7">
         <v>32932</v>
       </c>
@@ -7948,22 +8176,22 @@
         <v>80A4</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F166" s="7"/>
-      <c r="G166" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="H166" s="37"/>
-      <c r="I166" s="24"/>
-    </row>
-    <row r="167" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="G166" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="H166" s="29"/>
+      <c r="I166" s="28"/>
+    </row>
+    <row r="167" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A167" s="7">
         <v>32933</v>
       </c>
@@ -7972,22 +8200,22 @@
         <v>80A5</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F167" s="7"/>
-      <c r="G167" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="H167" s="37"/>
-      <c r="I167" s="24"/>
-    </row>
-    <row r="168" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="G167" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="H167" s="29"/>
+      <c r="I167" s="28"/>
+    </row>
+    <row r="168" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A168" s="7">
         <v>32934</v>
       </c>
@@ -7996,22 +8224,22 @@
         <v>80A6</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F168" s="7"/>
-      <c r="G168" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="H168" s="37"/>
-      <c r="I168" s="24"/>
-    </row>
-    <row r="169" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="G168" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="H168" s="29"/>
+      <c r="I168" s="28"/>
+    </row>
+    <row r="169" spans="1:9" ht="15" thickTop="1" thickBot="1">
       <c r="A169" s="7">
         <v>32935</v>
       </c>
@@ -8019,21 +8247,21 @@
         <f t="shared" si="7"/>
         <v>80A7</v>
       </c>
-      <c r="C169" s="24" t="s">
-        <v>339</v>
+      <c r="C169" s="28" t="s">
+        <v>336</v>
       </c>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
-      <c r="G169" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="H169" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="I169" s="24"/>
-    </row>
-    <row r="170" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="G169" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="H169" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="I169" s="28"/>
+    </row>
+    <row r="170" spans="1:9" ht="15" thickTop="1" thickBot="1">
       <c r="A170" s="7">
         <v>32936</v>
       </c>
@@ -8041,15 +8269,15 @@
         <f t="shared" si="7"/>
         <v>80A8</v>
       </c>
-      <c r="C170" s="24"/>
+      <c r="C170" s="28"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7"/>
-      <c r="G170" s="24"/>
-      <c r="H170" s="37"/>
-      <c r="I170" s="24"/>
-    </row>
-    <row r="171" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="G170" s="28"/>
+      <c r="H170" s="29"/>
+      <c r="I170" s="28"/>
+    </row>
+    <row r="171" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A171" s="7">
         <v>32937</v>
       </c>
@@ -8058,24 +8286,24 @@
         <v>80A9</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G171" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="H171" s="37"/>
-      <c r="I171" s="24"/>
-    </row>
-    <row r="172" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>301</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="H171" s="29"/>
+      <c r="I171" s="28"/>
+    </row>
+    <row r="172" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A172" s="7">
         <v>32938</v>
       </c>
@@ -8084,24 +8312,24 @@
         <v>80AA</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G172" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="H172" s="37"/>
-      <c r="I172" s="24"/>
-    </row>
-    <row r="173" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>359</v>
+      </c>
+      <c r="G172" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="H172" s="29"/>
+      <c r="I172" s="28"/>
+    </row>
+    <row r="173" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A173" s="7">
         <v>32939</v>
       </c>
@@ -8110,24 +8338,24 @@
         <v>80AB</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F173" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G173" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="H173" s="37"/>
-      <c r="I173" s="24"/>
-    </row>
-    <row r="174" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>218</v>
+      </c>
+      <c r="G173" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="H173" s="29"/>
+      <c r="I173" s="28"/>
+    </row>
+    <row r="174" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A174" s="7">
         <v>32940</v>
       </c>
@@ -8136,48 +8364,48 @@
         <v>80AC</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G174" s="17" t="s">
-        <v>368</v>
-      </c>
-      <c r="H174" s="37"/>
-      <c r="I174" s="24"/>
-    </row>
-    <row r="175" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>272</v>
+      </c>
+      <c r="G174" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="H174" s="29"/>
+      <c r="I174" s="28"/>
+    </row>
+    <row r="175" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A175" s="7">
         <v>32941</v>
       </c>
       <c r="B175" s="7" t="str">
-        <f t="shared" ref="B175:B184" si="8">DEC2HEX(A175)</f>
+        <f t="shared" ref="B175:B188" si="8">DEC2HEX(A175)</f>
         <v>80AD</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F175" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G175" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="H175" s="37"/>
-      <c r="I175" s="24"/>
+        <v>301</v>
+      </c>
+      <c r="G175" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="H175" s="29"/>
+      <c r="I175" s="28"/>
     </row>
     <row r="176" spans="1:9" ht="18" thickTop="1" thickBot="1">
       <c r="A176" s="7">
@@ -8188,24 +8416,24 @@
         <v>80AE</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F176" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G176" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="H176" s="37"/>
-      <c r="I176" s="24"/>
-    </row>
-    <row r="177" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>223</v>
+      </c>
+      <c r="G176" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="H176" s="29"/>
+      <c r="I176" s="28"/>
+    </row>
+    <row r="177" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A177" s="7">
         <v>32943</v>
       </c>
@@ -8214,24 +8442,24 @@
         <v>80AF</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G177" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="H177" s="37"/>
-      <c r="I177" s="24"/>
-    </row>
-    <row r="178" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>272</v>
+      </c>
+      <c r="G177" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="H177" s="29"/>
+      <c r="I177" s="28"/>
+    </row>
+    <row r="178" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A178" s="7">
         <v>32944</v>
       </c>
@@ -8240,24 +8468,24 @@
         <v>80B0</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F178" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G178" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="H178" s="37"/>
-      <c r="I178" s="24"/>
-    </row>
-    <row r="179" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>372</v>
+      </c>
+      <c r="G178" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="H178" s="29"/>
+      <c r="I178" s="28"/>
+    </row>
+    <row r="179" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A179" s="7">
         <v>32945</v>
       </c>
@@ -8266,24 +8494,24 @@
         <v>80B1</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G179" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="H179" s="37"/>
-      <c r="I179" s="24"/>
-    </row>
-    <row r="180" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>301</v>
+      </c>
+      <c r="G179" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="H179" s="29"/>
+      <c r="I179" s="28"/>
+    </row>
+    <row r="180" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A180" s="7">
         <v>32946</v>
       </c>
@@ -8292,24 +8520,24 @@
         <v>80B2</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G180" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="H180" s="37"/>
-      <c r="I180" s="24"/>
-    </row>
-    <row r="181" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>301</v>
+      </c>
+      <c r="G180" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="H180" s="29"/>
+      <c r="I180" s="28"/>
+    </row>
+    <row r="181" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A181" s="7">
         <v>32947</v>
       </c>
@@ -8318,24 +8546,24 @@
         <v>80B3</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G181" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="H181" s="37"/>
-      <c r="I181" s="24"/>
-    </row>
-    <row r="182" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>301</v>
+      </c>
+      <c r="G181" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H181" s="29"/>
+      <c r="I181" s="28"/>
+    </row>
+    <row r="182" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A182" s="7">
         <v>32948</v>
       </c>
@@ -8344,24 +8572,24 @@
         <v>80B4</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G182" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="H182" s="37"/>
-      <c r="I182" s="24"/>
-    </row>
-    <row r="183" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>377</v>
+      </c>
+      <c r="G182" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="H182" s="29"/>
+      <c r="I182" s="28"/>
+    </row>
+    <row r="183" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
       <c r="A183" s="7">
         <v>32949</v>
       </c>
@@ -8370,24 +8598,24 @@
         <v>80B5</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F183" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G183" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="H183" s="37"/>
-      <c r="I183" s="24"/>
-    </row>
-    <row r="184" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>381</v>
+      </c>
+      <c r="G183" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="H183" s="29"/>
+      <c r="I183" s="28"/>
+    </row>
+    <row r="184" spans="1:9" ht="15" thickTop="1" thickBot="1">
       <c r="A184" s="7">
         <v>32950</v>
       </c>
@@ -8402,1514 +8630,1541 @@
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
-      <c r="H184" s="21" t="s">
+      <c r="H184" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I184" s="24"/>
-    </row>
-    <row r="185" spans="1:9" ht="15.75" thickTop="1">
-      <c r="A185" s="15"/>
-      <c r="B185" s="15"/>
-      <c r="C185" s="16"/>
-      <c r="D185" s="16"/>
-      <c r="E185" s="16"/>
-      <c r="F185" s="16"/>
-      <c r="G185" s="16"/>
-      <c r="H185" s="16"/>
-      <c r="I185" s="16"/>
-    </row>
-    <row r="186" spans="1:9" ht="15">
-      <c r="A186" s="15"/>
-      <c r="B186" s="15"/>
-      <c r="C186" s="16"/>
-      <c r="D186" s="16"/>
-      <c r="E186" s="16"/>
-      <c r="F186" s="16"/>
-      <c r="G186" s="16"/>
-      <c r="H186" s="16"/>
-      <c r="I186" s="16"/>
-    </row>
-    <row r="187" spans="1:9" ht="15">
-      <c r="A187" s="15"/>
-      <c r="B187" s="15"/>
-      <c r="C187" s="16"/>
-      <c r="D187" s="16"/>
-      <c r="E187" s="16"/>
-      <c r="F187" s="16"/>
-      <c r="G187" s="16"/>
-      <c r="H187" s="16"/>
-      <c r="I187" s="16"/>
-    </row>
-    <row r="188" spans="1:9" ht="15">
-      <c r="A188" s="15"/>
-      <c r="B188" s="15"/>
-      <c r="C188" s="16"/>
-      <c r="D188" s="16"/>
-      <c r="E188" s="16"/>
-      <c r="F188" s="16"/>
-      <c r="G188" s="16"/>
-      <c r="H188" s="16"/>
-      <c r="I188" s="16"/>
-    </row>
-    <row r="189" spans="1:9" ht="15">
-      <c r="A189" s="15"/>
-      <c r="B189" s="15"/>
-      <c r="C189" s="16"/>
-      <c r="D189" s="16"/>
-      <c r="E189" s="16"/>
-      <c r="F189" s="16"/>
-      <c r="G189" s="16"/>
-      <c r="H189" s="16"/>
-      <c r="I189" s="16"/>
-    </row>
-    <row r="190" spans="1:9" ht="15">
-      <c r="A190" s="15"/>
-      <c r="B190" s="15"/>
-      <c r="C190" s="16"/>
-      <c r="D190" s="16"/>
-      <c r="E190" s="16"/>
-      <c r="F190" s="16"/>
-      <c r="G190" s="16"/>
-      <c r="H190" s="16"/>
-      <c r="I190" s="16"/>
-    </row>
-    <row r="191" spans="1:9" ht="15">
-      <c r="A191" s="15"/>
-      <c r="B191" s="15"/>
-      <c r="C191" s="16"/>
-      <c r="D191" s="16"/>
-      <c r="E191" s="16"/>
-      <c r="F191" s="16"/>
-      <c r="G191" s="16"/>
-      <c r="H191" s="16"/>
-      <c r="I191" s="16"/>
-    </row>
-    <row r="192" spans="1:9" ht="15">
-      <c r="A192" s="15"/>
-      <c r="B192" s="15"/>
-      <c r="C192" s="16"/>
-      <c r="D192" s="16"/>
-      <c r="E192" s="16"/>
-      <c r="F192" s="16"/>
-      <c r="G192" s="16"/>
-      <c r="H192" s="16"/>
-      <c r="I192" s="16"/>
-    </row>
-    <row r="193" spans="1:9" ht="15">
-      <c r="A193" s="15"/>
-      <c r="B193" s="15"/>
-      <c r="C193" s="16"/>
-      <c r="D193" s="16"/>
-      <c r="E193" s="16"/>
-      <c r="F193" s="16"/>
-      <c r="G193" s="16"/>
-      <c r="H193" s="16"/>
-      <c r="I193" s="16"/>
-    </row>
-    <row r="194" spans="1:9" ht="15">
-      <c r="A194" s="15"/>
-      <c r="B194" s="15"/>
-      <c r="C194" s="16"/>
-      <c r="D194" s="16"/>
-      <c r="E194" s="16"/>
-      <c r="F194" s="16"/>
-      <c r="G194" s="16"/>
-      <c r="H194" s="16"/>
-      <c r="I194" s="16"/>
-    </row>
-    <row r="195" spans="1:9" ht="15">
-      <c r="A195" s="15"/>
-      <c r="B195" s="15"/>
-      <c r="C195" s="16"/>
-      <c r="D195" s="16"/>
-      <c r="E195" s="16"/>
-      <c r="F195" s="16"/>
-      <c r="G195" s="16"/>
-      <c r="H195" s="16"/>
-      <c r="I195" s="16"/>
-    </row>
-    <row r="196" spans="1:9" ht="15">
-      <c r="A196" s="15"/>
-      <c r="B196" s="15"/>
-      <c r="C196" s="16"/>
-      <c r="D196" s="16"/>
-      <c r="E196" s="16"/>
-      <c r="F196" s="16"/>
-      <c r="G196" s="16"/>
-      <c r="H196" s="16"/>
-      <c r="I196" s="16"/>
-    </row>
-    <row r="197" spans="1:9" ht="15">
-      <c r="A197" s="15"/>
-      <c r="B197" s="15"/>
-      <c r="C197" s="16"/>
-      <c r="D197" s="16"/>
-      <c r="E197" s="16"/>
-      <c r="F197" s="16"/>
-      <c r="G197" s="16"/>
-      <c r="H197" s="16"/>
-      <c r="I197" s="16"/>
-    </row>
-    <row r="198" spans="1:9" ht="15">
-      <c r="A198" s="15"/>
-      <c r="B198" s="15"/>
-      <c r="C198" s="16"/>
-      <c r="D198" s="16"/>
-      <c r="E198" s="16"/>
-      <c r="F198" s="16"/>
-      <c r="G198" s="16"/>
-      <c r="H198" s="16"/>
-      <c r="I198" s="16"/>
-    </row>
-    <row r="199" spans="1:9" ht="15">
-      <c r="A199" s="15"/>
-      <c r="B199" s="15"/>
-      <c r="C199" s="16"/>
-      <c r="D199" s="16"/>
-      <c r="E199" s="16"/>
-      <c r="F199" s="16"/>
-      <c r="G199" s="16"/>
-      <c r="H199" s="16"/>
-      <c r="I199" s="16"/>
-    </row>
-    <row r="200" spans="1:9" ht="15">
-      <c r="A200" s="15"/>
-      <c r="B200" s="15"/>
-      <c r="C200" s="16"/>
-      <c r="D200" s="16"/>
-      <c r="E200" s="16"/>
-      <c r="F200" s="16"/>
-      <c r="G200" s="16"/>
-      <c r="H200" s="16"/>
-      <c r="I200" s="16"/>
-    </row>
-    <row r="201" spans="1:9" ht="15">
-      <c r="A201" s="15"/>
-      <c r="B201" s="15"/>
-      <c r="C201" s="16"/>
-      <c r="D201" s="16"/>
-      <c r="E201" s="16"/>
-      <c r="F201" s="16"/>
-      <c r="G201" s="16"/>
-      <c r="H201" s="16"/>
-      <c r="I201" s="16"/>
-    </row>
-    <row r="202" spans="1:9" ht="15">
-      <c r="A202" s="15"/>
-      <c r="B202" s="15"/>
-      <c r="C202" s="16"/>
-      <c r="D202" s="16"/>
-      <c r="E202" s="16"/>
-      <c r="F202" s="16"/>
-      <c r="G202" s="16"/>
-      <c r="H202" s="16"/>
-      <c r="I202" s="16"/>
-    </row>
-    <row r="203" spans="1:9" ht="15">
-      <c r="A203" s="15"/>
-      <c r="B203" s="15"/>
-      <c r="C203" s="16"/>
-      <c r="D203" s="16"/>
-      <c r="E203" s="16"/>
-      <c r="F203" s="16"/>
-      <c r="G203" s="16"/>
-      <c r="H203" s="16"/>
-      <c r="I203" s="16"/>
-    </row>
-    <row r="204" spans="1:9" ht="15">
-      <c r="A204" s="15"/>
-      <c r="B204" s="15"/>
-      <c r="C204" s="16"/>
-      <c r="D204" s="16"/>
-      <c r="E204" s="16"/>
-      <c r="F204" s="16"/>
-      <c r="G204" s="16"/>
-      <c r="H204" s="16"/>
-      <c r="I204" s="16"/>
-    </row>
-    <row r="205" spans="1:9" ht="15">
-      <c r="A205" s="15"/>
-      <c r="B205" s="15"/>
-      <c r="C205" s="16"/>
-      <c r="D205" s="16"/>
-      <c r="E205" s="16"/>
-      <c r="F205" s="16"/>
-      <c r="G205" s="16"/>
-      <c r="H205" s="16"/>
-      <c r="I205" s="16"/>
-    </row>
-    <row r="206" spans="1:9" ht="15">
-      <c r="A206" s="15"/>
-      <c r="B206" s="15"/>
-      <c r="C206" s="16"/>
-      <c r="D206" s="16"/>
-      <c r="E206" s="16"/>
-      <c r="F206" s="16"/>
-      <c r="G206" s="16"/>
-      <c r="H206" s="16"/>
-      <c r="I206" s="16"/>
-    </row>
-    <row r="207" spans="1:9" ht="15">
-      <c r="A207" s="16"/>
-      <c r="B207" s="16"/>
-      <c r="C207" s="16"/>
-      <c r="D207" s="16"/>
-      <c r="E207" s="16"/>
-      <c r="F207" s="16"/>
-      <c r="G207" s="16"/>
-      <c r="H207" s="16"/>
-      <c r="I207" s="16"/>
-    </row>
-    <row r="208" spans="1:9" ht="15">
-      <c r="A208" s="16"/>
-      <c r="B208" s="16"/>
-      <c r="C208" s="16"/>
-      <c r="D208" s="16"/>
-      <c r="E208" s="16"/>
-      <c r="F208" s="16"/>
-      <c r="G208" s="16"/>
-      <c r="H208" s="16"/>
-      <c r="I208" s="16"/>
-    </row>
-    <row r="209" spans="1:9" ht="15">
-      <c r="A209" s="16"/>
-      <c r="B209" s="16"/>
-      <c r="C209" s="16"/>
-      <c r="D209" s="16"/>
-      <c r="E209" s="16"/>
-      <c r="F209" s="16"/>
-      <c r="G209" s="16"/>
-      <c r="H209" s="16"/>
-      <c r="I209" s="16"/>
-    </row>
-    <row r="210" spans="1:9" ht="15">
-      <c r="A210" s="16"/>
-      <c r="B210" s="16"/>
-      <c r="C210" s="16"/>
-      <c r="D210" s="16"/>
-      <c r="E210" s="16"/>
-      <c r="F210" s="16"/>
-      <c r="G210" s="16"/>
-      <c r="H210" s="16"/>
-      <c r="I210" s="16"/>
-    </row>
-    <row r="211" spans="1:9" ht="15">
-      <c r="A211" s="16"/>
-      <c r="B211" s="16"/>
-      <c r="C211" s="16"/>
-      <c r="D211" s="16"/>
-      <c r="E211" s="16"/>
-      <c r="F211" s="16"/>
-      <c r="G211" s="16"/>
-      <c r="H211" s="16"/>
-      <c r="I211" s="16"/>
-    </row>
-    <row r="212" spans="1:9" ht="15">
-      <c r="A212" s="16"/>
-      <c r="B212" s="16"/>
-      <c r="C212" s="16"/>
-      <c r="D212" s="16"/>
-      <c r="E212" s="16"/>
-      <c r="F212" s="16"/>
-      <c r="G212" s="16"/>
-      <c r="H212" s="16"/>
-      <c r="I212" s="16"/>
-    </row>
-    <row r="213" spans="1:9" ht="15">
-      <c r="A213" s="16"/>
-      <c r="B213" s="16"/>
-      <c r="C213" s="16"/>
-      <c r="D213" s="16"/>
-      <c r="E213" s="16"/>
-      <c r="F213" s="16"/>
-      <c r="G213" s="16"/>
-      <c r="H213" s="16"/>
-      <c r="I213" s="16"/>
-    </row>
-    <row r="214" spans="1:9" ht="15">
-      <c r="A214" s="16"/>
-      <c r="B214" s="16"/>
-      <c r="C214" s="16"/>
-      <c r="D214" s="16"/>
-      <c r="E214" s="16"/>
-      <c r="F214" s="16"/>
-      <c r="G214" s="16"/>
-      <c r="H214" s="16"/>
-      <c r="I214" s="16"/>
-    </row>
-    <row r="215" spans="1:9" ht="15">
-      <c r="A215" s="16"/>
-      <c r="B215" s="16"/>
-      <c r="C215" s="16"/>
-      <c r="D215" s="16"/>
-      <c r="E215" s="16"/>
-      <c r="F215" s="16"/>
-      <c r="G215" s="16"/>
-      <c r="H215" s="16"/>
-      <c r="I215" s="16"/>
-    </row>
-    <row r="216" spans="1:9" ht="15">
-      <c r="A216" s="16"/>
-      <c r="B216" s="16"/>
-      <c r="C216" s="16"/>
-      <c r="D216" s="16"/>
-      <c r="E216" s="16"/>
-      <c r="F216" s="16"/>
-      <c r="G216" s="16"/>
-      <c r="H216" s="16"/>
-      <c r="I216" s="16"/>
-    </row>
-    <row r="217" spans="1:9" ht="15">
-      <c r="A217" s="16"/>
-      <c r="B217" s="16"/>
-      <c r="C217" s="16"/>
-      <c r="D217" s="16"/>
-      <c r="E217" s="16"/>
-      <c r="F217" s="16"/>
-      <c r="G217" s="16"/>
-      <c r="H217" s="16"/>
-      <c r="I217" s="16"/>
-    </row>
-    <row r="218" spans="1:9" ht="15">
-      <c r="A218" s="16"/>
-      <c r="B218" s="16"/>
-      <c r="C218" s="16"/>
-      <c r="D218" s="16"/>
-      <c r="E218" s="16"/>
-      <c r="F218" s="16"/>
-      <c r="G218" s="16"/>
-      <c r="H218" s="16"/>
-      <c r="I218" s="16"/>
-    </row>
-    <row r="219" spans="1:9">
-      <c r="A219" s="14"/>
-      <c r="B219" s="14"/>
-      <c r="C219" s="14"/>
-      <c r="D219" s="14"/>
-      <c r="E219" s="14"/>
-      <c r="F219" s="14"/>
-      <c r="G219" s="14"/>
-      <c r="H219" s="14"/>
-      <c r="I219" s="14"/>
-    </row>
-    <row r="220" spans="1:9">
-      <c r="A220" s="14"/>
-      <c r="B220" s="14"/>
-      <c r="C220" s="14"/>
-      <c r="D220" s="14"/>
-      <c r="E220" s="14"/>
-      <c r="F220" s="14"/>
-      <c r="G220" s="14"/>
-      <c r="H220" s="14"/>
-      <c r="I220" s="14"/>
-    </row>
-    <row r="221" spans="1:9">
-      <c r="A221" s="14"/>
-      <c r="B221" s="14"/>
-      <c r="C221" s="14"/>
-      <c r="D221" s="14"/>
-      <c r="E221" s="14"/>
-      <c r="F221" s="14"/>
-      <c r="G221" s="14"/>
-      <c r="H221" s="14"/>
-      <c r="I221" s="14"/>
-    </row>
-    <row r="222" spans="1:9">
-      <c r="A222" s="14"/>
-      <c r="B222" s="14"/>
-      <c r="C222" s="14"/>
-      <c r="D222" s="14"/>
-      <c r="E222" s="14"/>
-      <c r="F222" s="14"/>
-      <c r="G222" s="14"/>
-      <c r="H222" s="14"/>
-      <c r="I222" s="14"/>
-    </row>
-    <row r="223" spans="1:9">
-      <c r="A223" s="14"/>
-      <c r="B223" s="14"/>
-      <c r="C223" s="14"/>
-      <c r="D223" s="14"/>
-      <c r="E223" s="14"/>
-      <c r="F223" s="14"/>
-      <c r="G223" s="14"/>
-      <c r="H223" s="14"/>
-      <c r="I223" s="14"/>
-    </row>
-    <row r="224" spans="1:9">
-      <c r="A224" s="14"/>
-      <c r="B224" s="14"/>
-      <c r="C224" s="14"/>
-      <c r="D224" s="14"/>
-      <c r="E224" s="14"/>
-      <c r="F224" s="14"/>
-      <c r="G224" s="14"/>
-      <c r="H224" s="14"/>
-      <c r="I224" s="14"/>
-    </row>
-    <row r="225" spans="1:9">
-      <c r="A225" s="14"/>
-      <c r="B225" s="14"/>
-      <c r="C225" s="14"/>
-      <c r="D225" s="14"/>
-      <c r="E225" s="14"/>
-      <c r="F225" s="14"/>
-      <c r="G225" s="14"/>
-      <c r="H225" s="14"/>
-      <c r="I225" s="14"/>
-    </row>
-    <row r="226" spans="1:9">
-      <c r="A226" s="14"/>
-      <c r="B226" s="14"/>
-      <c r="C226" s="14"/>
-      <c r="D226" s="14"/>
-      <c r="E226" s="14"/>
-      <c r="F226" s="14"/>
-      <c r="G226" s="14"/>
-      <c r="H226" s="14"/>
-      <c r="I226" s="14"/>
-    </row>
-    <row r="227" spans="1:9">
-      <c r="A227" s="14"/>
-      <c r="B227" s="14"/>
-      <c r="C227" s="14"/>
-      <c r="D227" s="14"/>
-      <c r="E227" s="14"/>
-      <c r="F227" s="14"/>
-      <c r="G227" s="14"/>
-      <c r="H227" s="14"/>
-      <c r="I227" s="14"/>
-    </row>
-    <row r="228" spans="1:9">
-      <c r="A228" s="14"/>
-      <c r="B228" s="14"/>
-      <c r="C228" s="14"/>
-      <c r="D228" s="14"/>
-      <c r="E228" s="14"/>
-      <c r="F228" s="14"/>
-      <c r="G228" s="14"/>
-      <c r="H228" s="14"/>
-      <c r="I228" s="14"/>
-    </row>
-    <row r="229" spans="1:9">
-      <c r="A229" s="14"/>
-      <c r="B229" s="14"/>
-      <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
-      <c r="E229" s="14"/>
-      <c r="F229" s="14"/>
-      <c r="G229" s="14"/>
-      <c r="H229" s="14"/>
-      <c r="I229" s="14"/>
-    </row>
-    <row r="230" spans="1:9">
-      <c r="A230" s="14"/>
-      <c r="B230" s="14"/>
-      <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
-      <c r="E230" s="14"/>
-      <c r="F230" s="14"/>
-      <c r="G230" s="14"/>
-      <c r="H230" s="14"/>
-      <c r="I230" s="14"/>
-    </row>
-    <row r="231" spans="1:9">
-      <c r="A231" s="14"/>
-      <c r="B231" s="14"/>
-      <c r="C231" s="14"/>
-      <c r="D231" s="14"/>
-      <c r="E231" s="14"/>
-      <c r="F231" s="14"/>
-      <c r="G231" s="14"/>
-      <c r="H231" s="14"/>
-      <c r="I231" s="14"/>
-    </row>
-    <row r="232" spans="1:9">
-      <c r="A232" s="14"/>
-      <c r="B232" s="14"/>
-      <c r="C232" s="14"/>
-      <c r="D232" s="14"/>
-      <c r="E232" s="14"/>
-      <c r="F232" s="14"/>
-      <c r="G232" s="14"/>
-      <c r="H232" s="14"/>
-      <c r="I232" s="14"/>
-    </row>
-    <row r="233" spans="1:9">
-      <c r="A233" s="14"/>
-      <c r="B233" s="14"/>
-      <c r="C233" s="14"/>
-      <c r="D233" s="14"/>
-      <c r="E233" s="14"/>
-      <c r="F233" s="14"/>
-      <c r="G233" s="14"/>
-      <c r="H233" s="14"/>
-      <c r="I233" s="14"/>
-    </row>
-    <row r="234" spans="1:9">
-      <c r="A234" s="14"/>
-      <c r="B234" s="14"/>
-      <c r="C234" s="14"/>
-      <c r="D234" s="14"/>
-      <c r="E234" s="14"/>
-      <c r="F234" s="14"/>
-      <c r="G234" s="14"/>
-      <c r="H234" s="14"/>
-      <c r="I234" s="14"/>
-    </row>
-    <row r="235" spans="1:9">
-      <c r="A235" s="14"/>
-      <c r="B235" s="14"/>
-      <c r="C235" s="14"/>
-      <c r="D235" s="14"/>
-      <c r="E235" s="14"/>
-      <c r="F235" s="14"/>
-      <c r="G235" s="14"/>
-      <c r="H235" s="14"/>
-      <c r="I235" s="14"/>
-    </row>
-    <row r="236" spans="1:9">
-      <c r="A236" s="14"/>
-      <c r="B236" s="14"/>
-      <c r="C236" s="14"/>
-      <c r="D236" s="14"/>
-      <c r="E236" s="14"/>
-      <c r="F236" s="14"/>
-      <c r="G236" s="14"/>
-      <c r="H236" s="14"/>
-      <c r="I236" s="14"/>
-    </row>
-    <row r="237" spans="1:9">
-      <c r="A237" s="14"/>
-      <c r="B237" s="14"/>
-      <c r="C237" s="14"/>
-      <c r="D237" s="14"/>
-      <c r="E237" s="14"/>
-      <c r="F237" s="14"/>
-      <c r="G237" s="14"/>
-      <c r="H237" s="14"/>
-      <c r="I237" s="14"/>
-    </row>
-    <row r="238" spans="1:9">
-      <c r="A238" s="14"/>
-      <c r="B238" s="14"/>
-      <c r="C238" s="14"/>
-      <c r="D238" s="14"/>
-      <c r="E238" s="14"/>
-      <c r="F238" s="14"/>
-      <c r="G238" s="14"/>
-      <c r="H238" s="14"/>
-      <c r="I238" s="14"/>
-    </row>
-    <row r="239" spans="1:9">
-      <c r="A239" s="14"/>
-      <c r="B239" s="14"/>
-      <c r="C239" s="14"/>
-      <c r="D239" s="14"/>
-      <c r="E239" s="14"/>
-      <c r="F239" s="14"/>
-      <c r="G239" s="14"/>
-      <c r="H239" s="14"/>
-      <c r="I239" s="14"/>
-    </row>
-    <row r="240" spans="1:9">
-      <c r="A240" s="14"/>
-      <c r="B240" s="14"/>
-      <c r="C240" s="14"/>
-      <c r="D240" s="14"/>
-      <c r="E240" s="14"/>
-      <c r="F240" s="14"/>
-      <c r="G240" s="14"/>
-      <c r="H240" s="14"/>
-      <c r="I240" s="14"/>
-    </row>
-    <row r="241" spans="1:9">
-      <c r="A241" s="14"/>
-      <c r="B241" s="14"/>
-      <c r="C241" s="14"/>
-      <c r="D241" s="14"/>
-      <c r="E241" s="14"/>
-      <c r="F241" s="14"/>
-      <c r="G241" s="14"/>
-      <c r="H241" s="14"/>
-      <c r="I241" s="14"/>
-    </row>
-    <row r="242" spans="1:9">
-      <c r="A242" s="14"/>
-      <c r="B242" s="14"/>
-      <c r="C242" s="14"/>
-      <c r="D242" s="14"/>
-      <c r="E242" s="14"/>
-      <c r="F242" s="14"/>
-      <c r="G242" s="14"/>
-      <c r="H242" s="14"/>
-      <c r="I242" s="14"/>
-    </row>
-    <row r="243" spans="1:9">
-      <c r="A243" s="14"/>
-      <c r="B243" s="14"/>
-      <c r="C243" s="14"/>
-      <c r="D243" s="14"/>
-      <c r="E243" s="14"/>
-      <c r="F243" s="14"/>
-      <c r="G243" s="14"/>
-      <c r="H243" s="14"/>
-      <c r="I243" s="14"/>
-    </row>
-    <row r="244" spans="1:9">
-      <c r="A244" s="14"/>
-      <c r="B244" s="14"/>
-      <c r="C244" s="14"/>
-      <c r="D244" s="14"/>
-      <c r="E244" s="14"/>
-      <c r="F244" s="14"/>
-      <c r="G244" s="14"/>
-      <c r="H244" s="14"/>
-      <c r="I244" s="14"/>
-    </row>
-    <row r="245" spans="1:9">
-      <c r="A245" s="14"/>
-      <c r="B245" s="14"/>
-      <c r="C245" s="14"/>
-      <c r="D245" s="14"/>
-      <c r="E245" s="14"/>
-      <c r="F245" s="14"/>
-      <c r="G245" s="14"/>
-      <c r="H245" s="14"/>
-      <c r="I245" s="14"/>
-    </row>
-    <row r="246" spans="1:9">
-      <c r="A246" s="14"/>
-      <c r="B246" s="14"/>
-      <c r="C246" s="14"/>
-      <c r="D246" s="14"/>
-      <c r="E246" s="14"/>
-      <c r="F246" s="14"/>
-      <c r="G246" s="14"/>
-      <c r="H246" s="14"/>
-      <c r="I246" s="14"/>
-    </row>
-    <row r="247" spans="1:9">
-      <c r="A247" s="14"/>
-      <c r="B247" s="14"/>
-      <c r="C247" s="14"/>
-      <c r="D247" s="14"/>
-      <c r="E247" s="14"/>
-      <c r="F247" s="14"/>
-      <c r="G247" s="14"/>
-      <c r="H247" s="14"/>
-      <c r="I247" s="14"/>
-    </row>
-    <row r="248" spans="1:9">
-      <c r="A248" s="14"/>
-      <c r="B248" s="14"/>
-      <c r="C248" s="14"/>
-      <c r="D248" s="14"/>
-      <c r="E248" s="14"/>
-      <c r="F248" s="14"/>
-      <c r="G248" s="14"/>
-      <c r="H248" s="14"/>
-      <c r="I248" s="14"/>
-    </row>
-    <row r="249" spans="1:9">
-      <c r="A249" s="14"/>
-      <c r="B249" s="14"/>
-      <c r="C249" s="14"/>
-      <c r="D249" s="14"/>
-      <c r="E249" s="14"/>
-      <c r="F249" s="14"/>
-      <c r="G249" s="14"/>
-      <c r="H249" s="14"/>
-      <c r="I249" s="14"/>
-    </row>
-    <row r="250" spans="1:9">
-      <c r="A250" s="14"/>
-      <c r="B250" s="14"/>
-      <c r="C250" s="14"/>
-      <c r="D250" s="14"/>
-      <c r="E250" s="14"/>
-      <c r="F250" s="14"/>
-      <c r="G250" s="14"/>
-      <c r="H250" s="14"/>
-      <c r="I250" s="14"/>
-    </row>
-    <row r="251" spans="1:9">
-      <c r="A251" s="14"/>
-      <c r="B251" s="14"/>
-      <c r="C251" s="14"/>
-      <c r="D251" s="14"/>
-      <c r="E251" s="14"/>
-      <c r="F251" s="14"/>
-      <c r="G251" s="14"/>
-      <c r="H251" s="14"/>
-      <c r="I251" s="14"/>
-    </row>
-    <row r="252" spans="1:9">
-      <c r="A252" s="14"/>
-      <c r="B252" s="14"/>
-      <c r="C252" s="14"/>
-      <c r="D252" s="14"/>
-      <c r="E252" s="14"/>
-      <c r="F252" s="14"/>
-      <c r="G252" s="14"/>
-      <c r="H252" s="14"/>
-      <c r="I252" s="14"/>
-    </row>
-    <row r="253" spans="1:9">
-      <c r="A253" s="14"/>
-      <c r="B253" s="14"/>
-      <c r="C253" s="14"/>
-      <c r="D253" s="14"/>
-      <c r="E253" s="14"/>
-      <c r="F253" s="14"/>
-      <c r="G253" s="14"/>
-      <c r="H253" s="14"/>
-      <c r="I253" s="14"/>
-    </row>
-    <row r="254" spans="1:9">
-      <c r="A254" s="14"/>
-      <c r="B254" s="14"/>
-      <c r="C254" s="14"/>
-      <c r="D254" s="14"/>
-      <c r="E254" s="14"/>
-      <c r="F254" s="14"/>
-      <c r="G254" s="14"/>
-      <c r="H254" s="14"/>
-      <c r="I254" s="14"/>
-    </row>
-    <row r="255" spans="1:9">
-      <c r="A255" s="14"/>
-      <c r="B255" s="14"/>
-      <c r="C255" s="14"/>
-      <c r="D255" s="14"/>
-      <c r="E255" s="14"/>
-      <c r="F255" s="14"/>
-      <c r="G255" s="14"/>
-      <c r="H255" s="14"/>
-      <c r="I255" s="14"/>
-    </row>
-    <row r="256" spans="1:9">
-      <c r="A256" s="14"/>
-      <c r="B256" s="14"/>
-      <c r="C256" s="14"/>
-      <c r="D256" s="14"/>
-      <c r="E256" s="14"/>
-      <c r="F256" s="14"/>
-      <c r="G256" s="14"/>
-      <c r="H256" s="14"/>
-      <c r="I256" s="14"/>
-    </row>
-    <row r="257" spans="1:9">
-      <c r="A257" s="14"/>
-      <c r="B257" s="14"/>
-      <c r="C257" s="14"/>
-      <c r="D257" s="14"/>
-      <c r="E257" s="14"/>
-      <c r="F257" s="14"/>
-      <c r="G257" s="14"/>
-      <c r="H257" s="14"/>
-      <c r="I257" s="14"/>
-    </row>
-    <row r="258" spans="1:9">
-      <c r="A258" s="14"/>
-      <c r="B258" s="14"/>
-      <c r="C258" s="14"/>
-      <c r="D258" s="14"/>
-      <c r="E258" s="14"/>
-      <c r="F258" s="14"/>
-      <c r="G258" s="14"/>
-      <c r="H258" s="14"/>
-      <c r="I258" s="14"/>
-    </row>
-    <row r="259" spans="1:9">
-      <c r="A259" s="14"/>
-      <c r="B259" s="14"/>
-      <c r="C259" s="14"/>
-      <c r="D259" s="14"/>
-      <c r="E259" s="14"/>
-      <c r="F259" s="14"/>
-      <c r="G259" s="14"/>
-      <c r="H259" s="14"/>
-      <c r="I259" s="14"/>
-    </row>
-    <row r="260" spans="1:9">
-      <c r="A260" s="14"/>
-      <c r="B260" s="14"/>
-      <c r="C260" s="14"/>
-      <c r="D260" s="14"/>
-      <c r="E260" s="14"/>
-      <c r="F260" s="14"/>
-      <c r="G260" s="14"/>
-      <c r="H260" s="14"/>
-      <c r="I260" s="14"/>
-    </row>
-    <row r="261" spans="1:9">
-      <c r="A261" s="14"/>
-      <c r="B261" s="14"/>
-      <c r="C261" s="14"/>
-      <c r="D261" s="14"/>
-      <c r="E261" s="14"/>
-      <c r="F261" s="14"/>
-      <c r="G261" s="14"/>
-      <c r="H261" s="14"/>
-      <c r="I261" s="14"/>
-    </row>
-    <row r="262" spans="1:9">
-      <c r="A262" s="14"/>
-      <c r="B262" s="14"/>
-      <c r="C262" s="14"/>
-      <c r="D262" s="14"/>
-      <c r="E262" s="14"/>
-      <c r="F262" s="14"/>
-      <c r="G262" s="14"/>
-      <c r="H262" s="14"/>
-      <c r="I262" s="14"/>
-    </row>
-    <row r="263" spans="1:9">
-      <c r="A263" s="14"/>
-      <c r="B263" s="14"/>
-      <c r="C263" s="14"/>
-      <c r="D263" s="14"/>
-      <c r="E263" s="14"/>
-      <c r="F263" s="14"/>
-      <c r="G263" s="14"/>
-      <c r="H263" s="14"/>
-      <c r="I263" s="14"/>
-    </row>
-    <row r="264" spans="1:9">
-      <c r="A264" s="14"/>
-      <c r="B264" s="14"/>
-      <c r="C264" s="14"/>
-      <c r="D264" s="14"/>
-      <c r="E264" s="14"/>
-      <c r="F264" s="14"/>
-      <c r="G264" s="14"/>
-      <c r="H264" s="14"/>
-      <c r="I264" s="14"/>
-    </row>
-    <row r="265" spans="1:9">
-      <c r="A265" s="14"/>
-      <c r="B265" s="14"/>
-      <c r="C265" s="14"/>
-      <c r="D265" s="14"/>
-      <c r="E265" s="14"/>
-      <c r="F265" s="14"/>
-      <c r="G265" s="14"/>
-      <c r="H265" s="14"/>
-      <c r="I265" s="14"/>
-    </row>
-    <row r="266" spans="1:9">
-      <c r="A266" s="14"/>
-      <c r="B266" s="14"/>
-      <c r="C266" s="14"/>
-      <c r="D266" s="14"/>
-      <c r="E266" s="14"/>
-      <c r="F266" s="14"/>
-      <c r="G266" s="14"/>
-      <c r="H266" s="14"/>
-      <c r="I266" s="14"/>
-    </row>
-    <row r="267" spans="1:9">
-      <c r="A267" s="14"/>
-      <c r="B267" s="14"/>
-      <c r="C267" s="14"/>
-      <c r="D267" s="14"/>
-      <c r="E267" s="14"/>
-      <c r="F267" s="14"/>
-      <c r="G267" s="14"/>
-      <c r="H267" s="14"/>
-      <c r="I267" s="14"/>
-    </row>
-    <row r="268" spans="1:9">
-      <c r="A268" s="14"/>
-      <c r="B268" s="14"/>
-      <c r="C268" s="14"/>
-      <c r="D268" s="14"/>
-      <c r="E268" s="14"/>
-      <c r="F268" s="14"/>
-      <c r="G268" s="14"/>
-      <c r="H268" s="14"/>
-      <c r="I268" s="14"/>
-    </row>
-    <row r="269" spans="1:9">
-      <c r="A269" s="14"/>
-      <c r="B269" s="14"/>
-      <c r="C269" s="14"/>
-      <c r="D269" s="14"/>
-      <c r="E269" s="14"/>
-      <c r="F269" s="14"/>
-      <c r="G269" s="14"/>
-      <c r="H269" s="14"/>
-      <c r="I269" s="14"/>
-    </row>
-    <row r="270" spans="1:9">
-      <c r="A270" s="14"/>
-      <c r="B270" s="14"/>
-      <c r="C270" s="14"/>
-      <c r="D270" s="14"/>
-      <c r="E270" s="14"/>
-      <c r="F270" s="14"/>
-      <c r="G270" s="14"/>
-      <c r="H270" s="14"/>
-      <c r="I270" s="14"/>
-    </row>
-    <row r="271" spans="1:9">
-      <c r="A271" s="14"/>
-      <c r="B271" s="14"/>
-      <c r="C271" s="14"/>
-      <c r="D271" s="14"/>
-      <c r="E271" s="14"/>
-      <c r="F271" s="14"/>
-      <c r="G271" s="14"/>
-      <c r="H271" s="14"/>
-      <c r="I271" s="14"/>
-    </row>
-    <row r="272" spans="1:9">
-      <c r="A272" s="14"/>
-      <c r="B272" s="14"/>
-      <c r="C272" s="14"/>
-      <c r="D272" s="14"/>
-      <c r="E272" s="14"/>
-      <c r="F272" s="14"/>
-      <c r="G272" s="14"/>
-      <c r="H272" s="14"/>
-      <c r="I272" s="14"/>
-    </row>
-    <row r="273" spans="1:9">
-      <c r="A273" s="14"/>
-      <c r="B273" s="14"/>
-      <c r="C273" s="14"/>
-      <c r="D273" s="14"/>
-      <c r="E273" s="14"/>
-      <c r="F273" s="14"/>
-      <c r="G273" s="14"/>
-      <c r="H273" s="14"/>
-      <c r="I273" s="14"/>
-    </row>
-    <row r="274" spans="1:9">
-      <c r="A274" s="14"/>
-      <c r="B274" s="14"/>
-      <c r="C274" s="14"/>
-      <c r="D274" s="14"/>
-      <c r="E274" s="14"/>
-      <c r="F274" s="14"/>
-      <c r="G274" s="14"/>
-      <c r="H274" s="14"/>
-      <c r="I274" s="14"/>
-    </row>
-    <row r="275" spans="1:9">
-      <c r="A275" s="14"/>
-      <c r="B275" s="14"/>
-      <c r="C275" s="14"/>
-      <c r="D275" s="14"/>
-      <c r="E275" s="14"/>
-      <c r="F275" s="14"/>
-      <c r="G275" s="14"/>
-      <c r="H275" s="14"/>
-      <c r="I275" s="14"/>
-    </row>
-    <row r="276" spans="1:9">
-      <c r="A276" s="14"/>
-      <c r="B276" s="14"/>
-      <c r="C276" s="14"/>
-      <c r="D276" s="14"/>
-      <c r="E276" s="14"/>
-      <c r="F276" s="14"/>
-      <c r="G276" s="14"/>
-      <c r="H276" s="14"/>
-      <c r="I276" s="14"/>
-    </row>
-    <row r="277" spans="1:9">
-      <c r="A277" s="14"/>
-      <c r="B277" s="14"/>
-      <c r="C277" s="14"/>
-      <c r="D277" s="14"/>
-      <c r="E277" s="14"/>
-      <c r="F277" s="14"/>
-      <c r="G277" s="14"/>
-      <c r="H277" s="14"/>
-      <c r="I277" s="14"/>
-    </row>
-    <row r="278" spans="1:9">
-      <c r="A278" s="14"/>
-      <c r="B278" s="14"/>
-      <c r="C278" s="14"/>
-      <c r="D278" s="14"/>
-      <c r="E278" s="14"/>
-      <c r="F278" s="14"/>
-      <c r="G278" s="14"/>
-      <c r="H278" s="14"/>
-      <c r="I278" s="14"/>
-    </row>
-    <row r="279" spans="1:9">
-      <c r="A279" s="14"/>
-      <c r="B279" s="14"/>
-      <c r="C279" s="14"/>
-      <c r="D279" s="14"/>
-      <c r="E279" s="14"/>
-      <c r="F279" s="14"/>
-      <c r="G279" s="14"/>
-      <c r="H279" s="14"/>
-      <c r="I279" s="14"/>
-    </row>
-    <row r="280" spans="1:9">
-      <c r="A280" s="14"/>
-      <c r="B280" s="14"/>
-      <c r="C280" s="14"/>
-      <c r="D280" s="14"/>
-      <c r="E280" s="14"/>
-      <c r="F280" s="14"/>
-      <c r="G280" s="14"/>
-      <c r="H280" s="14"/>
-      <c r="I280" s="14"/>
-    </row>
-    <row r="281" spans="1:9">
-      <c r="A281" s="14"/>
-      <c r="B281" s="14"/>
-      <c r="C281" s="14"/>
-      <c r="D281" s="14"/>
-      <c r="E281" s="14"/>
-      <c r="F281" s="14"/>
-      <c r="G281" s="14"/>
-      <c r="H281" s="14"/>
-      <c r="I281" s="14"/>
-    </row>
-    <row r="282" spans="1:9">
-      <c r="A282" s="14"/>
-      <c r="B282" s="14"/>
-      <c r="C282" s="14"/>
-      <c r="D282" s="14"/>
-      <c r="E282" s="14"/>
-      <c r="F282" s="14"/>
-      <c r="G282" s="14"/>
-      <c r="H282" s="14"/>
-      <c r="I282" s="14"/>
-    </row>
-    <row r="283" spans="1:9">
-      <c r="A283" s="14"/>
-      <c r="B283" s="14"/>
-      <c r="C283" s="14"/>
-      <c r="D283" s="14"/>
-      <c r="E283" s="14"/>
-      <c r="F283" s="14"/>
-      <c r="G283" s="14"/>
-      <c r="H283" s="14"/>
-      <c r="I283" s="14"/>
-    </row>
-    <row r="284" spans="1:9">
-      <c r="A284" s="14"/>
-      <c r="B284" s="14"/>
-      <c r="C284" s="14"/>
-      <c r="D284" s="14"/>
-      <c r="E284" s="14"/>
-      <c r="F284" s="14"/>
-      <c r="G284" s="14"/>
-      <c r="H284" s="14"/>
-      <c r="I284" s="14"/>
-    </row>
-    <row r="285" spans="1:9">
-      <c r="A285" s="14"/>
-      <c r="B285" s="14"/>
-      <c r="C285" s="14"/>
-      <c r="D285" s="14"/>
-      <c r="E285" s="14"/>
-      <c r="F285" s="14"/>
-      <c r="G285" s="14"/>
-      <c r="H285" s="14"/>
-      <c r="I285" s="14"/>
-    </row>
-    <row r="286" spans="1:9">
-      <c r="A286" s="14"/>
-      <c r="B286" s="14"/>
-      <c r="C286" s="14"/>
-      <c r="D286" s="14"/>
-      <c r="E286" s="14"/>
-      <c r="F286" s="14"/>
-      <c r="G286" s="14"/>
-      <c r="H286" s="14"/>
-      <c r="I286" s="14"/>
-    </row>
-    <row r="287" spans="1:9">
-      <c r="A287" s="14"/>
-      <c r="B287" s="14"/>
-      <c r="C287" s="14"/>
-      <c r="D287" s="14"/>
-      <c r="E287" s="14"/>
-      <c r="F287" s="14"/>
-      <c r="G287" s="14"/>
-      <c r="H287" s="14"/>
-      <c r="I287" s="14"/>
-    </row>
-    <row r="288" spans="1:9">
-      <c r="A288" s="14"/>
-      <c r="B288" s="14"/>
-      <c r="C288" s="14"/>
-      <c r="D288" s="14"/>
-      <c r="E288" s="14"/>
-      <c r="F288" s="14"/>
-      <c r="G288" s="14"/>
-      <c r="H288" s="14"/>
-      <c r="I288" s="14"/>
-    </row>
-    <row r="289" spans="1:9">
-      <c r="A289" s="14"/>
-      <c r="B289" s="14"/>
-      <c r="C289" s="14"/>
-      <c r="D289" s="14"/>
-      <c r="E289" s="14"/>
-      <c r="F289" s="14"/>
-      <c r="G289" s="14"/>
-      <c r="H289" s="14"/>
-      <c r="I289" s="14"/>
-    </row>
-    <row r="290" spans="1:9">
-      <c r="A290" s="14"/>
-      <c r="B290" s="14"/>
-      <c r="C290" s="14"/>
-      <c r="D290" s="14"/>
-      <c r="E290" s="14"/>
-      <c r="F290" s="14"/>
-      <c r="G290" s="14"/>
-      <c r="H290" s="14"/>
-      <c r="I290" s="14"/>
-    </row>
-    <row r="291" spans="1:9">
-      <c r="A291" s="14"/>
-      <c r="B291" s="14"/>
-      <c r="C291" s="14"/>
-      <c r="D291" s="14"/>
-      <c r="E291" s="14"/>
-      <c r="F291" s="14"/>
-      <c r="G291" s="14"/>
-      <c r="H291" s="14"/>
-      <c r="I291" s="14"/>
-    </row>
-    <row r="292" spans="1:9">
-      <c r="A292" s="14"/>
-      <c r="B292" s="14"/>
-      <c r="C292" s="14"/>
-      <c r="D292" s="14"/>
-      <c r="E292" s="14"/>
-      <c r="F292" s="14"/>
-      <c r="G292" s="14"/>
-      <c r="H292" s="14"/>
-      <c r="I292" s="14"/>
-    </row>
-    <row r="293" spans="1:9">
-      <c r="A293" s="14"/>
-      <c r="B293" s="14"/>
-      <c r="C293" s="14"/>
-      <c r="D293" s="14"/>
-      <c r="E293" s="14"/>
-      <c r="F293" s="14"/>
-      <c r="G293" s="14"/>
-      <c r="H293" s="14"/>
-      <c r="I293" s="14"/>
-    </row>
-    <row r="294" spans="1:9">
-      <c r="A294" s="14"/>
-      <c r="B294" s="14"/>
-      <c r="C294" s="14"/>
-      <c r="D294" s="14"/>
-      <c r="E294" s="14"/>
-      <c r="F294" s="14"/>
-      <c r="G294" s="14"/>
-      <c r="H294" s="14"/>
-      <c r="I294" s="14"/>
-    </row>
-    <row r="295" spans="1:9">
-      <c r="A295" s="14"/>
-      <c r="B295" s="14"/>
-      <c r="C295" s="14"/>
-      <c r="D295" s="14"/>
-      <c r="E295" s="14"/>
-      <c r="F295" s="14"/>
-      <c r="G295" s="14"/>
-      <c r="H295" s="14"/>
-      <c r="I295" s="14"/>
-    </row>
-    <row r="296" spans="1:9">
-      <c r="A296" s="14"/>
-      <c r="B296" s="14"/>
-      <c r="C296" s="14"/>
-      <c r="D296" s="14"/>
-      <c r="E296" s="14"/>
-      <c r="F296" s="14"/>
-      <c r="G296" s="14"/>
-      <c r="H296" s="14"/>
-      <c r="I296" s="14"/>
-    </row>
-    <row r="297" spans="1:9">
-      <c r="A297" s="14"/>
-      <c r="B297" s="14"/>
-      <c r="C297" s="14"/>
-      <c r="D297" s="14"/>
-      <c r="E297" s="14"/>
-      <c r="F297" s="14"/>
-      <c r="G297" s="14"/>
-      <c r="H297" s="14"/>
-      <c r="I297" s="14"/>
-    </row>
-    <row r="298" spans="1:9">
-      <c r="A298" s="14"/>
-      <c r="B298" s="14"/>
-      <c r="C298" s="14"/>
-      <c r="D298" s="14"/>
-      <c r="E298" s="14"/>
-      <c r="F298" s="14"/>
-      <c r="G298" s="14"/>
-      <c r="H298" s="14"/>
-      <c r="I298" s="14"/>
-    </row>
-    <row r="299" spans="1:9">
-      <c r="A299" s="14"/>
-      <c r="B299" s="14"/>
-      <c r="C299" s="14"/>
-      <c r="D299" s="14"/>
-      <c r="E299" s="14"/>
-      <c r="F299" s="14"/>
-      <c r="G299" s="14"/>
-      <c r="H299" s="14"/>
-      <c r="I299" s="14"/>
-    </row>
-    <row r="300" spans="1:9">
-      <c r="A300" s="14"/>
-      <c r="B300" s="14"/>
-      <c r="C300" s="14"/>
-      <c r="D300" s="14"/>
-      <c r="E300" s="14"/>
-      <c r="F300" s="14"/>
-      <c r="G300" s="14"/>
-      <c r="H300" s="14"/>
-      <c r="I300" s="14"/>
-    </row>
-    <row r="301" spans="1:9">
-      <c r="A301" s="14"/>
-      <c r="B301" s="14"/>
-      <c r="C301" s="14"/>
-      <c r="D301" s="14"/>
-      <c r="E301" s="14"/>
-      <c r="F301" s="14"/>
-      <c r="G301" s="14"/>
-      <c r="H301" s="14"/>
-      <c r="I301" s="14"/>
-    </row>
-    <row r="302" spans="1:9">
-      <c r="A302" s="14"/>
-      <c r="B302" s="14"/>
-      <c r="C302" s="14"/>
-      <c r="D302" s="14"/>
-      <c r="E302" s="14"/>
-      <c r="F302" s="14"/>
-      <c r="G302" s="14"/>
-      <c r="H302" s="14"/>
-      <c r="I302" s="14"/>
-    </row>
-    <row r="303" spans="1:9">
-      <c r="A303" s="14"/>
-      <c r="B303" s="14"/>
-      <c r="C303" s="14"/>
-      <c r="D303" s="14"/>
-      <c r="E303" s="14"/>
-      <c r="F303" s="14"/>
-      <c r="G303" s="14"/>
-      <c r="H303" s="14"/>
-      <c r="I303" s="14"/>
-    </row>
-    <row r="304" spans="1:9">
-      <c r="A304" s="14"/>
-      <c r="B304" s="14"/>
-      <c r="C304" s="14"/>
-      <c r="D304" s="14"/>
-      <c r="E304" s="14"/>
-      <c r="F304" s="14"/>
-      <c r="G304" s="14"/>
-      <c r="H304" s="14"/>
-      <c r="I304" s="14"/>
-    </row>
-    <row r="305" spans="1:9">
-      <c r="A305" s="14"/>
-      <c r="B305" s="14"/>
-      <c r="C305" s="14"/>
-      <c r="D305" s="14"/>
-      <c r="E305" s="14"/>
-      <c r="F305" s="14"/>
-      <c r="G305" s="14"/>
-      <c r="H305" s="14"/>
-      <c r="I305" s="14"/>
-    </row>
-    <row r="306" spans="1:9">
-      <c r="A306" s="14"/>
-      <c r="B306" s="14"/>
-      <c r="C306" s="14"/>
-      <c r="D306" s="14"/>
-      <c r="E306" s="14"/>
-      <c r="F306" s="14"/>
-      <c r="G306" s="14"/>
-      <c r="H306" s="14"/>
-      <c r="I306" s="14"/>
-    </row>
-    <row r="307" spans="1:9">
-      <c r="A307" s="14"/>
-      <c r="B307" s="14"/>
-      <c r="C307" s="14"/>
-      <c r="D307" s="14"/>
-      <c r="E307" s="14"/>
-      <c r="F307" s="14"/>
-      <c r="G307" s="14"/>
-      <c r="H307" s="14"/>
-      <c r="I307" s="14"/>
-    </row>
-    <row r="308" spans="1:9">
-      <c r="A308" s="14"/>
-      <c r="B308" s="14"/>
-      <c r="C308" s="14"/>
-      <c r="D308" s="14"/>
-      <c r="E308" s="14"/>
-      <c r="F308" s="14"/>
-      <c r="G308" s="14"/>
-      <c r="H308" s="14"/>
-      <c r="I308" s="14"/>
-    </row>
-    <row r="309" spans="1:9">
-      <c r="A309" s="14"/>
-      <c r="B309" s="14"/>
-      <c r="C309" s="14"/>
-      <c r="D309" s="14"/>
-      <c r="E309" s="14"/>
-      <c r="F309" s="14"/>
-      <c r="G309" s="14"/>
-      <c r="H309" s="14"/>
-      <c r="I309" s="14"/>
-    </row>
-    <row r="310" spans="1:9">
-      <c r="A310" s="14"/>
-      <c r="B310" s="14"/>
-      <c r="C310" s="14"/>
-      <c r="D310" s="14"/>
-      <c r="E310" s="14"/>
-      <c r="F310" s="14"/>
-      <c r="G310" s="14"/>
-      <c r="H310" s="14"/>
-      <c r="I310" s="14"/>
-    </row>
-    <row r="311" spans="1:9">
-      <c r="A311" s="14"/>
-      <c r="B311" s="14"/>
-      <c r="C311" s="14"/>
-      <c r="D311" s="14"/>
-      <c r="E311" s="14"/>
-      <c r="F311" s="14"/>
-      <c r="G311" s="14"/>
-      <c r="H311" s="14"/>
-      <c r="I311" s="14"/>
-    </row>
-    <row r="312" spans="1:9">
-      <c r="A312" s="14"/>
-      <c r="B312" s="14"/>
-      <c r="C312" s="14"/>
-      <c r="D312" s="14"/>
-      <c r="E312" s="14"/>
-      <c r="F312" s="14"/>
-      <c r="G312" s="14"/>
-      <c r="H312" s="14"/>
-      <c r="I312" s="14"/>
-    </row>
-    <row r="313" spans="1:9">
-      <c r="A313" s="14"/>
-      <c r="B313" s="14"/>
-      <c r="C313" s="14"/>
-      <c r="D313" s="14"/>
-      <c r="E313" s="14"/>
-      <c r="F313" s="14"/>
-      <c r="G313" s="14"/>
-      <c r="H313" s="14"/>
-      <c r="I313" s="14"/>
-    </row>
-    <row r="314" spans="1:9">
-      <c r="A314" s="14"/>
-      <c r="B314" s="14"/>
-      <c r="C314" s="14"/>
-      <c r="D314" s="14"/>
-      <c r="E314" s="14"/>
-      <c r="F314" s="14"/>
-      <c r="G314" s="14"/>
-      <c r="H314" s="14"/>
-      <c r="I314" s="14"/>
-    </row>
-    <row r="315" spans="1:9">
-      <c r="A315" s="14"/>
-      <c r="B315" s="14"/>
-      <c r="C315" s="14"/>
-      <c r="D315" s="14"/>
-      <c r="E315" s="14"/>
-      <c r="F315" s="14"/>
-      <c r="G315" s="14"/>
-      <c r="H315" s="14"/>
-      <c r="I315" s="14"/>
-    </row>
-    <row r="316" spans="1:9">
-      <c r="A316" s="14"/>
-      <c r="B316" s="14"/>
-      <c r="C316" s="14"/>
-      <c r="D316" s="14"/>
-      <c r="E316" s="14"/>
-      <c r="F316" s="14"/>
-      <c r="G316" s="14"/>
-      <c r="H316" s="14"/>
-      <c r="I316" s="14"/>
-    </row>
-    <row r="317" spans="1:9">
-      <c r="A317" s="14"/>
-      <c r="B317" s="14"/>
-      <c r="C317" s="14"/>
-      <c r="D317" s="14"/>
-      <c r="E317" s="14"/>
-      <c r="F317" s="14"/>
-      <c r="G317" s="14"/>
-      <c r="H317" s="14"/>
-      <c r="I317" s="14"/>
-    </row>
-    <row r="318" spans="1:9">
-      <c r="A318" s="14"/>
-      <c r="B318" s="14"/>
-      <c r="C318" s="14"/>
-      <c r="D318" s="14"/>
-      <c r="E318" s="14"/>
-      <c r="F318" s="14"/>
-      <c r="G318" s="14"/>
-      <c r="H318" s="14"/>
-      <c r="I318" s="14"/>
-    </row>
-    <row r="319" spans="1:9">
-      <c r="A319" s="14"/>
-      <c r="B319" s="14"/>
-      <c r="C319" s="14"/>
-      <c r="D319" s="14"/>
-      <c r="E319" s="14"/>
-      <c r="F319" s="14"/>
-      <c r="G319" s="14"/>
-      <c r="H319" s="14"/>
-      <c r="I319" s="14"/>
-    </row>
-    <row r="320" spans="1:9">
-      <c r="A320" s="14"/>
-      <c r="B320" s="14"/>
-      <c r="C320" s="14"/>
-      <c r="D320" s="14"/>
-      <c r="E320" s="14"/>
-      <c r="F320" s="14"/>
-      <c r="G320" s="14"/>
-      <c r="H320" s="14"/>
-      <c r="I320" s="14"/>
+      <c r="I184" s="28"/>
+    </row>
+    <row r="185" spans="1:9" ht="14.4" thickTop="1">
+      <c r="A185" s="21">
+        <v>32951</v>
+      </c>
+      <c r="B185" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>80B7</v>
+      </c>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="21">
+        <v>32952</v>
+      </c>
+      <c r="B186" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>80B8</v>
+      </c>
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+    </row>
+    <row r="187" spans="1:9" ht="26.4" customHeight="1">
+      <c r="A187" s="23">
+        <v>32953</v>
+      </c>
+      <c r="B187" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v>80B9</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D187" s="24"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="G187" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="H187" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="I187" s="44"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="21">
+        <v>32954</v>
+      </c>
+      <c r="B188" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>80BA</v>
+      </c>
+      <c r="C188" s="15"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="14"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="15"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="14"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="15"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="14"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+      <c r="I191" s="15"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="14"/>
+      <c r="B192" s="14"/>
+      <c r="C192" s="15"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="15"/>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="14"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="15"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="15"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="15"/>
+      <c r="H193" s="15"/>
+      <c r="I193" s="15"/>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="14"/>
+      <c r="B194" s="14"/>
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="15"/>
+      <c r="H194" s="15"/>
+      <c r="I194" s="15"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="14"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="15"/>
+      <c r="H195" s="15"/>
+      <c r="I195" s="15"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="14"/>
+      <c r="B196" s="14"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="15"/>
+      <c r="H196" s="15"/>
+      <c r="I196" s="15"/>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="14"/>
+      <c r="B197" s="14"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="15"/>
+      <c r="I197" s="15"/>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="14"/>
+      <c r="B198" s="14"/>
+      <c r="C198" s="15"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="15"/>
+      <c r="I198" s="15"/>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="14"/>
+      <c r="B199" s="14"/>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="15"/>
+      <c r="I199" s="15"/>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="14"/>
+      <c r="B200" s="14"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="15"/>
+      <c r="H200" s="15"/>
+      <c r="I200" s="15"/>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="14"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
+      <c r="I201" s="15"/>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="14"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="15"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="15"/>
+      <c r="H202" s="15"/>
+      <c r="I202" s="15"/>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="14"/>
+      <c r="B203" s="14"/>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="15"/>
+      <c r="I203" s="15"/>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="14"/>
+      <c r="B204" s="14"/>
+      <c r="C204" s="15"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="15"/>
+      <c r="I204" s="15"/>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="14"/>
+      <c r="B205" s="14"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="15"/>
+      <c r="H205" s="15"/>
+      <c r="I205" s="15"/>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="14"/>
+      <c r="B206" s="14"/>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="15"/>
+      <c r="H206" s="15"/>
+      <c r="I206" s="15"/>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="15"/>
+      <c r="B207" s="15"/>
+      <c r="C207" s="15"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
+      <c r="I207" s="15"/>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="15"/>
+      <c r="B208" s="15"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
+      <c r="I208" s="15"/>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="15"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="15"/>
+      <c r="H209" s="15"/>
+      <c r="I209" s="15"/>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="15"/>
+      <c r="B210" s="15"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+      <c r="I210" s="15"/>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="15"/>
+      <c r="B211" s="15"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
+      <c r="I211" s="15"/>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="15"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="15"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="15"/>
+      <c r="H212" s="15"/>
+      <c r="I212" s="15"/>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="15"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="15"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="15"/>
+      <c r="G213" s="15"/>
+      <c r="H213" s="15"/>
+      <c r="I213" s="15"/>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="15"/>
+      <c r="B214" s="15"/>
+      <c r="C214" s="15"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="15"/>
+      <c r="H214" s="15"/>
+      <c r="I214" s="15"/>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="15"/>
+      <c r="B215" s="15"/>
+      <c r="C215" s="15"/>
+      <c r="D215" s="15"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="15"/>
+      <c r="G215" s="15"/>
+      <c r="H215" s="15"/>
+      <c r="I215" s="15"/>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="15"/>
+      <c r="B216" s="15"/>
+      <c r="C216" s="15"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="15"/>
+      <c r="F216" s="15"/>
+      <c r="G216" s="15"/>
+      <c r="H216" s="15"/>
+      <c r="I216" s="15"/>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="15"/>
+      <c r="B217" s="15"/>
+      <c r="C217" s="15"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="15"/>
+      <c r="G217" s="15"/>
+      <c r="H217" s="15"/>
+      <c r="I217" s="15"/>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="15"/>
+      <c r="B218" s="15"/>
+      <c r="C218" s="15"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="15"/>
+      <c r="F218" s="15"/>
+      <c r="G218" s="15"/>
+      <c r="H218" s="15"/>
+      <c r="I218" s="15"/>
+    </row>
+    <row r="219" spans="1:9" ht="14.4">
+      <c r="A219" s="13"/>
+      <c r="B219" s="13"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="13"/>
+      <c r="E219" s="13"/>
+      <c r="F219" s="13"/>
+      <c r="G219" s="13"/>
+      <c r="H219" s="13"/>
+      <c r="I219" s="13"/>
+    </row>
+    <row r="220" spans="1:9" ht="14.4">
+      <c r="A220" s="13"/>
+      <c r="B220" s="13"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="13"/>
+      <c r="E220" s="13"/>
+      <c r="F220" s="13"/>
+      <c r="G220" s="13"/>
+      <c r="H220" s="13"/>
+      <c r="I220" s="13"/>
+    </row>
+    <row r="221" spans="1:9" ht="14.4">
+      <c r="A221" s="13"/>
+      <c r="B221" s="13"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="13"/>
+      <c r="E221" s="13"/>
+      <c r="F221" s="13"/>
+      <c r="G221" s="13"/>
+      <c r="H221" s="13"/>
+      <c r="I221" s="13"/>
+    </row>
+    <row r="222" spans="1:9" ht="14.4">
+      <c r="A222" s="13"/>
+      <c r="B222" s="13"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="13"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+      <c r="G222" s="13"/>
+      <c r="H222" s="13"/>
+      <c r="I222" s="13"/>
+    </row>
+    <row r="223" spans="1:9" ht="14.4">
+      <c r="A223" s="13"/>
+      <c r="B223" s="13"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
+      <c r="E223" s="13"/>
+      <c r="F223" s="13"/>
+      <c r="G223" s="13"/>
+      <c r="H223" s="13"/>
+      <c r="I223" s="13"/>
+    </row>
+    <row r="224" spans="1:9" ht="14.4">
+      <c r="A224" s="13"/>
+      <c r="B224" s="13"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
+      <c r="E224" s="13"/>
+      <c r="F224" s="13"/>
+      <c r="G224" s="13"/>
+      <c r="H224" s="13"/>
+      <c r="I224" s="13"/>
+    </row>
+    <row r="225" spans="1:9" ht="14.4">
+      <c r="A225" s="13"/>
+      <c r="B225" s="13"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
+      <c r="G225" s="13"/>
+      <c r="H225" s="13"/>
+      <c r="I225" s="13"/>
+    </row>
+    <row r="226" spans="1:9" ht="14.4">
+      <c r="A226" s="13"/>
+      <c r="B226" s="13"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
+      <c r="G226" s="13"/>
+      <c r="H226" s="13"/>
+      <c r="I226" s="13"/>
+    </row>
+    <row r="227" spans="1:9" ht="14.4">
+      <c r="A227" s="13"/>
+      <c r="B227" s="13"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="13"/>
+      <c r="G227" s="13"/>
+      <c r="H227" s="13"/>
+      <c r="I227" s="13"/>
+    </row>
+    <row r="228" spans="1:9" ht="14.4">
+      <c r="A228" s="13"/>
+      <c r="B228" s="13"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
+      <c r="E228" s="13"/>
+      <c r="F228" s="13"/>
+      <c r="G228" s="13"/>
+      <c r="H228" s="13"/>
+      <c r="I228" s="13"/>
+    </row>
+    <row r="229" spans="1:9" ht="14.4">
+      <c r="A229" s="13"/>
+      <c r="B229" s="13"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
+      <c r="G229" s="13"/>
+      <c r="H229" s="13"/>
+      <c r="I229" s="13"/>
+    </row>
+    <row r="230" spans="1:9" ht="14.4">
+      <c r="A230" s="13"/>
+      <c r="B230" s="13"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
+      <c r="G230" s="13"/>
+      <c r="H230" s="13"/>
+      <c r="I230" s="13"/>
+    </row>
+    <row r="231" spans="1:9" ht="14.4">
+      <c r="A231" s="13"/>
+      <c r="B231" s="13"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="13"/>
+      <c r="G231" s="13"/>
+      <c r="H231" s="13"/>
+      <c r="I231" s="13"/>
+    </row>
+    <row r="232" spans="1:9" ht="14.4">
+      <c r="A232" s="13"/>
+      <c r="B232" s="13"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
+      <c r="G232" s="13"/>
+      <c r="H232" s="13"/>
+      <c r="I232" s="13"/>
+    </row>
+    <row r="233" spans="1:9" ht="14.4">
+      <c r="A233" s="13"/>
+      <c r="B233" s="13"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="13"/>
+      <c r="G233" s="13"/>
+      <c r="H233" s="13"/>
+      <c r="I233" s="13"/>
+    </row>
+    <row r="234" spans="1:9" ht="14.4">
+      <c r="A234" s="13"/>
+      <c r="B234" s="13"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="13"/>
+      <c r="G234" s="13"/>
+      <c r="H234" s="13"/>
+      <c r="I234" s="13"/>
+    </row>
+    <row r="235" spans="1:9" ht="14.4">
+      <c r="A235" s="13"/>
+      <c r="B235" s="13"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="13"/>
+      <c r="G235" s="13"/>
+      <c r="H235" s="13"/>
+      <c r="I235" s="13"/>
+    </row>
+    <row r="236" spans="1:9" ht="14.4">
+      <c r="A236" s="13"/>
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
+      <c r="G236" s="13"/>
+      <c r="H236" s="13"/>
+      <c r="I236" s="13"/>
+    </row>
+    <row r="237" spans="1:9" ht="14.4">
+      <c r="A237" s="13"/>
+      <c r="B237" s="13"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="13"/>
+      <c r="G237" s="13"/>
+      <c r="H237" s="13"/>
+      <c r="I237" s="13"/>
+    </row>
+    <row r="238" spans="1:9" ht="14.4">
+      <c r="A238" s="13"/>
+      <c r="B238" s="13"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="13"/>
+      <c r="G238" s="13"/>
+      <c r="H238" s="13"/>
+      <c r="I238" s="13"/>
+    </row>
+    <row r="239" spans="1:9" ht="14.4">
+      <c r="A239" s="13"/>
+      <c r="B239" s="13"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="13"/>
+      <c r="G239" s="13"/>
+      <c r="H239" s="13"/>
+      <c r="I239" s="13"/>
+    </row>
+    <row r="240" spans="1:9" ht="14.4">
+      <c r="A240" s="13"/>
+      <c r="B240" s="13"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="13"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="13"/>
+      <c r="G240" s="13"/>
+      <c r="H240" s="13"/>
+      <c r="I240" s="13"/>
+    </row>
+    <row r="241" spans="1:9" ht="14.4">
+      <c r="A241" s="13"/>
+      <c r="B241" s="13"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="13"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="13"/>
+      <c r="G241" s="13"/>
+      <c r="H241" s="13"/>
+      <c r="I241" s="13"/>
+    </row>
+    <row r="242" spans="1:9" ht="14.4">
+      <c r="A242" s="13"/>
+      <c r="B242" s="13"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="13"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="13"/>
+      <c r="G242" s="13"/>
+      <c r="H242" s="13"/>
+      <c r="I242" s="13"/>
+    </row>
+    <row r="243" spans="1:9" ht="14.4">
+      <c r="A243" s="13"/>
+      <c r="B243" s="13"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="13"/>
+      <c r="E243" s="13"/>
+      <c r="F243" s="13"/>
+      <c r="G243" s="13"/>
+      <c r="H243" s="13"/>
+      <c r="I243" s="13"/>
+    </row>
+    <row r="244" spans="1:9" ht="14.4">
+      <c r="A244" s="13"/>
+      <c r="B244" s="13"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="13"/>
+      <c r="E244" s="13"/>
+      <c r="F244" s="13"/>
+      <c r="G244" s="13"/>
+      <c r="H244" s="13"/>
+      <c r="I244" s="13"/>
+    </row>
+    <row r="245" spans="1:9" ht="14.4">
+      <c r="A245" s="13"/>
+      <c r="B245" s="13"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="13"/>
+      <c r="E245" s="13"/>
+      <c r="F245" s="13"/>
+      <c r="G245" s="13"/>
+      <c r="H245" s="13"/>
+      <c r="I245" s="13"/>
+    </row>
+    <row r="246" spans="1:9" ht="14.4">
+      <c r="A246" s="13"/>
+      <c r="B246" s="13"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="13"/>
+      <c r="E246" s="13"/>
+      <c r="F246" s="13"/>
+      <c r="G246" s="13"/>
+      <c r="H246" s="13"/>
+      <c r="I246" s="13"/>
+    </row>
+    <row r="247" spans="1:9" ht="14.4">
+      <c r="A247" s="13"/>
+      <c r="B247" s="13"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="13"/>
+      <c r="E247" s="13"/>
+      <c r="F247" s="13"/>
+      <c r="G247" s="13"/>
+      <c r="H247" s="13"/>
+      <c r="I247" s="13"/>
+    </row>
+    <row r="248" spans="1:9" ht="14.4">
+      <c r="A248" s="13"/>
+      <c r="B248" s="13"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="13"/>
+      <c r="E248" s="13"/>
+      <c r="F248" s="13"/>
+      <c r="G248" s="13"/>
+      <c r="H248" s="13"/>
+      <c r="I248" s="13"/>
+    </row>
+    <row r="249" spans="1:9" ht="14.4">
+      <c r="A249" s="13"/>
+      <c r="B249" s="13"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="13"/>
+      <c r="E249" s="13"/>
+      <c r="F249" s="13"/>
+      <c r="G249" s="13"/>
+      <c r="H249" s="13"/>
+      <c r="I249" s="13"/>
+    </row>
+    <row r="250" spans="1:9" ht="14.4">
+      <c r="A250" s="13"/>
+      <c r="B250" s="13"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="13"/>
+      <c r="E250" s="13"/>
+      <c r="F250" s="13"/>
+      <c r="G250" s="13"/>
+      <c r="H250" s="13"/>
+      <c r="I250" s="13"/>
+    </row>
+    <row r="251" spans="1:9" ht="14.4">
+      <c r="A251" s="13"/>
+      <c r="B251" s="13"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="13"/>
+      <c r="E251" s="13"/>
+      <c r="F251" s="13"/>
+      <c r="G251" s="13"/>
+      <c r="H251" s="13"/>
+      <c r="I251" s="13"/>
+    </row>
+    <row r="252" spans="1:9" ht="14.4">
+      <c r="A252" s="13"/>
+      <c r="B252" s="13"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="13"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="13"/>
+      <c r="G252" s="13"/>
+      <c r="H252" s="13"/>
+      <c r="I252" s="13"/>
+    </row>
+    <row r="253" spans="1:9" ht="14.4">
+      <c r="A253" s="13"/>
+      <c r="B253" s="13"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="13"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="13"/>
+      <c r="G253" s="13"/>
+      <c r="H253" s="13"/>
+      <c r="I253" s="13"/>
+    </row>
+    <row r="254" spans="1:9" ht="14.4">
+      <c r="A254" s="13"/>
+      <c r="B254" s="13"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="13"/>
+      <c r="E254" s="13"/>
+      <c r="F254" s="13"/>
+      <c r="G254" s="13"/>
+      <c r="H254" s="13"/>
+      <c r="I254" s="13"/>
+    </row>
+    <row r="255" spans="1:9" ht="14.4">
+      <c r="A255" s="13"/>
+      <c r="B255" s="13"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="13"/>
+      <c r="E255" s="13"/>
+      <c r="F255" s="13"/>
+      <c r="G255" s="13"/>
+      <c r="H255" s="13"/>
+      <c r="I255" s="13"/>
+    </row>
+    <row r="256" spans="1:9" ht="14.4">
+      <c r="A256" s="13"/>
+      <c r="B256" s="13"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="13"/>
+      <c r="E256" s="13"/>
+      <c r="F256" s="13"/>
+      <c r="G256" s="13"/>
+      <c r="H256" s="13"/>
+      <c r="I256" s="13"/>
+    </row>
+    <row r="257" spans="1:9" ht="14.4">
+      <c r="A257" s="13"/>
+      <c r="B257" s="13"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="13"/>
+      <c r="E257" s="13"/>
+      <c r="F257" s="13"/>
+      <c r="G257" s="13"/>
+      <c r="H257" s="13"/>
+      <c r="I257" s="13"/>
+    </row>
+    <row r="258" spans="1:9" ht="14.4">
+      <c r="A258" s="13"/>
+      <c r="B258" s="13"/>
+      <c r="C258" s="13"/>
+      <c r="D258" s="13"/>
+      <c r="E258" s="13"/>
+      <c r="F258" s="13"/>
+      <c r="G258" s="13"/>
+      <c r="H258" s="13"/>
+      <c r="I258" s="13"/>
+    </row>
+    <row r="259" spans="1:9" ht="14.4">
+      <c r="A259" s="13"/>
+      <c r="B259" s="13"/>
+      <c r="C259" s="13"/>
+      <c r="D259" s="13"/>
+      <c r="E259" s="13"/>
+      <c r="F259" s="13"/>
+      <c r="G259" s="13"/>
+      <c r="H259" s="13"/>
+      <c r="I259" s="13"/>
+    </row>
+    <row r="260" spans="1:9" ht="14.4">
+      <c r="A260" s="13"/>
+      <c r="B260" s="13"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="13"/>
+      <c r="E260" s="13"/>
+      <c r="F260" s="13"/>
+      <c r="G260" s="13"/>
+      <c r="H260" s="13"/>
+      <c r="I260" s="13"/>
+    </row>
+    <row r="261" spans="1:9" ht="14.4">
+      <c r="A261" s="13"/>
+      <c r="B261" s="13"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13"/>
+      <c r="E261" s="13"/>
+      <c r="F261" s="13"/>
+      <c r="G261" s="13"/>
+      <c r="H261" s="13"/>
+      <c r="I261" s="13"/>
+    </row>
+    <row r="262" spans="1:9" ht="14.4">
+      <c r="A262" s="13"/>
+      <c r="B262" s="13"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="13"/>
+      <c r="F262" s="13"/>
+      <c r="G262" s="13"/>
+      <c r="H262" s="13"/>
+      <c r="I262" s="13"/>
+    </row>
+    <row r="263" spans="1:9" ht="14.4">
+      <c r="A263" s="13"/>
+      <c r="B263" s="13"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="13"/>
+      <c r="E263" s="13"/>
+      <c r="F263" s="13"/>
+      <c r="G263" s="13"/>
+      <c r="H263" s="13"/>
+      <c r="I263" s="13"/>
+    </row>
+    <row r="264" spans="1:9" ht="14.4">
+      <c r="A264" s="13"/>
+      <c r="B264" s="13"/>
+      <c r="C264" s="13"/>
+      <c r="D264" s="13"/>
+      <c r="E264" s="13"/>
+      <c r="F264" s="13"/>
+      <c r="G264" s="13"/>
+      <c r="H264" s="13"/>
+      <c r="I264" s="13"/>
+    </row>
+    <row r="265" spans="1:9" ht="14.4">
+      <c r="A265" s="13"/>
+      <c r="B265" s="13"/>
+      <c r="C265" s="13"/>
+      <c r="D265" s="13"/>
+      <c r="E265" s="13"/>
+      <c r="F265" s="13"/>
+      <c r="G265" s="13"/>
+      <c r="H265" s="13"/>
+      <c r="I265" s="13"/>
+    </row>
+    <row r="266" spans="1:9" ht="14.4">
+      <c r="A266" s="13"/>
+      <c r="B266" s="13"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="13"/>
+      <c r="E266" s="13"/>
+      <c r="F266" s="13"/>
+      <c r="G266" s="13"/>
+      <c r="H266" s="13"/>
+      <c r="I266" s="13"/>
+    </row>
+    <row r="267" spans="1:9" ht="14.4">
+      <c r="A267" s="13"/>
+      <c r="B267" s="13"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="13"/>
+      <c r="E267" s="13"/>
+      <c r="F267" s="13"/>
+      <c r="G267" s="13"/>
+      <c r="H267" s="13"/>
+      <c r="I267" s="13"/>
+    </row>
+    <row r="268" spans="1:9" ht="14.4">
+      <c r="A268" s="13"/>
+      <c r="B268" s="13"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="13"/>
+      <c r="E268" s="13"/>
+      <c r="F268" s="13"/>
+      <c r="G268" s="13"/>
+      <c r="H268" s="13"/>
+      <c r="I268" s="13"/>
+    </row>
+    <row r="269" spans="1:9" ht="14.4">
+      <c r="A269" s="13"/>
+      <c r="B269" s="13"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="13"/>
+      <c r="E269" s="13"/>
+      <c r="F269" s="13"/>
+      <c r="G269" s="13"/>
+      <c r="H269" s="13"/>
+      <c r="I269" s="13"/>
+    </row>
+    <row r="270" spans="1:9" ht="14.4">
+      <c r="A270" s="13"/>
+      <c r="B270" s="13"/>
+      <c r="C270" s="13"/>
+      <c r="D270" s="13"/>
+      <c r="E270" s="13"/>
+      <c r="F270" s="13"/>
+      <c r="G270" s="13"/>
+      <c r="H270" s="13"/>
+      <c r="I270" s="13"/>
+    </row>
+    <row r="271" spans="1:9" ht="14.4">
+      <c r="A271" s="13"/>
+      <c r="B271" s="13"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="13"/>
+      <c r="E271" s="13"/>
+      <c r="F271" s="13"/>
+      <c r="G271" s="13"/>
+      <c r="H271" s="13"/>
+      <c r="I271" s="13"/>
+    </row>
+    <row r="272" spans="1:9" ht="14.4">
+      <c r="A272" s="13"/>
+      <c r="B272" s="13"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13"/>
+      <c r="E272" s="13"/>
+      <c r="F272" s="13"/>
+      <c r="G272" s="13"/>
+      <c r="H272" s="13"/>
+      <c r="I272" s="13"/>
+    </row>
+    <row r="273" spans="1:9" ht="14.4">
+      <c r="A273" s="13"/>
+      <c r="B273" s="13"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="13"/>
+      <c r="E273" s="13"/>
+      <c r="F273" s="13"/>
+      <c r="G273" s="13"/>
+      <c r="H273" s="13"/>
+      <c r="I273" s="13"/>
+    </row>
+    <row r="274" spans="1:9" ht="14.4">
+      <c r="A274" s="13"/>
+      <c r="B274" s="13"/>
+      <c r="C274" s="13"/>
+      <c r="D274" s="13"/>
+      <c r="E274" s="13"/>
+      <c r="F274" s="13"/>
+      <c r="G274" s="13"/>
+      <c r="H274" s="13"/>
+      <c r="I274" s="13"/>
+    </row>
+    <row r="275" spans="1:9" ht="14.4">
+      <c r="A275" s="13"/>
+      <c r="B275" s="13"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="13"/>
+      <c r="E275" s="13"/>
+      <c r="F275" s="13"/>
+      <c r="G275" s="13"/>
+      <c r="H275" s="13"/>
+      <c r="I275" s="13"/>
+    </row>
+    <row r="276" spans="1:9" ht="14.4">
+      <c r="A276" s="13"/>
+      <c r="B276" s="13"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="13"/>
+      <c r="E276" s="13"/>
+      <c r="F276" s="13"/>
+      <c r="G276" s="13"/>
+      <c r="H276" s="13"/>
+      <c r="I276" s="13"/>
+    </row>
+    <row r="277" spans="1:9" ht="14.4">
+      <c r="A277" s="13"/>
+      <c r="B277" s="13"/>
+      <c r="C277" s="13"/>
+      <c r="D277" s="13"/>
+      <c r="E277" s="13"/>
+      <c r="F277" s="13"/>
+      <c r="G277" s="13"/>
+      <c r="H277" s="13"/>
+      <c r="I277" s="13"/>
+    </row>
+    <row r="278" spans="1:9" ht="14.4">
+      <c r="A278" s="13"/>
+      <c r="B278" s="13"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="13"/>
+      <c r="E278" s="13"/>
+      <c r="F278" s="13"/>
+      <c r="G278" s="13"/>
+      <c r="H278" s="13"/>
+      <c r="I278" s="13"/>
+    </row>
+    <row r="279" spans="1:9" ht="14.4">
+      <c r="A279" s="13"/>
+      <c r="B279" s="13"/>
+      <c r="C279" s="13"/>
+      <c r="D279" s="13"/>
+      <c r="E279" s="13"/>
+      <c r="F279" s="13"/>
+      <c r="G279" s="13"/>
+      <c r="H279" s="13"/>
+      <c r="I279" s="13"/>
+    </row>
+    <row r="280" spans="1:9" ht="14.4">
+      <c r="A280" s="13"/>
+      <c r="B280" s="13"/>
+      <c r="C280" s="13"/>
+      <c r="D280" s="13"/>
+      <c r="E280" s="13"/>
+      <c r="F280" s="13"/>
+      <c r="G280" s="13"/>
+      <c r="H280" s="13"/>
+      <c r="I280" s="13"/>
+    </row>
+    <row r="281" spans="1:9" ht="14.4">
+      <c r="A281" s="13"/>
+      <c r="B281" s="13"/>
+      <c r="C281" s="13"/>
+      <c r="D281" s="13"/>
+      <c r="E281" s="13"/>
+      <c r="F281" s="13"/>
+      <c r="G281" s="13"/>
+      <c r="H281" s="13"/>
+      <c r="I281" s="13"/>
+    </row>
+    <row r="282" spans="1:9" ht="14.4">
+      <c r="A282" s="13"/>
+      <c r="B282" s="13"/>
+      <c r="C282" s="13"/>
+      <c r="D282" s="13"/>
+      <c r="E282" s="13"/>
+      <c r="F282" s="13"/>
+      <c r="G282" s="13"/>
+      <c r="H282" s="13"/>
+      <c r="I282" s="13"/>
+    </row>
+    <row r="283" spans="1:9" ht="14.4">
+      <c r="A283" s="13"/>
+      <c r="B283" s="13"/>
+      <c r="C283" s="13"/>
+      <c r="D283" s="13"/>
+      <c r="E283" s="13"/>
+      <c r="F283" s="13"/>
+      <c r="G283" s="13"/>
+      <c r="H283" s="13"/>
+      <c r="I283" s="13"/>
+    </row>
+    <row r="284" spans="1:9" ht="14.4">
+      <c r="A284" s="13"/>
+      <c r="B284" s="13"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="13"/>
+      <c r="E284" s="13"/>
+      <c r="F284" s="13"/>
+      <c r="G284" s="13"/>
+      <c r="H284" s="13"/>
+      <c r="I284" s="13"/>
+    </row>
+    <row r="285" spans="1:9" ht="14.4">
+      <c r="A285" s="13"/>
+      <c r="B285" s="13"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="13"/>
+      <c r="E285" s="13"/>
+      <c r="F285" s="13"/>
+      <c r="G285" s="13"/>
+      <c r="H285" s="13"/>
+      <c r="I285" s="13"/>
+    </row>
+    <row r="286" spans="1:9" ht="14.4">
+      <c r="A286" s="13"/>
+      <c r="B286" s="13"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="13"/>
+      <c r="E286" s="13"/>
+      <c r="F286" s="13"/>
+      <c r="G286" s="13"/>
+      <c r="H286" s="13"/>
+      <c r="I286" s="13"/>
+    </row>
+    <row r="287" spans="1:9" ht="14.4">
+      <c r="A287" s="13"/>
+      <c r="B287" s="13"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="13"/>
+      <c r="E287" s="13"/>
+      <c r="F287" s="13"/>
+      <c r="G287" s="13"/>
+      <c r="H287" s="13"/>
+      <c r="I287" s="13"/>
+    </row>
+    <row r="288" spans="1:9" ht="14.4">
+      <c r="A288" s="13"/>
+      <c r="B288" s="13"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="13"/>
+      <c r="F288" s="13"/>
+      <c r="G288" s="13"/>
+      <c r="H288" s="13"/>
+      <c r="I288" s="13"/>
+    </row>
+    <row r="289" spans="1:9" ht="14.4">
+      <c r="A289" s="13"/>
+      <c r="B289" s="13"/>
+      <c r="C289" s="13"/>
+      <c r="D289" s="13"/>
+      <c r="E289" s="13"/>
+      <c r="F289" s="13"/>
+      <c r="G289" s="13"/>
+      <c r="H289" s="13"/>
+      <c r="I289" s="13"/>
+    </row>
+    <row r="290" spans="1:9" ht="14.4">
+      <c r="A290" s="13"/>
+      <c r="B290" s="13"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="13"/>
+      <c r="E290" s="13"/>
+      <c r="F290" s="13"/>
+      <c r="G290" s="13"/>
+      <c r="H290" s="13"/>
+      <c r="I290" s="13"/>
+    </row>
+    <row r="291" spans="1:9" ht="14.4">
+      <c r="A291" s="13"/>
+      <c r="B291" s="13"/>
+      <c r="C291" s="13"/>
+      <c r="D291" s="13"/>
+      <c r="E291" s="13"/>
+      <c r="F291" s="13"/>
+      <c r="G291" s="13"/>
+      <c r="H291" s="13"/>
+      <c r="I291" s="13"/>
+    </row>
+    <row r="292" spans="1:9" ht="14.4">
+      <c r="A292" s="13"/>
+      <c r="B292" s="13"/>
+      <c r="C292" s="13"/>
+      <c r="D292" s="13"/>
+      <c r="E292" s="13"/>
+      <c r="F292" s="13"/>
+      <c r="G292" s="13"/>
+      <c r="H292" s="13"/>
+      <c r="I292" s="13"/>
+    </row>
+    <row r="293" spans="1:9" ht="14.4">
+      <c r="A293" s="13"/>
+      <c r="B293" s="13"/>
+      <c r="C293" s="13"/>
+      <c r="D293" s="13"/>
+      <c r="E293" s="13"/>
+      <c r="F293" s="13"/>
+      <c r="G293" s="13"/>
+      <c r="H293" s="13"/>
+      <c r="I293" s="13"/>
+    </row>
+    <row r="294" spans="1:9" ht="14.4">
+      <c r="A294" s="13"/>
+      <c r="B294" s="13"/>
+      <c r="C294" s="13"/>
+      <c r="D294" s="13"/>
+      <c r="E294" s="13"/>
+      <c r="F294" s="13"/>
+      <c r="G294" s="13"/>
+      <c r="H294" s="13"/>
+      <c r="I294" s="13"/>
+    </row>
+    <row r="295" spans="1:9" ht="14.4">
+      <c r="A295" s="13"/>
+      <c r="B295" s="13"/>
+      <c r="C295" s="13"/>
+      <c r="D295" s="13"/>
+      <c r="E295" s="13"/>
+      <c r="F295" s="13"/>
+      <c r="G295" s="13"/>
+      <c r="H295" s="13"/>
+      <c r="I295" s="13"/>
+    </row>
+    <row r="296" spans="1:9" ht="14.4">
+      <c r="A296" s="13"/>
+      <c r="B296" s="13"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="13"/>
+      <c r="E296" s="13"/>
+      <c r="F296" s="13"/>
+      <c r="G296" s="13"/>
+      <c r="H296" s="13"/>
+      <c r="I296" s="13"/>
+    </row>
+    <row r="297" spans="1:9" ht="14.4">
+      <c r="A297" s="13"/>
+      <c r="B297" s="13"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="13"/>
+      <c r="E297" s="13"/>
+      <c r="F297" s="13"/>
+      <c r="G297" s="13"/>
+      <c r="H297" s="13"/>
+      <c r="I297" s="13"/>
+    </row>
+    <row r="298" spans="1:9" ht="14.4">
+      <c r="A298" s="13"/>
+      <c r="B298" s="13"/>
+      <c r="C298" s="13"/>
+      <c r="D298" s="13"/>
+      <c r="E298" s="13"/>
+      <c r="F298" s="13"/>
+      <c r="G298" s="13"/>
+      <c r="H298" s="13"/>
+      <c r="I298" s="13"/>
+    </row>
+    <row r="299" spans="1:9" ht="14.4">
+      <c r="A299" s="13"/>
+      <c r="B299" s="13"/>
+      <c r="C299" s="13"/>
+      <c r="D299" s="13"/>
+      <c r="E299" s="13"/>
+      <c r="F299" s="13"/>
+      <c r="G299" s="13"/>
+      <c r="H299" s="13"/>
+      <c r="I299" s="13"/>
+    </row>
+    <row r="300" spans="1:9" ht="14.4">
+      <c r="A300" s="13"/>
+      <c r="B300" s="13"/>
+      <c r="C300" s="13"/>
+      <c r="D300" s="13"/>
+      <c r="E300" s="13"/>
+      <c r="F300" s="13"/>
+      <c r="G300" s="13"/>
+      <c r="H300" s="13"/>
+      <c r="I300" s="13"/>
+    </row>
+    <row r="301" spans="1:9" ht="14.4">
+      <c r="A301" s="13"/>
+      <c r="B301" s="13"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="13"/>
+      <c r="E301" s="13"/>
+      <c r="F301" s="13"/>
+      <c r="G301" s="13"/>
+      <c r="H301" s="13"/>
+      <c r="I301" s="13"/>
+    </row>
+    <row r="302" spans="1:9" ht="14.4">
+      <c r="A302" s="13"/>
+      <c r="B302" s="13"/>
+      <c r="C302" s="13"/>
+      <c r="D302" s="13"/>
+      <c r="E302" s="13"/>
+      <c r="F302" s="13"/>
+      <c r="G302" s="13"/>
+      <c r="H302" s="13"/>
+      <c r="I302" s="13"/>
+    </row>
+    <row r="303" spans="1:9" ht="14.4">
+      <c r="A303" s="13"/>
+      <c r="B303" s="13"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="13"/>
+      <c r="E303" s="13"/>
+      <c r="F303" s="13"/>
+      <c r="G303" s="13"/>
+      <c r="H303" s="13"/>
+      <c r="I303" s="13"/>
+    </row>
+    <row r="304" spans="1:9" ht="14.4">
+      <c r="A304" s="13"/>
+      <c r="B304" s="13"/>
+      <c r="C304" s="13"/>
+      <c r="D304" s="13"/>
+      <c r="E304" s="13"/>
+      <c r="F304" s="13"/>
+      <c r="G304" s="13"/>
+      <c r="H304" s="13"/>
+      <c r="I304" s="13"/>
+    </row>
+    <row r="305" spans="1:9" ht="14.4">
+      <c r="A305" s="13"/>
+      <c r="B305" s="13"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="13"/>
+      <c r="E305" s="13"/>
+      <c r="F305" s="13"/>
+      <c r="G305" s="13"/>
+      <c r="H305" s="13"/>
+      <c r="I305" s="13"/>
+    </row>
+    <row r="306" spans="1:9" ht="14.4">
+      <c r="A306" s="13"/>
+      <c r="B306" s="13"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="13"/>
+      <c r="E306" s="13"/>
+      <c r="F306" s="13"/>
+      <c r="G306" s="13"/>
+      <c r="H306" s="13"/>
+      <c r="I306" s="13"/>
+    </row>
+    <row r="307" spans="1:9" ht="14.4">
+      <c r="A307" s="13"/>
+      <c r="B307" s="13"/>
+      <c r="C307" s="13"/>
+      <c r="D307" s="13"/>
+      <c r="E307" s="13"/>
+      <c r="F307" s="13"/>
+      <c r="G307" s="13"/>
+      <c r="H307" s="13"/>
+      <c r="I307" s="13"/>
+    </row>
+    <row r="308" spans="1:9" ht="14.4">
+      <c r="A308" s="13"/>
+      <c r="B308" s="13"/>
+      <c r="C308" s="13"/>
+      <c r="D308" s="13"/>
+      <c r="E308" s="13"/>
+      <c r="F308" s="13"/>
+      <c r="G308" s="13"/>
+      <c r="H308" s="13"/>
+      <c r="I308" s="13"/>
+    </row>
+    <row r="309" spans="1:9" ht="14.4">
+      <c r="A309" s="13"/>
+      <c r="B309" s="13"/>
+      <c r="C309" s="13"/>
+      <c r="D309" s="13"/>
+      <c r="E309" s="13"/>
+      <c r="F309" s="13"/>
+      <c r="G309" s="13"/>
+      <c r="H309" s="13"/>
+      <c r="I309" s="13"/>
+    </row>
+    <row r="310" spans="1:9" ht="14.4">
+      <c r="A310" s="13"/>
+      <c r="B310" s="13"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="13"/>
+      <c r="E310" s="13"/>
+      <c r="F310" s="13"/>
+      <c r="G310" s="13"/>
+      <c r="H310" s="13"/>
+      <c r="I310" s="13"/>
+    </row>
+    <row r="311" spans="1:9" ht="14.4">
+      <c r="A311" s="13"/>
+      <c r="B311" s="13"/>
+      <c r="C311" s="13"/>
+      <c r="D311" s="13"/>
+      <c r="E311" s="13"/>
+      <c r="F311" s="13"/>
+      <c r="G311" s="13"/>
+      <c r="H311" s="13"/>
+      <c r="I311" s="13"/>
+    </row>
+    <row r="312" spans="1:9" ht="14.4">
+      <c r="A312" s="13"/>
+      <c r="B312" s="13"/>
+      <c r="C312" s="13"/>
+      <c r="D312" s="13"/>
+      <c r="E312" s="13"/>
+      <c r="F312" s="13"/>
+      <c r="G312" s="13"/>
+      <c r="H312" s="13"/>
+      <c r="I312" s="13"/>
+    </row>
+    <row r="313" spans="1:9" ht="14.4">
+      <c r="A313" s="13"/>
+      <c r="B313" s="13"/>
+      <c r="C313" s="13"/>
+      <c r="D313" s="13"/>
+      <c r="E313" s="13"/>
+      <c r="F313" s="13"/>
+      <c r="G313" s="13"/>
+      <c r="H313" s="13"/>
+      <c r="I313" s="13"/>
+    </row>
+    <row r="314" spans="1:9" ht="14.4">
+      <c r="A314" s="13"/>
+      <c r="B314" s="13"/>
+      <c r="C314" s="13"/>
+      <c r="D314" s="13"/>
+      <c r="E314" s="13"/>
+      <c r="F314" s="13"/>
+      <c r="G314" s="13"/>
+      <c r="H314" s="13"/>
+      <c r="I314" s="13"/>
+    </row>
+    <row r="315" spans="1:9" ht="14.4">
+      <c r="A315" s="13"/>
+      <c r="B315" s="13"/>
+      <c r="C315" s="13"/>
+      <c r="D315" s="13"/>
+      <c r="E315" s="13"/>
+      <c r="F315" s="13"/>
+      <c r="G315" s="13"/>
+      <c r="H315" s="13"/>
+      <c r="I315" s="13"/>
+    </row>
+    <row r="316" spans="1:9" ht="14.4">
+      <c r="A316" s="13"/>
+      <c r="B316" s="13"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="13"/>
+      <c r="E316" s="13"/>
+      <c r="F316" s="13"/>
+      <c r="G316" s="13"/>
+      <c r="H316" s="13"/>
+      <c r="I316" s="13"/>
+    </row>
+    <row r="317" spans="1:9" ht="14.4">
+      <c r="A317" s="13"/>
+      <c r="B317" s="13"/>
+      <c r="C317" s="13"/>
+      <c r="D317" s="13"/>
+      <c r="E317" s="13"/>
+      <c r="F317" s="13"/>
+      <c r="G317" s="13"/>
+      <c r="H317" s="13"/>
+      <c r="I317" s="13"/>
+    </row>
+    <row r="318" spans="1:9" ht="14.4">
+      <c r="A318" s="13"/>
+      <c r="B318" s="13"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="13"/>
+      <c r="E318" s="13"/>
+      <c r="F318" s="13"/>
+      <c r="G318" s="13"/>
+      <c r="H318" s="13"/>
+      <c r="I318" s="13"/>
+    </row>
+    <row r="319" spans="1:9" ht="14.4">
+      <c r="A319" s="13"/>
+      <c r="B319" s="13"/>
+      <c r="C319" s="13"/>
+      <c r="D319" s="13"/>
+      <c r="E319" s="13"/>
+      <c r="F319" s="13"/>
+      <c r="G319" s="13"/>
+      <c r="H319" s="13"/>
+      <c r="I319" s="13"/>
+    </row>
+    <row r="320" spans="1:9" ht="14.4">
+      <c r="A320" s="13"/>
+      <c r="B320" s="13"/>
+      <c r="C320" s="13"/>
+      <c r="D320" s="13"/>
+      <c r="E320" s="13"/>
+      <c r="F320" s="13"/>
+      <c r="G320" s="13"/>
+      <c r="H320" s="13"/>
+      <c r="I320" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="H165:H168"/>
-    <mergeCell ref="H169:H183"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="I164:I184"/>
+  <mergeCells count="72">
+    <mergeCell ref="H67:H76"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="H94:H98"/>
+    <mergeCell ref="H187:I187"/>
     <mergeCell ref="H156:H158"/>
     <mergeCell ref="H147:H155"/>
     <mergeCell ref="I89:I159"/>
@@ -9918,46 +10173,8 @@
     <mergeCell ref="D145:D146"/>
     <mergeCell ref="H131:H146"/>
     <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
     <mergeCell ref="F147:F148"/>
     <mergeCell ref="G147:G148"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="F141:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="H99:H130"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="G102:G107"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G116:G124"/>
-    <mergeCell ref="F116:F124"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C116:C124"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="C102:C103"/>
     <mergeCell ref="C94:C98"/>
     <mergeCell ref="F94:F98"/>
     <mergeCell ref="G94:G98"/>
@@ -9975,9 +10192,47 @@
     <mergeCell ref="H43:H49"/>
     <mergeCell ref="H50:H57"/>
     <mergeCell ref="H58:H66"/>
-    <mergeCell ref="H67:H76"/>
-    <mergeCell ref="H77:H83"/>
-    <mergeCell ref="H94:H98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C116:C124"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="H99:H130"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="G102:G107"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G116:G124"/>
+    <mergeCell ref="F116:F124"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="H165:H168"/>
+    <mergeCell ref="H169:H183"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="I164:I184"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LWD_NMR_DSP/新版数据空间分配.xlsx
+++ b/LWD_NMR_DSP/新版数据空间分配.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8B76AC-CC1C-405A-95DB-4D267BF04812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEA66D2-0770-4656-A6DF-196A36448F52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="437">
   <si>
     <t>TableID</t>
   </si>
@@ -2895,14 +2895,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>69</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>71</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2917,22 +2909,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Reserve</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，用以上表添加新的字段</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Timestamp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3345,11 +3321,113 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1718</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0016</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTa0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTa1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTa2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckSum</t>
+  </si>
+  <si>
+    <t>ProbePara</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>STKLEV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反演参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平滑因子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泥质</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>截止值</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛管T2截止值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALFA</t>
+  </si>
+  <si>
+    <t>T2CC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckSum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3545,7 +3623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3620,6 +3698,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3636,7 +3834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3695,9 +3893,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="5" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3731,6 +3926,97 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="9" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3740,13 +4026,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3771,6 +4051,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4152,8 +4435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P320"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4217,8 +4500,8 @@
       <c r="G2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="64" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4243,8 +4526,8 @@
       <c r="G3" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="10">
@@ -4258,10 +4541,10 @@
         <v>60</v>
       </c>
       <c r="D4" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
@@ -4270,7 +4553,7 @@
       <c r="H4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="57" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4295,10 +4578,10 @@
       <c r="G5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="36"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="10">
@@ -4321,8 +4604,8 @@
       <c r="G6" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="36"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="65"/>
     </row>
     <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="10">
@@ -4345,8 +4628,8 @@
       <c r="G7" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="36"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="65"/>
     </row>
     <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="10">
@@ -4369,8 +4652,8 @@
       <c r="G8" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="36"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="10">
@@ -4393,10 +4676,10 @@
       <c r="G9" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="I9" s="36"/>
+      <c r="I9" s="65"/>
     </row>
     <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="10">
@@ -4419,8 +4702,8 @@
       <c r="G10" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="36"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="10">
@@ -4445,8 +4728,8 @@
       <c r="G11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="36"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="10">
@@ -4471,8 +4754,8 @@
       <c r="G12" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="36"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="10">
@@ -4497,8 +4780,8 @@
       <c r="G13" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="36"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="10">
@@ -4523,8 +4806,8 @@
       <c r="G14" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="36"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="10">
@@ -4549,8 +4832,8 @@
       <c r="G15" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="36"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="10">
@@ -4575,8 +4858,8 @@
       <c r="G16" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="36"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="10">
@@ -4601,8 +4884,8 @@
       <c r="G17" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="36"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="10">
@@ -4627,8 +4910,8 @@
       <c r="G18" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="36"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="10">
@@ -4653,8 +4936,8 @@
       <c r="G19" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="36"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="65"/>
     </row>
     <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="10">
@@ -4679,8 +4962,8 @@
       <c r="G20" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="36"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="65"/>
     </row>
     <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="10">
@@ -4705,8 +4988,8 @@
       <c r="G21" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="42"/>
-      <c r="I21" s="36"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="65"/>
     </row>
     <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="10">
@@ -4731,8 +5014,8 @@
       <c r="G22" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="36"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="10">
@@ -4757,8 +5040,8 @@
       <c r="G23" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="36"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="10">
@@ -4783,8 +5066,8 @@
       <c r="G24" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="36"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10">
@@ -4804,7 +5087,7 @@
       <c r="H25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="37"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="10">
@@ -4818,7 +5101,7 @@
         <v>60</v>
       </c>
       <c r="D26" s="10">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>82</v>
@@ -4830,7 +5113,7 @@
       <c r="H26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="66" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4855,10 +5138,10 @@
       <c r="G27" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="39"/>
+      <c r="I27" s="67"/>
     </row>
     <row r="28" spans="1:9" ht="14.4">
       <c r="A28" s="10">
@@ -4881,8 +5164,8 @@
       <c r="G28" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="39"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="67"/>
     </row>
     <row r="29" spans="1:9" ht="14.4">
       <c r="A29" s="10">
@@ -4905,8 +5188,8 @@
       <c r="G29" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="39"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="1:9" ht="14.4">
       <c r="A30" s="10">
@@ -4929,8 +5212,8 @@
       <c r="G30" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="39"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="67"/>
     </row>
     <row r="31" spans="1:9" ht="14.4">
       <c r="A31" s="10">
@@ -4953,10 +5236,10 @@
       <c r="G31" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="39"/>
+      <c r="I31" s="67"/>
     </row>
     <row r="32" spans="1:9" ht="14.4">
       <c r="A32" s="10">
@@ -4981,8 +5264,8 @@
       <c r="G32" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="39"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="67"/>
     </row>
     <row r="33" spans="1:9" ht="14.4">
       <c r="A33" s="10">
@@ -5007,8 +5290,8 @@
       <c r="G33" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="39"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="67"/>
     </row>
     <row r="34" spans="1:9" ht="14.4">
       <c r="A34" s="10">
@@ -5033,8 +5316,8 @@
       <c r="G34" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="39"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="67"/>
     </row>
     <row r="35" spans="1:9" ht="14.4">
       <c r="A35" s="10">
@@ -5059,8 +5342,8 @@
       <c r="G35" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="39"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="67"/>
     </row>
     <row r="36" spans="1:9" ht="14.4">
       <c r="A36" s="10">
@@ -5085,8 +5368,8 @@
       <c r="G36" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="39"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="67"/>
     </row>
     <row r="37" spans="1:9" ht="14.4">
       <c r="A37" s="10">
@@ -5111,8 +5394,8 @@
       <c r="G37" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="39"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="67"/>
     </row>
     <row r="38" spans="1:9" ht="14.4">
       <c r="A38" s="10">
@@ -5135,8 +5418,8 @@
       <c r="G38" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="39"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="67"/>
     </row>
     <row r="39" spans="1:9" ht="14.4">
       <c r="A39" s="10">
@@ -5161,8 +5444,8 @@
       <c r="G39" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="39"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="67"/>
     </row>
     <row r="40" spans="1:9" ht="14.4">
       <c r="A40" s="10">
@@ -5187,10 +5470,10 @@
       <c r="G40" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="H40" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="39"/>
+      <c r="I40" s="67"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="10">
@@ -5213,8 +5496,8 @@
         <v>34</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="39"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="67"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="10">
@@ -5237,8 +5520,8 @@
         <v>22</v>
       </c>
       <c r="G42" s="10"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="39"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="67"/>
     </row>
     <row r="43" spans="1:9" ht="14.4">
       <c r="A43" s="10">
@@ -5263,10 +5546,10 @@
       <c r="G43" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="39"/>
+      <c r="I43" s="67"/>
     </row>
     <row r="44" spans="1:9" ht="14.4">
       <c r="A44" s="10">
@@ -5291,8 +5574,8 @@
       <c r="G44" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="39"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="67"/>
     </row>
     <row r="45" spans="1:9" ht="14.4">
       <c r="A45" s="10">
@@ -5317,8 +5600,8 @@
       <c r="G45" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="39"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="67"/>
     </row>
     <row r="46" spans="1:9" ht="14.4">
       <c r="A46" s="10">
@@ -5343,8 +5626,8 @@
       <c r="G46" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="39"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="67"/>
     </row>
     <row r="47" spans="1:9" ht="14.4">
       <c r="A47" s="10">
@@ -5369,8 +5652,8 @@
       <c r="G47" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="39"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="67"/>
     </row>
     <row r="48" spans="1:9" ht="14.4">
       <c r="A48" s="10">
@@ -5395,8 +5678,8 @@
       <c r="G48" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="39"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="67"/>
     </row>
     <row r="49" spans="1:9" ht="14.4">
       <c r="A49" s="10">
@@ -5421,8 +5704,8 @@
       <c r="G49" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="39"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="67"/>
     </row>
     <row r="50" spans="1:9" ht="14.4">
       <c r="A50" s="10">
@@ -5447,10 +5730,10 @@
       <c r="G50" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H50" s="41" t="s">
+      <c r="H50" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="I50" s="39"/>
+      <c r="I50" s="67"/>
     </row>
     <row r="51" spans="1:9" ht="14.4">
       <c r="A51" s="10">
@@ -5475,8 +5758,8 @@
       <c r="G51" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="39"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="67"/>
     </row>
     <row r="52" spans="1:9" ht="14.4">
       <c r="A52" s="10">
@@ -5501,8 +5784,8 @@
       <c r="G52" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="39"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="67"/>
     </row>
     <row r="53" spans="1:9" ht="14.4">
       <c r="A53" s="10">
@@ -5527,8 +5810,8 @@
       <c r="G53" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="39"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="67"/>
     </row>
     <row r="54" spans="1:9" ht="14.4">
       <c r="A54" s="10">
@@ -5553,8 +5836,8 @@
       <c r="G54" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="39"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="67"/>
     </row>
     <row r="55" spans="1:9" ht="14.4">
       <c r="A55" s="10">
@@ -5579,8 +5862,8 @@
       <c r="G55" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="39"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="67"/>
     </row>
     <row r="56" spans="1:9" ht="14.4">
       <c r="A56" s="10">
@@ -5605,8 +5888,8 @@
       <c r="G56" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H56" s="41"/>
-      <c r="I56" s="39"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="67"/>
     </row>
     <row r="57" spans="1:9" ht="14.4">
       <c r="A57" s="10">
@@ -5631,8 +5914,8 @@
       <c r="G57" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H57" s="41"/>
-      <c r="I57" s="39"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="67"/>
     </row>
     <row r="58" spans="1:9" ht="14.4">
       <c r="A58" s="10">
@@ -5643,7 +5926,7 @@
         <v>8038</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>49</v>
@@ -5657,10 +5940,10 @@
       <c r="G58" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H58" s="41" t="s">
+      <c r="H58" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="I58" s="39"/>
+      <c r="I58" s="67"/>
     </row>
     <row r="59" spans="1:9" ht="14.4">
       <c r="A59" s="10">
@@ -5685,8 +5968,8 @@
       <c r="G59" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H59" s="41"/>
-      <c r="I59" s="39"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="67"/>
     </row>
     <row r="60" spans="1:9" ht="28.8">
       <c r="A60" s="10">
@@ -5711,8 +5994,8 @@
       <c r="G60" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H60" s="41"/>
-      <c r="I60" s="39"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="67"/>
     </row>
     <row r="61" spans="1:9" ht="14.4">
       <c r="A61" s="10">
@@ -5737,8 +6020,8 @@
       <c r="G61" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H61" s="41"/>
-      <c r="I61" s="39"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="67"/>
     </row>
     <row r="62" spans="1:9" ht="14.4">
       <c r="A62" s="10">
@@ -5763,8 +6046,8 @@
       <c r="G62" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H62" s="41"/>
-      <c r="I62" s="39"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="67"/>
     </row>
     <row r="63" spans="1:9" ht="14.4">
       <c r="A63" s="10">
@@ -5789,8 +6072,8 @@
       <c r="G63" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H63" s="41"/>
-      <c r="I63" s="39"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="67"/>
     </row>
     <row r="64" spans="1:9" ht="14.4">
       <c r="A64" s="10">
@@ -5815,8 +6098,8 @@
       <c r="G64" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H64" s="41"/>
-      <c r="I64" s="39"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="67"/>
     </row>
     <row r="65" spans="1:9" ht="14.4">
       <c r="A65" s="10">
@@ -5841,8 +6124,8 @@
       <c r="G65" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H65" s="41"/>
-      <c r="I65" s="39"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="67"/>
     </row>
     <row r="66" spans="1:9" ht="14.4">
       <c r="A66" s="10">
@@ -5867,8 +6150,8 @@
       <c r="G66" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H66" s="41"/>
-      <c r="I66" s="39"/>
+      <c r="H66" s="69"/>
+      <c r="I66" s="67"/>
     </row>
     <row r="67" spans="1:9" ht="14.4">
       <c r="A67" s="10">
@@ -5893,10 +6176,10 @@
       <c r="G67" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H67" s="41" t="s">
+      <c r="H67" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="I67" s="39"/>
+      <c r="I67" s="67"/>
     </row>
     <row r="68" spans="1:9" ht="14.4">
       <c r="A68" s="10">
@@ -5921,8 +6204,8 @@
       <c r="G68" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H68" s="41"/>
-      <c r="I68" s="39"/>
+      <c r="H68" s="69"/>
+      <c r="I68" s="67"/>
     </row>
     <row r="69" spans="1:9" ht="14.4">
       <c r="A69" s="10">
@@ -5947,8 +6230,8 @@
       <c r="G69" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H69" s="41"/>
-      <c r="I69" s="39"/>
+      <c r="H69" s="69"/>
+      <c r="I69" s="67"/>
     </row>
     <row r="70" spans="1:9" ht="14.4">
       <c r="A70" s="10">
@@ -5973,8 +6256,8 @@
       <c r="G70" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H70" s="41"/>
-      <c r="I70" s="39"/>
+      <c r="H70" s="69"/>
+      <c r="I70" s="67"/>
     </row>
     <row r="71" spans="1:9" ht="14.4">
       <c r="A71" s="10">
@@ -5999,8 +6282,8 @@
       <c r="G71" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H71" s="41"/>
-      <c r="I71" s="39"/>
+      <c r="H71" s="69"/>
+      <c r="I71" s="67"/>
     </row>
     <row r="72" spans="1:9" ht="14.4">
       <c r="A72" s="10">
@@ -6025,8 +6308,8 @@
       <c r="G72" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H72" s="41"/>
-      <c r="I72" s="39"/>
+      <c r="H72" s="69"/>
+      <c r="I72" s="67"/>
     </row>
     <row r="73" spans="1:9" ht="14.4">
       <c r="A73" s="10">
@@ -6051,8 +6334,8 @@
       <c r="G73" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H73" s="41"/>
-      <c r="I73" s="39"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="67"/>
     </row>
     <row r="74" spans="1:9" ht="14.4">
       <c r="A74" s="10">
@@ -6077,8 +6360,8 @@
       <c r="G74" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H74" s="41"/>
-      <c r="I74" s="39"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="67"/>
     </row>
     <row r="75" spans="1:9" ht="14.4">
       <c r="A75" s="10">
@@ -6103,8 +6386,8 @@
       <c r="G75" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H75" s="41"/>
-      <c r="I75" s="39"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="67"/>
     </row>
     <row r="76" spans="1:9" ht="14.4">
       <c r="A76" s="10">
@@ -6129,8 +6412,8 @@
       <c r="G76" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H76" s="41"/>
-      <c r="I76" s="39"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="67"/>
     </row>
     <row r="77" spans="1:9" ht="14.4">
       <c r="A77" s="10">
@@ -6155,10 +6438,10 @@
       <c r="G77" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H77" s="41" t="s">
+      <c r="H77" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I77" s="39"/>
+      <c r="I77" s="67"/>
     </row>
     <row r="78" spans="1:9" ht="14.4">
       <c r="A78" s="10">
@@ -6183,8 +6466,8 @@
       <c r="G78" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H78" s="41"/>
-      <c r="I78" s="39"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="67"/>
     </row>
     <row r="79" spans="1:9" ht="14.4">
       <c r="A79" s="10">
@@ -6209,8 +6492,8 @@
       <c r="G79" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H79" s="41"/>
-      <c r="I79" s="39"/>
+      <c r="H79" s="69"/>
+      <c r="I79" s="67"/>
     </row>
     <row r="80" spans="1:9" ht="14.4">
       <c r="A80" s="10">
@@ -6235,8 +6518,8 @@
       <c r="G80" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H80" s="41"/>
-      <c r="I80" s="39"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="67"/>
     </row>
     <row r="81" spans="1:16" ht="14.4">
       <c r="A81" s="10">
@@ -6261,8 +6544,8 @@
       <c r="G81" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H81" s="41"/>
-      <c r="I81" s="39"/>
+      <c r="H81" s="69"/>
+      <c r="I81" s="67"/>
       <c r="P81" t="s">
         <v>61</v>
       </c>
@@ -6290,8 +6573,8 @@
       <c r="G82" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H82" s="41"/>
-      <c r="I82" s="39"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="67"/>
     </row>
     <row r="83" spans="1:16" ht="14.4">
       <c r="A83" s="10">
@@ -6316,8 +6599,8 @@
       <c r="G83" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H83" s="41"/>
-      <c r="I83" s="39"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="67"/>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="10">
@@ -6337,7 +6620,7 @@
       <c r="H84" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I84" s="40"/>
+      <c r="I84" s="68"/>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="10">
@@ -6347,15 +6630,15 @@
         <f t="shared" si="4"/>
         <v>8053</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C85" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="63"/>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="10">
@@ -6365,13 +6648,13 @@
         <f t="shared" si="4"/>
         <v>8054</v>
       </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="10">
@@ -6381,13 +6664,13 @@
         <f t="shared" si="4"/>
         <v>8055</v>
       </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="63"/>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="10">
@@ -6397,13 +6680,13 @@
         <f t="shared" si="4"/>
         <v>8056</v>
       </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
     </row>
     <row r="89" spans="1:16" ht="28.2">
       <c r="A89" s="7">
@@ -6417,19 +6700,19 @@
         <v>192</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>397</v>
+        <v>435</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>394</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H89" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="I89" s="45" t="s">
+      <c r="I89" s="73" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6454,10 +6737,10 @@
       <c r="G90" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H90" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="I90" s="45"/>
+      <c r="H90" s="62" t="s">
+        <v>332</v>
+      </c>
+      <c r="I90" s="73"/>
     </row>
     <row r="91" spans="1:16" ht="14.4">
       <c r="A91" s="7">
@@ -6471,17 +6754,17 @@
         <v>192</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>332</v>
+        <v>422</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="H91" s="32"/>
-      <c r="I91" s="45"/>
+      <c r="H91" s="62"/>
+      <c r="I91" s="73"/>
     </row>
     <row r="92" spans="1:16" ht="14.4">
       <c r="A92" s="7">
@@ -6504,8 +6787,8 @@
       <c r="G92" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="H92" s="32"/>
-      <c r="I92" s="45"/>
+      <c r="H92" s="62"/>
+      <c r="I92" s="73"/>
     </row>
     <row r="93" spans="1:16" ht="14.4">
       <c r="A93" s="7">
@@ -6528,8 +6811,8 @@
       <c r="G93" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="H93" s="32"/>
-      <c r="I93" s="45"/>
+      <c r="H93" s="62"/>
+      <c r="I93" s="73"/>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="7">
@@ -6539,25 +6822,25 @@
         <f t="shared" si="5"/>
         <v>805C</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="C94" s="60" t="s">
         <v>205</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>206</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F94" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="F94" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="G94" s="30" t="s">
+      <c r="G94" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="H94" s="32" t="s">
+      <c r="H94" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="I94" s="45"/>
+      <c r="I94" s="73"/>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="7">
@@ -6567,17 +6850,17 @@
         <f t="shared" si="5"/>
         <v>805D</v>
       </c>
-      <c r="C95" s="28"/>
+      <c r="C95" s="60"/>
       <c r="D95" s="7" t="s">
         <v>207</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="45"/>
+        <v>398</v>
+      </c>
+      <c r="F95" s="60"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="62"/>
+      <c r="I95" s="73"/>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="7">
@@ -6587,17 +6870,17 @@
         <f t="shared" si="5"/>
         <v>805E</v>
       </c>
-      <c r="C96" s="28"/>
+      <c r="C96" s="60"/>
       <c r="D96" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="32"/>
-      <c r="I96" s="45"/>
+        <v>399</v>
+      </c>
+      <c r="F96" s="60"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="73"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="7">
@@ -6607,17 +6890,17 @@
         <f t="shared" si="5"/>
         <v>805F</v>
       </c>
-      <c r="C97" s="28"/>
+      <c r="C97" s="60"/>
       <c r="D97" s="7" t="s">
         <v>209</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="32"/>
-      <c r="I97" s="45"/>
+        <v>400</v>
+      </c>
+      <c r="F97" s="60"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="73"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="7">
@@ -6627,17 +6910,17 @@
         <f t="shared" si="5"/>
         <v>8060</v>
       </c>
-      <c r="C98" s="28"/>
+      <c r="C98" s="60"/>
       <c r="D98" s="7" t="s">
         <v>210</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="45"/>
+        <v>401</v>
+      </c>
+      <c r="F98" s="60"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="62"/>
+      <c r="I98" s="73"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="7">
@@ -6647,25 +6930,25 @@
         <f t="shared" si="5"/>
         <v>8061</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="D99" s="28" t="s">
+      <c r="D99" s="60" t="s">
         <v>216</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F99" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="F99" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="G99" s="30" t="s">
+      <c r="G99" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="H99" s="32" t="s">
+      <c r="H99" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="I99" s="45"/>
+      <c r="I99" s="73"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="7">
@@ -6675,15 +6958,15 @@
         <f t="shared" si="5"/>
         <v>8062</v>
       </c>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
       <c r="E100" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="32"/>
-      <c r="I100" s="45"/>
+        <v>396</v>
+      </c>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="62"/>
+      <c r="I100" s="73"/>
     </row>
     <row r="101" spans="1:9" ht="16.8">
       <c r="A101" s="7">
@@ -6708,8 +6991,8 @@
       <c r="G101" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="H101" s="32"/>
-      <c r="I101" s="45"/>
+      <c r="H101" s="62"/>
+      <c r="I101" s="73"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="7">
@@ -6719,23 +7002,23 @@
         <f t="shared" si="5"/>
         <v>8064</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="D102" s="28" t="s">
+      <c r="D102" s="60" t="s">
         <v>259</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F102" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="F102" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="G102" s="31" t="s">
+      <c r="G102" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="H102" s="32"/>
-      <c r="I102" s="45"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="73"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="7">
@@ -6745,15 +7028,15 @@
         <f t="shared" ref="B103:B166" si="6">DEC2HEX(A103)</f>
         <v>8065</v>
       </c>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
       <c r="E103" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F103" s="33"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="45"/>
+        <v>396</v>
+      </c>
+      <c r="F103" s="63"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="62"/>
+      <c r="I103" s="73"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="7">
@@ -6763,21 +7046,21 @@
         <f t="shared" si="6"/>
         <v>8066</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="D104" s="28" t="s">
+      <c r="D104" s="60" t="s">
         <v>260</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F104" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="F104" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="G104" s="28"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="45"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="62"/>
+      <c r="I104" s="73"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="7">
@@ -6787,15 +7070,15 @@
         <f t="shared" si="6"/>
         <v>8067</v>
       </c>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="60"/>
       <c r="E105" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="32"/>
-      <c r="I105" s="45"/>
+        <v>396</v>
+      </c>
+      <c r="F105" s="60"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="62"/>
+      <c r="I105" s="73"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="7">
@@ -6805,21 +7088,21 @@
         <f t="shared" si="6"/>
         <v>8068</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C106" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="D106" s="28" t="s">
+      <c r="D106" s="60" t="s">
         <v>261</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F106" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="F106" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="G106" s="28"/>
-      <c r="H106" s="32"/>
-      <c r="I106" s="45"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="62"/>
+      <c r="I106" s="73"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="7">
@@ -6829,15 +7112,15 @@
         <f t="shared" si="6"/>
         <v>8069</v>
       </c>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
       <c r="E107" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="32"/>
-      <c r="I107" s="45"/>
+        <v>396</v>
+      </c>
+      <c r="F107" s="60"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="62"/>
+      <c r="I107" s="73"/>
     </row>
     <row r="108" spans="1:9" ht="14.4">
       <c r="A108" s="7">
@@ -6851,8 +7134,8 @@
         <v>227</v>
       </c>
       <c r="D108" s="7"/>
-      <c r="E108" s="27" t="s">
-        <v>405</v>
+      <c r="E108" s="26" t="s">
+        <v>402</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>268</v>
@@ -6860,8 +7143,8 @@
       <c r="G108" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="H108" s="32"/>
-      <c r="I108" s="45"/>
+      <c r="H108" s="62"/>
+      <c r="I108" s="73"/>
     </row>
     <row r="109" spans="1:9" ht="14.4">
       <c r="A109" s="7">
@@ -6875,8 +7158,8 @@
         <v>228</v>
       </c>
       <c r="D109" s="7"/>
-      <c r="E109" s="27" t="s">
-        <v>406</v>
+      <c r="E109" s="26" t="s">
+        <v>403</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>268</v>
@@ -6884,8 +7167,8 @@
       <c r="G109" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="H109" s="32"/>
-      <c r="I109" s="45"/>
+      <c r="H109" s="62"/>
+      <c r="I109" s="73"/>
     </row>
     <row r="110" spans="1:9" ht="14.4">
       <c r="A110" s="7">
@@ -6899,8 +7182,8 @@
         <v>229</v>
       </c>
       <c r="D110" s="7"/>
-      <c r="E110" s="27" t="s">
-        <v>408</v>
+      <c r="E110" s="26" t="s">
+        <v>405</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>268</v>
@@ -6908,8 +7191,8 @@
       <c r="G110" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H110" s="32"/>
-      <c r="I110" s="45"/>
+      <c r="H110" s="62"/>
+      <c r="I110" s="73"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="7">
@@ -6919,21 +7202,21 @@
         <f t="shared" si="6"/>
         <v>806D</v>
       </c>
-      <c r="C111" s="28" t="s">
+      <c r="C111" s="60" t="s">
         <v>230</v>
       </c>
       <c r="D111" s="7"/>
-      <c r="E111" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="F111" s="28" t="s">
+      <c r="E111" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="F111" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="G111" s="30" t="s">
+      <c r="G111" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="H111" s="32"/>
-      <c r="I111" s="45"/>
+      <c r="H111" s="62"/>
+      <c r="I111" s="73"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="7">
@@ -6943,15 +7226,15 @@
         <f t="shared" si="6"/>
         <v>806E</v>
       </c>
-      <c r="C112" s="28"/>
+      <c r="C112" s="60"/>
       <c r="D112" s="7"/>
-      <c r="E112" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="32"/>
-      <c r="I112" s="45"/>
+      <c r="E112" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F112" s="60"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="62"/>
+      <c r="I112" s="73"/>
     </row>
     <row r="113" spans="1:9" ht="16.8">
       <c r="A113" s="7">
@@ -6962,7 +7245,7 @@
         <v>806F</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>221</v>
@@ -6976,8 +7259,8 @@
       <c r="G113" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="H113" s="32"/>
-      <c r="I113" s="45"/>
+      <c r="H113" s="62"/>
+      <c r="I113" s="73"/>
     </row>
     <row r="114" spans="1:9" ht="14.4">
       <c r="A114" s="7">
@@ -7002,8 +7285,8 @@
       <c r="G114" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="H114" s="32"/>
-      <c r="I114" s="45"/>
+      <c r="H114" s="62"/>
+      <c r="I114" s="73"/>
     </row>
     <row r="115" spans="1:9" ht="14.4">
       <c r="A115" s="7">
@@ -7028,8 +7311,8 @@
       <c r="G115" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H115" s="32"/>
-      <c r="I115" s="45"/>
+      <c r="H115" s="62"/>
+      <c r="I115" s="73"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="7">
@@ -7039,21 +7322,21 @@
         <f t="shared" si="6"/>
         <v>8072</v>
       </c>
-      <c r="C116" s="28" t="s">
+      <c r="C116" s="60" t="s">
         <v>233</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="F116" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="F116" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="G116" s="28" t="s">
+      <c r="G116" s="60" t="s">
         <v>278</v>
       </c>
-      <c r="H116" s="32"/>
-      <c r="I116" s="45"/>
+      <c r="H116" s="62"/>
+      <c r="I116" s="73"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="7">
@@ -7063,15 +7346,15 @@
         <f t="shared" si="6"/>
         <v>8073</v>
       </c>
-      <c r="C117" s="28"/>
+      <c r="C117" s="60"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="32"/>
-      <c r="I117" s="45"/>
+        <v>403</v>
+      </c>
+      <c r="F117" s="60"/>
+      <c r="G117" s="60"/>
+      <c r="H117" s="62"/>
+      <c r="I117" s="73"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="7">
@@ -7081,15 +7364,15 @@
         <f t="shared" si="6"/>
         <v>8074</v>
       </c>
-      <c r="C118" s="28"/>
+      <c r="C118" s="60"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="32"/>
-      <c r="I118" s="45"/>
+        <v>405</v>
+      </c>
+      <c r="F118" s="60"/>
+      <c r="G118" s="60"/>
+      <c r="H118" s="62"/>
+      <c r="I118" s="73"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="7">
@@ -7099,15 +7382,15 @@
         <f t="shared" si="6"/>
         <v>8075</v>
       </c>
-      <c r="C119" s="28"/>
+      <c r="C119" s="60"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="32"/>
-      <c r="I119" s="45"/>
+        <v>407</v>
+      </c>
+      <c r="F119" s="60"/>
+      <c r="G119" s="60"/>
+      <c r="H119" s="62"/>
+      <c r="I119" s="73"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="7">
@@ -7117,15 +7400,15 @@
         <f t="shared" si="6"/>
         <v>8076</v>
       </c>
-      <c r="C120" s="28"/>
+      <c r="C120" s="60"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="32"/>
-      <c r="I120" s="45"/>
+        <v>409</v>
+      </c>
+      <c r="F120" s="60"/>
+      <c r="G120" s="60"/>
+      <c r="H120" s="62"/>
+      <c r="I120" s="73"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="7">
@@ -7135,15 +7418,15 @@
         <f t="shared" si="6"/>
         <v>8077</v>
       </c>
-      <c r="C121" s="28"/>
+      <c r="C121" s="60"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="32"/>
-      <c r="I121" s="45"/>
+        <v>411</v>
+      </c>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="62"/>
+      <c r="I121" s="73"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="7">
@@ -7153,15 +7436,15 @@
         <f t="shared" si="6"/>
         <v>8078</v>
       </c>
-      <c r="C122" s="28"/>
+      <c r="C122" s="60"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="45"/>
+        <v>412</v>
+      </c>
+      <c r="F122" s="60"/>
+      <c r="G122" s="60"/>
+      <c r="H122" s="62"/>
+      <c r="I122" s="73"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="7">
@@ -7171,15 +7454,15 @@
         <f t="shared" si="6"/>
         <v>8079</v>
       </c>
-      <c r="C123" s="28"/>
+      <c r="C123" s="60"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="32"/>
-      <c r="I123" s="45"/>
+        <v>413</v>
+      </c>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="62"/>
+      <c r="I123" s="73"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="7">
@@ -7189,15 +7472,15 @@
         <f t="shared" si="6"/>
         <v>807A</v>
       </c>
-      <c r="C124" s="28"/>
+      <c r="C124" s="60"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="32"/>
-      <c r="I124" s="45"/>
+        <v>414</v>
+      </c>
+      <c r="F124" s="60"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="62"/>
+      <c r="I124" s="73"/>
     </row>
     <row r="125" spans="1:9" ht="14.4">
       <c r="A125" s="7">
@@ -7222,8 +7505,8 @@
       <c r="G125" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="H125" s="32"/>
-      <c r="I125" s="45"/>
+      <c r="H125" s="62"/>
+      <c r="I125" s="73"/>
     </row>
     <row r="126" spans="1:9" ht="14.4">
       <c r="A126" s="7">
@@ -7248,8 +7531,8 @@
       <c r="G126" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="H126" s="32"/>
-      <c r="I126" s="45"/>
+      <c r="H126" s="62"/>
+      <c r="I126" s="73"/>
     </row>
     <row r="127" spans="1:9" ht="14.4">
       <c r="A127" s="7">
@@ -7274,8 +7557,8 @@
       <c r="G127" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H127" s="32"/>
-      <c r="I127" s="45"/>
+      <c r="H127" s="62"/>
+      <c r="I127" s="73"/>
     </row>
     <row r="128" spans="1:9" ht="14.4">
       <c r="A128" s="7">
@@ -7286,11 +7569,11 @@
         <v>807E</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>268</v>
@@ -7298,8 +7581,8 @@
       <c r="G128" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="H128" s="32"/>
-      <c r="I128" s="45"/>
+      <c r="H128" s="62"/>
+      <c r="I128" s="73"/>
     </row>
     <row r="129" spans="1:9" ht="14.4">
       <c r="A129" s="7">
@@ -7310,11 +7593,11 @@
         <v>807F</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>268</v>
@@ -7322,8 +7605,8 @@
       <c r="G129" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="H129" s="32"/>
-      <c r="I129" s="45"/>
+      <c r="H129" s="62"/>
+      <c r="I129" s="73"/>
     </row>
     <row r="130" spans="1:9" ht="14.4">
       <c r="A130" s="7">
@@ -7334,11 +7617,11 @@
         <v>8080</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>267</v>
@@ -7346,8 +7629,8 @@
       <c r="G130" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H130" s="32"/>
-      <c r="I130" s="45"/>
+      <c r="H130" s="62"/>
+      <c r="I130" s="73"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="7">
@@ -7357,25 +7640,25 @@
         <f t="shared" si="6"/>
         <v>8081</v>
       </c>
-      <c r="C131" s="28" t="s">
+      <c r="C131" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="D131" s="28" t="s">
+      <c r="D131" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="E131" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="F131" s="28" t="s">
+      <c r="E131" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="F131" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="G131" s="30" t="s">
+      <c r="G131" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="H131" s="32" t="s">
+      <c r="H131" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="I131" s="45"/>
+      <c r="I131" s="73"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="7">
@@ -7385,15 +7668,15 @@
         <f t="shared" si="6"/>
         <v>8082</v>
       </c>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="F132" s="28"/>
-      <c r="G132" s="28"/>
-      <c r="H132" s="32"/>
-      <c r="I132" s="45"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F132" s="60"/>
+      <c r="G132" s="60"/>
+      <c r="H132" s="62"/>
+      <c r="I132" s="73"/>
     </row>
     <row r="133" spans="1:9" ht="16.8">
       <c r="A133" s="7">
@@ -7404,7 +7687,7 @@
         <v>8083</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>221</v>
@@ -7418,8 +7701,8 @@
       <c r="G133" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="H133" s="32"/>
-      <c r="I133" s="45"/>
+      <c r="H133" s="62"/>
+      <c r="I133" s="73"/>
     </row>
     <row r="134" spans="1:9" ht="14.4">
       <c r="A134" s="7">
@@ -7444,8 +7727,8 @@
       <c r="G134" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H134" s="32"/>
-      <c r="I134" s="45"/>
+      <c r="H134" s="62"/>
+      <c r="I134" s="73"/>
     </row>
     <row r="135" spans="1:9" ht="14.4">
       <c r="A135" s="7">
@@ -7470,8 +7753,8 @@
       <c r="G135" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="H135" s="32"/>
-      <c r="I135" s="45"/>
+      <c r="H135" s="62"/>
+      <c r="I135" s="73"/>
     </row>
     <row r="136" spans="1:9" ht="14.4">
       <c r="A136" s="7">
@@ -7486,7 +7769,7 @@
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>296</v>
@@ -7494,8 +7777,8 @@
       <c r="G136" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H136" s="32"/>
-      <c r="I136" s="45"/>
+      <c r="H136" s="62"/>
+      <c r="I136" s="73"/>
     </row>
     <row r="137" spans="1:9" ht="14.4">
       <c r="A137" s="7">
@@ -7520,8 +7803,8 @@
       <c r="G137" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="H137" s="32"/>
-      <c r="I137" s="45"/>
+      <c r="H137" s="62"/>
+      <c r="I137" s="73"/>
     </row>
     <row r="138" spans="1:9" ht="14.4">
       <c r="A138" s="7">
@@ -7546,8 +7829,8 @@
       <c r="G138" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H138" s="32"/>
-      <c r="I138" s="45"/>
+      <c r="H138" s="62"/>
+      <c r="I138" s="73"/>
     </row>
     <row r="139" spans="1:9" ht="14.4">
       <c r="A139" s="7">
@@ -7572,8 +7855,8 @@
       <c r="G139" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="H139" s="32"/>
-      <c r="I139" s="45"/>
+      <c r="H139" s="62"/>
+      <c r="I139" s="73"/>
     </row>
     <row r="140" spans="1:9" ht="14.4">
       <c r="A140" s="7">
@@ -7598,8 +7881,8 @@
       <c r="G140" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="H140" s="32"/>
-      <c r="I140" s="45"/>
+      <c r="H140" s="62"/>
+      <c r="I140" s="73"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="7">
@@ -7609,23 +7892,23 @@
         <f t="shared" si="6"/>
         <v>808B</v>
       </c>
-      <c r="C141" s="28" t="s">
+      <c r="C141" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="D141" s="28" t="s">
+      <c r="D141" s="60" t="s">
         <v>309</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F141" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="F141" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="G141" s="31" t="s">
+      <c r="G141" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="H141" s="32"/>
-      <c r="I141" s="45"/>
+      <c r="H141" s="62"/>
+      <c r="I141" s="73"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="7">
@@ -7635,15 +7918,15 @@
         <f t="shared" si="6"/>
         <v>808C</v>
       </c>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="60"/>
       <c r="E142" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
-      <c r="H142" s="32"/>
-      <c r="I142" s="45"/>
+        <v>396</v>
+      </c>
+      <c r="F142" s="60"/>
+      <c r="G142" s="60"/>
+      <c r="H142" s="62"/>
+      <c r="I142" s="73"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="7">
@@ -7653,23 +7936,23 @@
         <f t="shared" si="6"/>
         <v>808D</v>
       </c>
-      <c r="C143" s="28" t="s">
+      <c r="C143" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="D143" s="28" t="s">
+      <c r="D143" s="60" t="s">
         <v>310</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F143" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="F143" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="G143" s="31" t="s">
+      <c r="G143" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="H143" s="32"/>
-      <c r="I143" s="45"/>
+      <c r="H143" s="62"/>
+      <c r="I143" s="73"/>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="7">
@@ -7679,15 +7962,15 @@
         <f t="shared" si="6"/>
         <v>808E</v>
       </c>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="60"/>
       <c r="E144" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F144" s="28"/>
-      <c r="G144" s="28"/>
-      <c r="H144" s="32"/>
-      <c r="I144" s="45"/>
+        <v>396</v>
+      </c>
+      <c r="F144" s="60"/>
+      <c r="G144" s="60"/>
+      <c r="H144" s="62"/>
+      <c r="I144" s="73"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="7">
@@ -7697,23 +7980,23 @@
         <f t="shared" si="6"/>
         <v>808F</v>
       </c>
-      <c r="C145" s="28" t="s">
+      <c r="C145" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="D145" s="28" t="s">
+      <c r="D145" s="60" t="s">
         <v>311</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F145" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="F145" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="G145" s="31" t="s">
+      <c r="G145" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="H145" s="32"/>
-      <c r="I145" s="45"/>
+      <c r="H145" s="62"/>
+      <c r="I145" s="73"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="7">
@@ -7723,15 +8006,15 @@
         <f t="shared" si="6"/>
         <v>8090</v>
       </c>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="60"/>
       <c r="E146" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F146" s="28"/>
-      <c r="G146" s="31"/>
-      <c r="H146" s="32"/>
-      <c r="I146" s="45"/>
+        <v>396</v>
+      </c>
+      <c r="F146" s="60"/>
+      <c r="G146" s="59"/>
+      <c r="H146" s="62"/>
+      <c r="I146" s="73"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="7">
@@ -7741,25 +8024,25 @@
         <f t="shared" si="6"/>
         <v>8091</v>
       </c>
-      <c r="C147" s="28" t="s">
+      <c r="C147" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="D147" s="28" t="s">
+      <c r="D147" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="E147" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="F147" s="28" t="s">
+      <c r="E147" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="F147" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="G147" s="30" t="s">
+      <c r="G147" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="H147" s="32" t="s">
+      <c r="H147" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="I147" s="45"/>
+      <c r="I147" s="73"/>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="7">
@@ -7769,15 +8052,15 @@
         <f t="shared" si="6"/>
         <v>8092</v>
       </c>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="F148" s="28"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="32"/>
-      <c r="I148" s="45"/>
+      <c r="C148" s="60"/>
+      <c r="D148" s="60"/>
+      <c r="E148" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F148" s="60"/>
+      <c r="G148" s="61"/>
+      <c r="H148" s="62"/>
+      <c r="I148" s="73"/>
     </row>
     <row r="149" spans="1:9" ht="16.8">
       <c r="A149" s="7">
@@ -7788,7 +8071,7 @@
         <v>8093</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>221</v>
@@ -7802,8 +8085,8 @@
       <c r="G149" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="H149" s="32"/>
-      <c r="I149" s="45"/>
+      <c r="H149" s="62"/>
+      <c r="I149" s="73"/>
     </row>
     <row r="150" spans="1:9" ht="14.4">
       <c r="A150" s="7">
@@ -7818,7 +8101,7 @@
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>268</v>
@@ -7826,8 +8109,8 @@
       <c r="G150" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="H150" s="32"/>
-      <c r="I150" s="45"/>
+      <c r="H150" s="62"/>
+      <c r="I150" s="73"/>
     </row>
     <row r="151" spans="1:9" ht="14.4">
       <c r="A151" s="7">
@@ -7842,7 +8125,7 @@
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>324</v>
@@ -7850,8 +8133,8 @@
       <c r="G151" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="H151" s="32"/>
-      <c r="I151" s="45"/>
+      <c r="H151" s="62"/>
+      <c r="I151" s="73"/>
     </row>
     <row r="152" spans="1:9" ht="14.4">
       <c r="A152" s="7">
@@ -7865,8 +8148,8 @@
         <v>251</v>
       </c>
       <c r="D152" s="7"/>
-      <c r="E152" s="26" t="s">
-        <v>407</v>
+      <c r="E152" s="25" t="s">
+        <v>404</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>325</v>
@@ -7874,8 +8157,8 @@
       <c r="G152" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="H152" s="32"/>
-      <c r="I152" s="45"/>
+      <c r="H152" s="62"/>
+      <c r="I152" s="73"/>
     </row>
     <row r="153" spans="1:9" ht="14.4">
       <c r="A153" s="7">
@@ -7889,8 +8172,8 @@
         <v>252</v>
       </c>
       <c r="D153" s="7"/>
-      <c r="E153" s="26" t="s">
-        <v>409</v>
+      <c r="E153" s="25" t="s">
+        <v>406</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>268</v>
@@ -7898,8 +8181,8 @@
       <c r="G153" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="H153" s="32"/>
-      <c r="I153" s="45"/>
+      <c r="H153" s="62"/>
+      <c r="I153" s="73"/>
     </row>
     <row r="154" spans="1:9" ht="14.4">
       <c r="A154" s="7">
@@ -7913,8 +8196,8 @@
         <v>253</v>
       </c>
       <c r="D154" s="7"/>
-      <c r="E154" s="26" t="s">
-        <v>411</v>
+      <c r="E154" s="25" t="s">
+        <v>408</v>
       </c>
       <c r="F154" s="16" t="s">
         <v>285</v>
@@ -7922,8 +8205,8 @@
       <c r="G154" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="H154" s="32"/>
-      <c r="I154" s="45"/>
+      <c r="H154" s="62"/>
+      <c r="I154" s="73"/>
     </row>
     <row r="155" spans="1:9" ht="14.4">
       <c r="A155" s="7">
@@ -7937,8 +8220,8 @@
         <v>254</v>
       </c>
       <c r="D155" s="7"/>
-      <c r="E155" s="26" t="s">
-        <v>413</v>
+      <c r="E155" s="25" t="s">
+        <v>410</v>
       </c>
       <c r="F155" s="7" t="s">
         <v>272</v>
@@ -7946,8 +8229,8 @@
       <c r="G155" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="H155" s="32"/>
-      <c r="I155" s="45"/>
+      <c r="H155" s="62"/>
+      <c r="I155" s="73"/>
     </row>
     <row r="156" spans="1:9" ht="14.4">
       <c r="A156" s="7">
@@ -7972,10 +8255,10 @@
       <c r="G156" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="H156" s="32" t="s">
+      <c r="H156" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="I156" s="45"/>
+      <c r="I156" s="73"/>
     </row>
     <row r="157" spans="1:9" ht="14.4">
       <c r="A157" s="7">
@@ -7990,7 +8273,7 @@
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>268</v>
@@ -7998,8 +8281,8 @@
       <c r="G157" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="H157" s="32"/>
-      <c r="I157" s="45"/>
+      <c r="H157" s="62"/>
+      <c r="I157" s="73"/>
     </row>
     <row r="158" spans="1:9" ht="14.4">
       <c r="A158" s="7">
@@ -8014,7 +8297,7 @@
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F158" s="7" t="s">
         <v>268</v>
@@ -8022,8 +8305,8 @@
       <c r="G158" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="H158" s="32"/>
-      <c r="I158" s="45"/>
+      <c r="H158" s="62"/>
+      <c r="I158" s="73"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="7">
@@ -8033,19 +8316,17 @@
         <f t="shared" si="6"/>
         <v>809D</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I159" s="45"/>
+      <c r="C159" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
+      <c r="F159" s="54"/>
+      <c r="G159" s="27"/>
+      <c r="H159" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="I159" s="74"/>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="7">
@@ -8055,15 +8336,13 @@
         <f t="shared" si="6"/>
         <v>809E</v>
       </c>
-      <c r="C160" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="D160" s="28"/>
-      <c r="E160" s="28"/>
-      <c r="F160" s="28"/>
-      <c r="G160" s="28"/>
-      <c r="H160" s="28"/>
-      <c r="I160" s="28"/>
+      <c r="C160" s="48"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="55"/>
+      <c r="G160" s="32"/>
+      <c r="H160" s="52"/>
+      <c r="I160" s="36"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="7">
@@ -8073,13 +8352,14 @@
         <f t="shared" si="6"/>
         <v>809F</v>
       </c>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="28"/>
-      <c r="G161" s="28"/>
-      <c r="H161" s="28"/>
-      <c r="I161" s="28"/>
+      <c r="C161" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="D161" s="32"/>
+      <c r="F161" s="55"/>
+      <c r="G161" s="32"/>
+      <c r="H161" s="52"/>
+      <c r="I161" s="36"/>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="7">
@@ -8089,15 +8369,15 @@
         <f t="shared" si="6"/>
         <v>80A0</v>
       </c>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
-      <c r="E162" s="28"/>
-      <c r="F162" s="28"/>
-      <c r="G162" s="28"/>
-      <c r="H162" s="28"/>
-      <c r="I162" s="28"/>
-    </row>
-    <row r="163" spans="1:9" ht="14.4" thickBot="1">
+      <c r="C162" s="50"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="55"/>
+      <c r="G162" s="32"/>
+      <c r="H162" s="52"/>
+      <c r="I162" s="36"/>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="7">
         <v>32929</v>
       </c>
@@ -8105,15 +8385,17 @@
         <f t="shared" si="6"/>
         <v>80A1</v>
       </c>
-      <c r="C163" s="28"/>
-      <c r="D163" s="28"/>
-      <c r="E163" s="28"/>
-      <c r="F163" s="28"/>
-      <c r="G163" s="28"/>
-      <c r="H163" s="28"/>
-      <c r="I163" s="28"/>
-    </row>
-    <row r="164" spans="1:9" ht="29.4" thickTop="1" thickBot="1">
+      <c r="C163" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="D163" s="32"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="55"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="52"/>
+      <c r="I163" s="36"/>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="7">
         <v>32930</v>
       </c>
@@ -8121,27 +8403,14 @@
         <f t="shared" si="6"/>
         <v>80A2</v>
       </c>
-      <c r="C164" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F164" s="7"/>
-      <c r="G164" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="H164" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="I164" s="30" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C164" s="50"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
+      <c r="F164" s="56"/>
+      <c r="G164" s="37"/>
+      <c r="H164" s="53"/>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="7">
         <v>32931</v>
       </c>
@@ -8149,25 +8418,18 @@
         <f t="shared" si="6"/>
         <v>80A3</v>
       </c>
-      <c r="C165" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F165" s="7"/>
-      <c r="G165" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="H165" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="I165" s="28"/>
-    </row>
-    <row r="166" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C165" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="37"/>
+      <c r="H165" s="38" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="7">
         <v>32932</v>
       </c>
@@ -8175,23 +8437,8 @@
         <f t="shared" si="6"/>
         <v>80A4</v>
       </c>
-      <c r="C166" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F166" s="7"/>
-      <c r="G166" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="H166" s="29"/>
-      <c r="I166" s="28"/>
-    </row>
-    <row r="167" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="7">
         <v>32933</v>
       </c>
@@ -8199,23 +8446,8 @@
         <f t="shared" ref="B167:B174" si="7">DEC2HEX(A167)</f>
         <v>80A5</v>
       </c>
-      <c r="C167" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E167" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F167" s="7"/>
-      <c r="G167" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="H167" s="29"/>
-      <c r="I167" s="28"/>
-    </row>
-    <row r="168" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="7">
         <v>32934</v>
       </c>
@@ -8223,23 +8455,8 @@
         <f t="shared" si="7"/>
         <v>80A6</v>
       </c>
-      <c r="C168" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F168" s="7"/>
-      <c r="G168" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="H168" s="29"/>
-      <c r="I168" s="28"/>
-    </row>
-    <row r="169" spans="1:9" ht="15" thickTop="1" thickBot="1">
+    </row>
+    <row r="169" spans="1:9" ht="15" customHeight="1">
       <c r="A169" s="7">
         <v>32935</v>
       </c>
@@ -8247,21 +8464,8 @@
         <f t="shared" si="7"/>
         <v>80A7</v>
       </c>
-      <c r="C169" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="H169" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="I169" s="28"/>
-    </row>
-    <row r="170" spans="1:9" ht="15" thickTop="1" thickBot="1">
+    </row>
+    <row r="170" spans="1:9" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="7">
         <v>32936</v>
       </c>
@@ -8269,15 +8473,8 @@
         <f t="shared" si="7"/>
         <v>80A8</v>
       </c>
-      <c r="C170" s="28"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="28"/>
-      <c r="H170" s="29"/>
-      <c r="I170" s="28"/>
-    </row>
-    <row r="171" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+    </row>
+    <row r="171" spans="1:9" ht="29.4" thickTop="1" thickBot="1">
       <c r="A171" s="7">
         <v>32937</v>
       </c>
@@ -8285,25 +8482,27 @@
         <f t="shared" si="7"/>
         <v>80A9</v>
       </c>
-      <c r="C171" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G171" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="H171" s="29"/>
-      <c r="I171" s="28"/>
-    </row>
-    <row r="172" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C171" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D171" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="E171" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="F171" s="27"/>
+      <c r="G171" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="H171" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="I171" s="33" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="15" thickTop="1">
       <c r="A172" s="7">
         <v>32938</v>
       </c>
@@ -8311,25 +8510,25 @@
         <f t="shared" si="7"/>
         <v>80AA</v>
       </c>
-      <c r="C172" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G172" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="H172" s="29"/>
-      <c r="I172" s="28"/>
-    </row>
-    <row r="173" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C172" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D172" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="E172" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="F172" s="27"/>
+      <c r="G172" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="H172" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="I172" s="34"/>
+    </row>
+    <row r="173" spans="1:9" ht="14.4" customHeight="1">
       <c r="A173" s="7">
         <v>32939</v>
       </c>
@@ -8337,25 +8536,23 @@
         <f t="shared" si="7"/>
         <v>80AB</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G173" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="H173" s="29"/>
-      <c r="I173" s="28"/>
-    </row>
-    <row r="174" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C173" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D173" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="E173" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="F173" s="27"/>
+      <c r="G173" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="H173" s="40"/>
+      <c r="I173" s="34"/>
+    </row>
+    <row r="174" spans="1:9" ht="14.4">
       <c r="A174" s="7">
         <v>32940</v>
       </c>
@@ -8363,51 +8560,47 @@
         <f t="shared" si="7"/>
         <v>80AC</v>
       </c>
-      <c r="C174" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G174" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="H174" s="29"/>
-      <c r="I174" s="28"/>
-    </row>
-    <row r="175" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C174" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D174" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E174" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F174" s="27"/>
+      <c r="G174" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H174" s="40"/>
+      <c r="I174" s="34"/>
+    </row>
+    <row r="175" spans="1:9" ht="15" thickBot="1">
       <c r="A175" s="7">
         <v>32941</v>
       </c>
       <c r="B175" s="7" t="str">
-        <f t="shared" ref="B175:B188" si="8">DEC2HEX(A175)</f>
+        <f t="shared" ref="B175:B200" si="8">DEC2HEX(A175)</f>
         <v>80AD</v>
       </c>
-      <c r="C175" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G175" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="H175" s="29"/>
-      <c r="I175" s="28"/>
-    </row>
-    <row r="176" spans="1:9" ht="18" thickTop="1" thickBot="1">
+      <c r="C175" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D175" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E175" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F175" s="27"/>
+      <c r="G175" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="H175" s="41"/>
+      <c r="I175" s="34"/>
+    </row>
+    <row r="176" spans="1:9" ht="15" thickTop="1">
       <c r="A176" s="7">
         <v>32942</v>
       </c>
@@ -8415,25 +8608,21 @@
         <f t="shared" si="8"/>
         <v>80AE</v>
       </c>
-      <c r="C176" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G176" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="H176" s="29"/>
-      <c r="I176" s="28"/>
-    </row>
-    <row r="177" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C176" s="57" t="s">
+        <v>333</v>
+      </c>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="H176" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="I176" s="34"/>
+    </row>
+    <row r="177" spans="1:9" ht="14.4">
       <c r="A177" s="7">
         <v>32943</v>
       </c>
@@ -8441,25 +8630,15 @@
         <f t="shared" si="8"/>
         <v>80AF</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E177" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G177" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="H177" s="29"/>
-      <c r="I177" s="28"/>
-    </row>
-    <row r="178" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C177" s="58"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="40"/>
+      <c r="I177" s="34"/>
+    </row>
+    <row r="178" spans="1:9" ht="14.4">
       <c r="A178" s="7">
         <v>32944</v>
       </c>
@@ -8467,25 +8646,25 @@
         <f t="shared" si="8"/>
         <v>80B0</v>
       </c>
-      <c r="C178" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G178" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="H178" s="29"/>
-      <c r="I178" s="28"/>
-    </row>
-    <row r="179" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C178" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="D178" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="E178" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F178" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G178" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="H178" s="40"/>
+      <c r="I178" s="34"/>
+    </row>
+    <row r="179" spans="1:9" ht="14.4">
       <c r="A179" s="7">
         <v>32945</v>
       </c>
@@ -8493,25 +8672,25 @@
         <f t="shared" si="8"/>
         <v>80B1</v>
       </c>
-      <c r="C179" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G179" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="H179" s="29"/>
-      <c r="I179" s="28"/>
-    </row>
-    <row r="180" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C179" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="D179" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="E179" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="F179" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="G179" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="H179" s="40"/>
+      <c r="I179" s="34"/>
+    </row>
+    <row r="180" spans="1:9" ht="14.4">
       <c r="A180" s="7">
         <v>32946</v>
       </c>
@@ -8519,25 +8698,25 @@
         <f t="shared" si="8"/>
         <v>80B2</v>
       </c>
-      <c r="C180" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E180" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G180" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="H180" s="29"/>
-      <c r="I180" s="28"/>
-    </row>
-    <row r="181" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C180" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="D180" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="E180" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="F180" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="G180" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="H180" s="40"/>
+      <c r="I180" s="34"/>
+    </row>
+    <row r="181" spans="1:9" ht="14.4">
       <c r="A181" s="7">
         <v>32947</v>
       </c>
@@ -8545,25 +8724,25 @@
         <f t="shared" si="8"/>
         <v>80B3</v>
       </c>
-      <c r="C181" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G181" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="H181" s="29"/>
-      <c r="I181" s="28"/>
-    </row>
-    <row r="182" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C181" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="D181" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="E181" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="F181" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="G181" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="H181" s="40"/>
+      <c r="I181" s="34"/>
+    </row>
+    <row r="182" spans="1:9" ht="14.4">
       <c r="A182" s="7">
         <v>32948</v>
       </c>
@@ -8571,25 +8750,25 @@
         <f t="shared" si="8"/>
         <v>80B4</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G182" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="H182" s="29"/>
-      <c r="I182" s="28"/>
-    </row>
-    <row r="183" spans="1:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C182" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D182" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="E182" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F182" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G182" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="H182" s="40"/>
+      <c r="I182" s="34"/>
+    </row>
+    <row r="183" spans="1:9" ht="16.8">
       <c r="A183" s="7">
         <v>32949</v>
       </c>
@@ -8597,25 +8776,25 @@
         <f t="shared" si="8"/>
         <v>80B5</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G183" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="H183" s="29"/>
-      <c r="I183" s="28"/>
-    </row>
-    <row r="184" spans="1:9" ht="15" thickTop="1" thickBot="1">
+      <c r="C183" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="D183" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="E183" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="F183" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G183" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="H183" s="40"/>
+      <c r="I183" s="34"/>
+    </row>
+    <row r="184" spans="1:9" ht="15" customHeight="1">
       <c r="A184" s="7">
         <v>32950</v>
       </c>
@@ -8623,170 +8802,295 @@
         <f t="shared" si="8"/>
         <v>80B6</v>
       </c>
-      <c r="C184" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I184" s="28"/>
-    </row>
-    <row r="185" spans="1:9" ht="14.4" thickTop="1">
-      <c r="A185" s="21">
+      <c r="C184" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="D184" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="E184" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="F184" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="G184" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="H184" s="40"/>
+      <c r="I184" s="34"/>
+    </row>
+    <row r="185" spans="1:9" ht="14.4">
+      <c r="A185" s="20">
         <v>32951</v>
       </c>
-      <c r="B185" s="21" t="str">
+      <c r="B185" s="20" t="str">
         <f t="shared" si="8"/>
         <v>80B7</v>
       </c>
-      <c r="C185" s="15"/>
-      <c r="D185" s="15"/>
-      <c r="E185" s="15"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
-      <c r="I185" s="15"/>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="21">
+      <c r="C185" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="D185" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="E185" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="F185" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="G185" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="H185" s="40"/>
+      <c r="I185" s="34"/>
+    </row>
+    <row r="186" spans="1:9" ht="14.4">
+      <c r="A186" s="20">
         <v>32952</v>
       </c>
-      <c r="B186" s="21" t="str">
+      <c r="B186" s="20" t="str">
         <f t="shared" si="8"/>
         <v>80B8</v>
       </c>
-      <c r="C186" s="15"/>
-      <c r="D186" s="15"/>
-      <c r="E186" s="15"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="15"/>
-      <c r="H186" s="15"/>
-      <c r="I186" s="15"/>
+      <c r="C186" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="D186" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="E186" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="F186" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G186" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="H186" s="40"/>
+      <c r="I186" s="34"/>
     </row>
     <row r="187" spans="1:9" ht="26.4" customHeight="1">
-      <c r="A187" s="23">
+      <c r="A187" s="22">
         <v>32953</v>
       </c>
-      <c r="B187" s="23" t="str">
+      <c r="B187" s="22" t="str">
         <f t="shared" si="8"/>
         <v>80B9</v>
       </c>
-      <c r="C187" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="D187" s="24"/>
-      <c r="E187" s="24"/>
-      <c r="F187" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="G187" s="25" t="s">
-        <v>395</v>
-      </c>
-      <c r="H187" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="I187" s="44"/>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="21">
+      <c r="C187" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D187" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="E187" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="F187" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G187" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="H187" s="40"/>
+      <c r="I187" s="34"/>
+    </row>
+    <row r="188" spans="1:9" ht="14.4">
+      <c r="A188" s="20">
         <v>32954</v>
       </c>
-      <c r="B188" s="21" t="str">
+      <c r="B188" s="20" t="str">
         <f t="shared" si="8"/>
         <v>80BA</v>
       </c>
-      <c r="C188" s="15"/>
-      <c r="D188" s="15"/>
-      <c r="E188" s="15"/>
-      <c r="F188" s="15"/>
-      <c r="G188" s="15"/>
-      <c r="H188" s="15"/>
-      <c r="I188" s="15"/>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="14"/>
-      <c r="B189" s="14"/>
-      <c r="C189" s="15"/>
-      <c r="D189" s="15"/>
-      <c r="E189" s="15"/>
-      <c r="F189" s="15"/>
-      <c r="G189" s="15"/>
-      <c r="H189" s="15"/>
-      <c r="I189" s="15"/>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="14"/>
-      <c r="B190" s="14"/>
-      <c r="C190" s="15"/>
-      <c r="D190" s="15"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="15"/>
-      <c r="G190" s="15"/>
-      <c r="H190" s="15"/>
-      <c r="I190" s="15"/>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="A191" s="14"/>
-      <c r="B191" s="14"/>
-      <c r="C191" s="15"/>
-      <c r="D191" s="15"/>
-      <c r="E191" s="15"/>
-      <c r="F191" s="15"/>
-      <c r="G191" s="15"/>
-      <c r="H191" s="15"/>
-      <c r="I191" s="15"/>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="14"/>
-      <c r="B192" s="14"/>
-      <c r="C192" s="15"/>
-      <c r="D192" s="15"/>
-      <c r="E192" s="15"/>
-      <c r="F192" s="15"/>
-      <c r="G192" s="15"/>
-      <c r="H192" s="15"/>
+      <c r="C188" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="D188" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="E188" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="F188" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G188" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="H188" s="40"/>
+      <c r="I188" s="34"/>
+    </row>
+    <row r="189" spans="1:9" ht="14.4">
+      <c r="A189" s="27">
+        <v>32955</v>
+      </c>
+      <c r="B189" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>80BB</v>
+      </c>
+      <c r="C189" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="D189" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="E189" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="F189" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="G189" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="H189" s="40"/>
+      <c r="I189" s="34"/>
+    </row>
+    <row r="190" spans="1:9" ht="14.4">
+      <c r="A190" s="22">
+        <v>32956</v>
+      </c>
+      <c r="B190" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>80BC</v>
+      </c>
+      <c r="C190" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="D190" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="E190" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="F190" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="G190" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="H190" s="40"/>
+      <c r="I190" s="34"/>
+    </row>
+    <row r="191" spans="1:9" ht="14.4">
+      <c r="A191" s="27">
+        <v>32957</v>
+      </c>
+      <c r="B191" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>80BD</v>
+      </c>
+      <c r="C191" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="D191" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="E191" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="F191" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G191" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="H191" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="I191" s="42"/>
+    </row>
+    <row r="192" spans="1:9" ht="14.4">
+      <c r="A192" s="27">
+        <v>32958</v>
+      </c>
+      <c r="B192" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>80BE</v>
+      </c>
+      <c r="C192" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="D192" s="27"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="27"/>
+      <c r="G192" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="H192" s="46"/>
       <c r="I192" s="15"/>
     </row>
-    <row r="193" spans="1:9">
-      <c r="A193" s="14"/>
-      <c r="B193" s="14"/>
-      <c r="C193" s="15"/>
-      <c r="D193" s="15"/>
-      <c r="E193" s="15"/>
-      <c r="F193" s="15"/>
-      <c r="G193" s="15"/>
-      <c r="H193" s="15"/>
+    <row r="193" spans="1:9" ht="14.4">
+      <c r="A193" s="22">
+        <v>32959</v>
+      </c>
+      <c r="B193" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>80BF</v>
+      </c>
+      <c r="C193" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="D193" s="27"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="27"/>
+      <c r="G193" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="H193" s="46"/>
       <c r="I193" s="15"/>
     </row>
-    <row r="194" spans="1:9">
-      <c r="A194" s="14"/>
-      <c r="B194" s="14"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="15"/>
-      <c r="E194" s="15"/>
-      <c r="F194" s="15"/>
-      <c r="G194" s="15"/>
-      <c r="H194" s="15"/>
-      <c r="I194" s="15"/>
+    <row r="194" spans="1:9" ht="14.4">
+      <c r="A194" s="27">
+        <v>32960</v>
+      </c>
+      <c r="B194" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>80C0</v>
+      </c>
+      <c r="C194" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="D194" s="37"/>
+      <c r="E194" s="37"/>
+      <c r="F194" s="37"/>
+      <c r="G194" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="H194" s="38"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="14"/>
-      <c r="B195" s="14"/>
-      <c r="C195" s="15"/>
-      <c r="D195" s="15"/>
-      <c r="E195" s="15"/>
-      <c r="F195" s="15"/>
-      <c r="G195" s="15"/>
-      <c r="H195" s="15"/>
+      <c r="A195" s="27">
+        <v>32961</v>
+      </c>
+      <c r="B195" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>80C1</v>
+      </c>
+      <c r="C195" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="27" t="s">
+        <v>434</v>
+      </c>
       <c r="I195" s="15"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="14"/>
-      <c r="B196" s="14"/>
+      <c r="A196" s="22">
+        <v>32962</v>
+      </c>
+      <c r="B196" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>80C2</v>
+      </c>
       <c r="C196" s="15"/>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
@@ -8796,8 +9100,13 @@
       <c r="I196" s="15"/>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="14"/>
-      <c r="B197" s="14"/>
+      <c r="A197" s="27">
+        <v>32963</v>
+      </c>
+      <c r="B197" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>80C3</v>
+      </c>
       <c r="C197" s="15"/>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
@@ -8807,8 +9116,13 @@
       <c r="I197" s="15"/>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="14"/>
-      <c r="B198" s="14"/>
+      <c r="A198" s="27">
+        <v>32964</v>
+      </c>
+      <c r="B198" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>80C4</v>
+      </c>
       <c r="C198" s="15"/>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -8818,8 +9132,13 @@
       <c r="I198" s="15"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="14"/>
-      <c r="B199" s="14"/>
+      <c r="A199" s="22">
+        <v>32965</v>
+      </c>
+      <c r="B199" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v>80C5</v>
+      </c>
       <c r="C199" s="15"/>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -8829,15 +9148,28 @@
       <c r="I199" s="15"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="14"/>
-      <c r="B200" s="14"/>
-      <c r="C200" s="15"/>
-      <c r="D200" s="15"/>
-      <c r="E200" s="15"/>
-      <c r="F200" s="15"/>
-      <c r="G200" s="15"/>
-      <c r="H200" s="15"/>
-      <c r="I200" s="15"/>
+      <c r="A200" s="27">
+        <v>32966</v>
+      </c>
+      <c r="B200" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>80C6</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="G200" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="H200" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="I200" s="72"/>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="14"/>
@@ -10160,23 +10492,21 @@
       <c r="I320" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="H67:H76"/>
-    <mergeCell ref="H77:H83"/>
-    <mergeCell ref="H94:H98"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="H156:H158"/>
-    <mergeCell ref="H147:H155"/>
-    <mergeCell ref="I89:I159"/>
-    <mergeCell ref="C160:I163"/>
+  <mergeCells count="73">
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="F94:F98"/>
     <mergeCell ref="D143:D144"/>
     <mergeCell ref="D145:D146"/>
     <mergeCell ref="H131:H146"/>
     <mergeCell ref="D147:D148"/>
     <mergeCell ref="F147:F148"/>
     <mergeCell ref="G147:G148"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="H94:H98"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="H147:H155"/>
+    <mergeCell ref="I89:I159"/>
     <mergeCell ref="G94:G98"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="I4:I25"/>
@@ -10192,6 +10522,7 @@
     <mergeCell ref="H43:H49"/>
     <mergeCell ref="H50:H57"/>
     <mergeCell ref="H58:H66"/>
+    <mergeCell ref="H67:H76"/>
     <mergeCell ref="C99:C100"/>
     <mergeCell ref="D99:D100"/>
     <mergeCell ref="F99:F100"/>
@@ -10228,11 +10559,13 @@
     <mergeCell ref="F141:F142"/>
     <mergeCell ref="F143:F144"/>
     <mergeCell ref="F145:F146"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="H165:H168"/>
-    <mergeCell ref="H169:H183"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="I164:I184"/>
+    <mergeCell ref="H191:H193"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="H159:H164"/>
+    <mergeCell ref="F159:F164"/>
+    <mergeCell ref="C176:C177"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LWD_NMR_DSP/新版数据空间分配.xlsx
+++ b/LWD_NMR_DSP/新版数据空间分配.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEA66D2-0770-4656-A6DF-196A36448F52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F05F2A-B1FA-4C82-90FA-8CE87938CEA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="439">
   <si>
     <t>TableID</t>
   </si>
@@ -3428,6 +3428,14 @@
   </si>
   <si>
     <t>22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8100-8590</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时存储扫频数据</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3834,7 +3842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3969,6 +3977,60 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4002,58 +4064,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4435,8 +4449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H200" sqref="H200:I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4500,8 +4514,8 @@
       <c r="G2" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="54" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4526,8 +4540,8 @@
       <c r="G3" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="10">
@@ -4553,7 +4567,7 @@
       <c r="H4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="55" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4578,10 +4592,10 @@
       <c r="G5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="65"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="10">
@@ -4604,8 +4618,8 @@
       <c r="G6" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="65"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="10">
@@ -4628,8 +4642,8 @@
       <c r="G7" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="65"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="10">
@@ -4652,8 +4666,8 @@
       <c r="G8" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="70"/>
-      <c r="I8" s="65"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="56"/>
     </row>
     <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="10">
@@ -4676,10 +4690,10 @@
       <c r="G9" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="I9" s="65"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="10">
@@ -4702,8 +4716,8 @@
       <c r="G10" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="65"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="56"/>
     </row>
     <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="10">
@@ -4728,8 +4742,8 @@
       <c r="G11" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="65"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="10">
@@ -4754,8 +4768,8 @@
       <c r="G12" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="65"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="56"/>
     </row>
     <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="10">
@@ -4780,8 +4794,8 @@
       <c r="G13" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="65"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="56"/>
     </row>
     <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="10">
@@ -4806,8 +4820,8 @@
       <c r="G14" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="65"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="56"/>
     </row>
     <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="10">
@@ -4832,8 +4846,8 @@
       <c r="G15" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="65"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="56"/>
     </row>
     <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="10">
@@ -4858,8 +4872,8 @@
       <c r="G16" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="65"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="56"/>
     </row>
     <row r="17" spans="1:9" ht="14.4">
       <c r="A17" s="10">
@@ -4884,8 +4898,8 @@
       <c r="G17" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="65"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" ht="14.4">
       <c r="A18" s="10">
@@ -4910,8 +4924,8 @@
       <c r="G18" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="70"/>
-      <c r="I18" s="65"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="56"/>
     </row>
     <row r="19" spans="1:9" ht="14.4">
       <c r="A19" s="10">
@@ -4936,8 +4950,8 @@
       <c r="G19" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="65"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="56"/>
     </row>
     <row r="20" spans="1:9" ht="14.4">
       <c r="A20" s="10">
@@ -4962,8 +4976,8 @@
       <c r="G20" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="70"/>
-      <c r="I20" s="65"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="56"/>
     </row>
     <row r="21" spans="1:9" ht="14.4">
       <c r="A21" s="10">
@@ -4988,8 +5002,8 @@
       <c r="G21" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H21" s="70"/>
-      <c r="I21" s="65"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="56"/>
     </row>
     <row r="22" spans="1:9" ht="14.4">
       <c r="A22" s="10">
@@ -5014,8 +5028,8 @@
       <c r="G22" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="65"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" spans="1:9" ht="14.4">
       <c r="A23" s="10">
@@ -5040,8 +5054,8 @@
       <c r="G23" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="65"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:9" ht="14.4">
       <c r="A24" s="10">
@@ -5066,8 +5080,8 @@
       <c r="G24" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H24" s="70"/>
-      <c r="I24" s="65"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10">
@@ -5087,7 +5101,7 @@
       <c r="H25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="58"/>
+      <c r="I25" s="57"/>
     </row>
     <row r="26" spans="1:9" ht="14.4">
       <c r="A26" s="10">
@@ -5113,7 +5127,7 @@
       <c r="H26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="66" t="s">
+      <c r="I26" s="58" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5138,10 +5152,10 @@
       <c r="G27" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="69" t="s">
+      <c r="H27" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="67"/>
+      <c r="I27" s="59"/>
     </row>
     <row r="28" spans="1:9" ht="14.4">
       <c r="A28" s="10">
@@ -5164,8 +5178,8 @@
       <c r="G28" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="67"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="59"/>
     </row>
     <row r="29" spans="1:9" ht="14.4">
       <c r="A29" s="10">
@@ -5188,8 +5202,8 @@
       <c r="G29" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="69"/>
-      <c r="I29" s="67"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="59"/>
     </row>
     <row r="30" spans="1:9" ht="14.4">
       <c r="A30" s="10">
@@ -5212,8 +5226,8 @@
       <c r="G30" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H30" s="69"/>
-      <c r="I30" s="67"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:9" ht="14.4">
       <c r="A31" s="10">
@@ -5236,10 +5250,10 @@
       <c r="G31" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="67"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:9" ht="14.4">
       <c r="A32" s="10">
@@ -5264,8 +5278,8 @@
       <c r="G32" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H32" s="69"/>
-      <c r="I32" s="67"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="59"/>
     </row>
     <row r="33" spans="1:9" ht="14.4">
       <c r="A33" s="10">
@@ -5290,8 +5304,8 @@
       <c r="G33" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H33" s="69"/>
-      <c r="I33" s="67"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:9" ht="14.4">
       <c r="A34" s="10">
@@ -5316,8 +5330,8 @@
       <c r="G34" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="H34" s="69"/>
-      <c r="I34" s="67"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:9" ht="14.4">
       <c r="A35" s="10">
@@ -5342,8 +5356,8 @@
       <c r="G35" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="H35" s="69"/>
-      <c r="I35" s="67"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="59"/>
     </row>
     <row r="36" spans="1:9" ht="14.4">
       <c r="A36" s="10">
@@ -5368,8 +5382,8 @@
       <c r="G36" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H36" s="69"/>
-      <c r="I36" s="67"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="59"/>
     </row>
     <row r="37" spans="1:9" ht="14.4">
       <c r="A37" s="10">
@@ -5394,8 +5408,8 @@
       <c r="G37" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="H37" s="69"/>
-      <c r="I37" s="67"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="59"/>
     </row>
     <row r="38" spans="1:9" ht="14.4">
       <c r="A38" s="10">
@@ -5418,8 +5432,8 @@
       <c r="G38" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H38" s="69"/>
-      <c r="I38" s="67"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="59"/>
     </row>
     <row r="39" spans="1:9" ht="14.4">
       <c r="A39" s="10">
@@ -5444,8 +5458,8 @@
       <c r="G39" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H39" s="69"/>
-      <c r="I39" s="67"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="59"/>
     </row>
     <row r="40" spans="1:9" ht="14.4">
       <c r="A40" s="10">
@@ -5470,10 +5484,10 @@
       <c r="G40" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H40" s="69" t="s">
+      <c r="H40" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="67"/>
+      <c r="I40" s="59"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="10">
@@ -5496,8 +5510,8 @@
         <v>34</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="67"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="59"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="10">
@@ -5520,8 +5534,8 @@
         <v>22</v>
       </c>
       <c r="G42" s="10"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="67"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="59"/>
     </row>
     <row r="43" spans="1:9" ht="14.4">
       <c r="A43" s="10">
@@ -5546,10 +5560,10 @@
       <c r="G43" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H43" s="69" t="s">
+      <c r="H43" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="67"/>
+      <c r="I43" s="59"/>
     </row>
     <row r="44" spans="1:9" ht="14.4">
       <c r="A44" s="10">
@@ -5574,8 +5588,8 @@
       <c r="G44" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="69"/>
-      <c r="I44" s="67"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="59"/>
     </row>
     <row r="45" spans="1:9" ht="14.4">
       <c r="A45" s="10">
@@ -5600,8 +5614,8 @@
       <c r="G45" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H45" s="69"/>
-      <c r="I45" s="67"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="59"/>
     </row>
     <row r="46" spans="1:9" ht="14.4">
       <c r="A46" s="10">
@@ -5626,8 +5640,8 @@
       <c r="G46" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H46" s="69"/>
-      <c r="I46" s="67"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="59"/>
     </row>
     <row r="47" spans="1:9" ht="14.4">
       <c r="A47" s="10">
@@ -5652,8 +5666,8 @@
       <c r="G47" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H47" s="69"/>
-      <c r="I47" s="67"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="59"/>
     </row>
     <row r="48" spans="1:9" ht="14.4">
       <c r="A48" s="10">
@@ -5678,8 +5692,8 @@
       <c r="G48" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H48" s="69"/>
-      <c r="I48" s="67"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="59"/>
     </row>
     <row r="49" spans="1:9" ht="14.4">
       <c r="A49" s="10">
@@ -5704,8 +5718,8 @@
       <c r="G49" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H49" s="69"/>
-      <c r="I49" s="67"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="59"/>
     </row>
     <row r="50" spans="1:9" ht="14.4">
       <c r="A50" s="10">
@@ -5730,10 +5744,10 @@
       <c r="G50" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H50" s="69" t="s">
+      <c r="H50" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I50" s="67"/>
+      <c r="I50" s="59"/>
     </row>
     <row r="51" spans="1:9" ht="14.4">
       <c r="A51" s="10">
@@ -5758,8 +5772,8 @@
       <c r="G51" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H51" s="69"/>
-      <c r="I51" s="67"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="59"/>
     </row>
     <row r="52" spans="1:9" ht="14.4">
       <c r="A52" s="10">
@@ -5784,8 +5798,8 @@
       <c r="G52" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H52" s="69"/>
-      <c r="I52" s="67"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="59"/>
     </row>
     <row r="53" spans="1:9" ht="14.4">
       <c r="A53" s="10">
@@ -5810,8 +5824,8 @@
       <c r="G53" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H53" s="69"/>
-      <c r="I53" s="67"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="59"/>
     </row>
     <row r="54" spans="1:9" ht="14.4">
       <c r="A54" s="10">
@@ -5836,8 +5850,8 @@
       <c r="G54" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H54" s="69"/>
-      <c r="I54" s="67"/>
+      <c r="H54" s="49"/>
+      <c r="I54" s="59"/>
     </row>
     <row r="55" spans="1:9" ht="14.4">
       <c r="A55" s="10">
@@ -5862,8 +5876,8 @@
       <c r="G55" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H55" s="69"/>
-      <c r="I55" s="67"/>
+      <c r="H55" s="49"/>
+      <c r="I55" s="59"/>
     </row>
     <row r="56" spans="1:9" ht="14.4">
       <c r="A56" s="10">
@@ -5888,8 +5902,8 @@
       <c r="G56" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H56" s="69"/>
-      <c r="I56" s="67"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="59"/>
     </row>
     <row r="57" spans="1:9" ht="14.4">
       <c r="A57" s="10">
@@ -5914,8 +5928,8 @@
       <c r="G57" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H57" s="69"/>
-      <c r="I57" s="67"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="59"/>
     </row>
     <row r="58" spans="1:9" ht="14.4">
       <c r="A58" s="10">
@@ -5940,10 +5954,10 @@
       <c r="G58" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H58" s="69" t="s">
+      <c r="H58" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="I58" s="67"/>
+      <c r="I58" s="59"/>
     </row>
     <row r="59" spans="1:9" ht="14.4">
       <c r="A59" s="10">
@@ -5968,8 +5982,8 @@
       <c r="G59" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H59" s="69"/>
-      <c r="I59" s="67"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="59"/>
     </row>
     <row r="60" spans="1:9" ht="28.8">
       <c r="A60" s="10">
@@ -5994,8 +6008,8 @@
       <c r="G60" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H60" s="69"/>
-      <c r="I60" s="67"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="59"/>
     </row>
     <row r="61" spans="1:9" ht="14.4">
       <c r="A61" s="10">
@@ -6020,8 +6034,8 @@
       <c r="G61" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H61" s="69"/>
-      <c r="I61" s="67"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="59"/>
     </row>
     <row r="62" spans="1:9" ht="14.4">
       <c r="A62" s="10">
@@ -6046,8 +6060,8 @@
       <c r="G62" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H62" s="69"/>
-      <c r="I62" s="67"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="59"/>
     </row>
     <row r="63" spans="1:9" ht="14.4">
       <c r="A63" s="10">
@@ -6072,8 +6086,8 @@
       <c r="G63" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H63" s="69"/>
-      <c r="I63" s="67"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="59"/>
     </row>
     <row r="64" spans="1:9" ht="14.4">
       <c r="A64" s="10">
@@ -6098,8 +6112,8 @@
       <c r="G64" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H64" s="69"/>
-      <c r="I64" s="67"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="59"/>
     </row>
     <row r="65" spans="1:9" ht="14.4">
       <c r="A65" s="10">
@@ -6124,8 +6138,8 @@
       <c r="G65" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H65" s="69"/>
-      <c r="I65" s="67"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="59"/>
     </row>
     <row r="66" spans="1:9" ht="14.4">
       <c r="A66" s="10">
@@ -6150,8 +6164,8 @@
       <c r="G66" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H66" s="69"/>
-      <c r="I66" s="67"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="59"/>
     </row>
     <row r="67" spans="1:9" ht="14.4">
       <c r="A67" s="10">
@@ -6176,10 +6190,10 @@
       <c r="G67" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H67" s="69" t="s">
+      <c r="H67" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="I67" s="67"/>
+      <c r="I67" s="59"/>
     </row>
     <row r="68" spans="1:9" ht="14.4">
       <c r="A68" s="10">
@@ -6204,8 +6218,8 @@
       <c r="G68" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H68" s="69"/>
-      <c r="I68" s="67"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="59"/>
     </row>
     <row r="69" spans="1:9" ht="14.4">
       <c r="A69" s="10">
@@ -6230,8 +6244,8 @@
       <c r="G69" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H69" s="69"/>
-      <c r="I69" s="67"/>
+      <c r="H69" s="49"/>
+      <c r="I69" s="59"/>
     </row>
     <row r="70" spans="1:9" ht="14.4">
       <c r="A70" s="10">
@@ -6256,8 +6270,8 @@
       <c r="G70" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H70" s="69"/>
-      <c r="I70" s="67"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="59"/>
     </row>
     <row r="71" spans="1:9" ht="14.4">
       <c r="A71" s="10">
@@ -6282,8 +6296,8 @@
       <c r="G71" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H71" s="69"/>
-      <c r="I71" s="67"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="59"/>
     </row>
     <row r="72" spans="1:9" ht="14.4">
       <c r="A72" s="10">
@@ -6308,8 +6322,8 @@
       <c r="G72" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H72" s="69"/>
-      <c r="I72" s="67"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="59"/>
     </row>
     <row r="73" spans="1:9" ht="14.4">
       <c r="A73" s="10">
@@ -6334,8 +6348,8 @@
       <c r="G73" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H73" s="69"/>
-      <c r="I73" s="67"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="59"/>
     </row>
     <row r="74" spans="1:9" ht="14.4">
       <c r="A74" s="10">
@@ -6360,8 +6374,8 @@
       <c r="G74" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H74" s="69"/>
-      <c r="I74" s="67"/>
+      <c r="H74" s="49"/>
+      <c r="I74" s="59"/>
     </row>
     <row r="75" spans="1:9" ht="14.4">
       <c r="A75" s="10">
@@ -6386,8 +6400,8 @@
       <c r="G75" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H75" s="69"/>
-      <c r="I75" s="67"/>
+      <c r="H75" s="49"/>
+      <c r="I75" s="59"/>
     </row>
     <row r="76" spans="1:9" ht="14.4">
       <c r="A76" s="10">
@@ -6412,8 +6426,8 @@
       <c r="G76" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H76" s="69"/>
-      <c r="I76" s="67"/>
+      <c r="H76" s="49"/>
+      <c r="I76" s="59"/>
     </row>
     <row r="77" spans="1:9" ht="14.4">
       <c r="A77" s="10">
@@ -6438,10 +6452,10 @@
       <c r="G77" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="H77" s="69" t="s">
+      <c r="H77" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I77" s="67"/>
+      <c r="I77" s="59"/>
     </row>
     <row r="78" spans="1:9" ht="14.4">
       <c r="A78" s="10">
@@ -6466,8 +6480,8 @@
       <c r="G78" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H78" s="69"/>
-      <c r="I78" s="67"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="59"/>
     </row>
     <row r="79" spans="1:9" ht="14.4">
       <c r="A79" s="10">
@@ -6492,8 +6506,8 @@
       <c r="G79" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H79" s="69"/>
-      <c r="I79" s="67"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="59"/>
     </row>
     <row r="80" spans="1:9" ht="14.4">
       <c r="A80" s="10">
@@ -6518,8 +6532,8 @@
       <c r="G80" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H80" s="69"/>
-      <c r="I80" s="67"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="59"/>
     </row>
     <row r="81" spans="1:16" ht="14.4">
       <c r="A81" s="10">
@@ -6544,8 +6558,8 @@
       <c r="G81" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H81" s="69"/>
-      <c r="I81" s="67"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="59"/>
       <c r="P81" t="s">
         <v>61</v>
       </c>
@@ -6573,8 +6587,8 @@
       <c r="G82" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H82" s="69"/>
-      <c r="I82" s="67"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="59"/>
     </row>
     <row r="83" spans="1:16" ht="14.4">
       <c r="A83" s="10">
@@ -6599,8 +6613,8 @@
       <c r="G83" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H83" s="69"/>
-      <c r="I83" s="67"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="59"/>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="10">
@@ -6620,7 +6634,7 @@
       <c r="H84" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I84" s="68"/>
+      <c r="I84" s="60"/>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="10">
@@ -6630,15 +6644,15 @@
         <f t="shared" si="4"/>
         <v>8053</v>
       </c>
-      <c r="C85" s="63" t="s">
+      <c r="C85" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="D85" s="63"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="63"/>
-      <c r="G85" s="63"/>
-      <c r="H85" s="63"/>
-      <c r="I85" s="63"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="10">
@@ -6648,13 +6662,13 @@
         <f t="shared" si="4"/>
         <v>8054</v>
       </c>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="10">
@@ -6664,13 +6678,13 @@
         <f t="shared" si="4"/>
         <v>8055</v>
       </c>
-      <c r="C87" s="63"/>
-      <c r="D87" s="63"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="63"/>
-      <c r="H87" s="63"/>
-      <c r="I87" s="63"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="10">
@@ -6680,13 +6694,13 @@
         <f t="shared" si="4"/>
         <v>8056</v>
       </c>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="63"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="61"/>
     </row>
     <row r="89" spans="1:16" ht="28.2">
       <c r="A89" s="7">
@@ -6712,7 +6726,7 @@
       <c r="H89" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="I89" s="73" t="s">
+      <c r="I89" s="52" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6737,10 +6751,10 @@
       <c r="G90" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="H90" s="62" t="s">
+      <c r="H90" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="I90" s="73"/>
+      <c r="I90" s="52"/>
     </row>
     <row r="91" spans="1:16" ht="14.4">
       <c r="A91" s="7">
@@ -6763,8 +6777,8 @@
       <c r="G91" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="H91" s="62"/>
-      <c r="I91" s="73"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="52"/>
     </row>
     <row r="92" spans="1:16" ht="14.4">
       <c r="A92" s="7">
@@ -6787,8 +6801,8 @@
       <c r="G92" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="H92" s="62"/>
-      <c r="I92" s="73"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="52"/>
     </row>
     <row r="93" spans="1:16" ht="14.4">
       <c r="A93" s="7">
@@ -6811,8 +6825,8 @@
       <c r="G93" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="H93" s="62"/>
-      <c r="I93" s="73"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="52"/>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="7">
@@ -6822,7 +6836,7 @@
         <f t="shared" si="5"/>
         <v>805C</v>
       </c>
-      <c r="C94" s="60" t="s">
+      <c r="C94" s="46" t="s">
         <v>205</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -6831,16 +6845,16 @@
       <c r="E94" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F94" s="60" t="s">
+      <c r="F94" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="G94" s="61" t="s">
+      <c r="G94" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="H94" s="62" t="s">
+      <c r="H94" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="I94" s="73"/>
+      <c r="I94" s="52"/>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="7">
@@ -6850,17 +6864,17 @@
         <f t="shared" si="5"/>
         <v>805D</v>
       </c>
-      <c r="C95" s="60"/>
+      <c r="C95" s="46"/>
       <c r="D95" s="7" t="s">
         <v>207</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F95" s="60"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="62"/>
-      <c r="I95" s="73"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="52"/>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="7">
@@ -6870,17 +6884,17 @@
         <f t="shared" si="5"/>
         <v>805E</v>
       </c>
-      <c r="C96" s="60"/>
+      <c r="C96" s="46"/>
       <c r="D96" s="7" t="s">
         <v>208</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="F96" s="60"/>
-      <c r="G96" s="60"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="73"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="52"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="7">
@@ -6890,17 +6904,17 @@
         <f t="shared" si="5"/>
         <v>805F</v>
       </c>
-      <c r="C97" s="60"/>
+      <c r="C97" s="46"/>
       <c r="D97" s="7" t="s">
         <v>209</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F97" s="60"/>
-      <c r="G97" s="60"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="73"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="52"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="7">
@@ -6910,17 +6924,17 @@
         <f t="shared" si="5"/>
         <v>8060</v>
       </c>
-      <c r="C98" s="60"/>
+      <c r="C98" s="46"/>
       <c r="D98" s="7" t="s">
         <v>210</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F98" s="60"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="62"/>
-      <c r="I98" s="73"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="52"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="7">
@@ -6930,25 +6944,25 @@
         <f t="shared" si="5"/>
         <v>8061</v>
       </c>
-      <c r="C99" s="60" t="s">
+      <c r="C99" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="D99" s="60" t="s">
+      <c r="D99" s="46" t="s">
         <v>216</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F99" s="60" t="s">
+      <c r="F99" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="G99" s="61" t="s">
+      <c r="G99" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="H99" s="62" t="s">
+      <c r="H99" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="I99" s="73"/>
+      <c r="I99" s="52"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="7">
@@ -6958,15 +6972,15 @@
         <f t="shared" si="5"/>
         <v>8062</v>
       </c>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="46"/>
       <c r="E100" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F100" s="60"/>
-      <c r="G100" s="60"/>
-      <c r="H100" s="62"/>
-      <c r="I100" s="73"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="52"/>
     </row>
     <row r="101" spans="1:9" ht="16.8">
       <c r="A101" s="7">
@@ -6991,8 +7005,8 @@
       <c r="G101" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="H101" s="62"/>
-      <c r="I101" s="73"/>
+      <c r="H101" s="47"/>
+      <c r="I101" s="52"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="7">
@@ -7002,23 +7016,23 @@
         <f t="shared" si="5"/>
         <v>8064</v>
       </c>
-      <c r="C102" s="60" t="s">
+      <c r="C102" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="D102" s="60" t="s">
+      <c r="D102" s="46" t="s">
         <v>259</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F102" s="63" t="s">
+      <c r="F102" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="G102" s="59" t="s">
+      <c r="G102" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="H102" s="62"/>
-      <c r="I102" s="73"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="52"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="7">
@@ -7028,15 +7042,15 @@
         <f t="shared" ref="B103:B166" si="6">DEC2HEX(A103)</f>
         <v>8065</v>
       </c>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="46"/>
       <c r="E103" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F103" s="63"/>
-      <c r="G103" s="60"/>
-      <c r="H103" s="62"/>
-      <c r="I103" s="73"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="52"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="7">
@@ -7046,21 +7060,21 @@
         <f t="shared" si="6"/>
         <v>8066</v>
       </c>
-      <c r="C104" s="60" t="s">
+      <c r="C104" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="D104" s="60" t="s">
+      <c r="D104" s="46" t="s">
         <v>260</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F104" s="60" t="s">
+      <c r="F104" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="G104" s="60"/>
-      <c r="H104" s="62"/>
-      <c r="I104" s="73"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="52"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="7">
@@ -7070,15 +7084,15 @@
         <f t="shared" si="6"/>
         <v>8067</v>
       </c>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
       <c r="E105" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F105" s="60"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="62"/>
-      <c r="I105" s="73"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="52"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="7">
@@ -7088,21 +7102,21 @@
         <f t="shared" si="6"/>
         <v>8068</v>
       </c>
-      <c r="C106" s="60" t="s">
+      <c r="C106" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D106" s="60" t="s">
+      <c r="D106" s="46" t="s">
         <v>261</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F106" s="60" t="s">
+      <c r="F106" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="G106" s="60"/>
-      <c r="H106" s="62"/>
-      <c r="I106" s="73"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="47"/>
+      <c r="I106" s="52"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="7">
@@ -7112,15 +7126,15 @@
         <f t="shared" si="6"/>
         <v>8069</v>
       </c>
-      <c r="C107" s="60"/>
-      <c r="D107" s="60"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
       <c r="E107" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F107" s="60"/>
-      <c r="G107" s="60"/>
-      <c r="H107" s="62"/>
-      <c r="I107" s="73"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="47"/>
+      <c r="I107" s="52"/>
     </row>
     <row r="108" spans="1:9" ht="14.4">
       <c r="A108" s="7">
@@ -7143,8 +7157,8 @@
       <c r="G108" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="H108" s="62"/>
-      <c r="I108" s="73"/>
+      <c r="H108" s="47"/>
+      <c r="I108" s="52"/>
     </row>
     <row r="109" spans="1:9" ht="14.4">
       <c r="A109" s="7">
@@ -7167,8 +7181,8 @@
       <c r="G109" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="H109" s="62"/>
-      <c r="I109" s="73"/>
+      <c r="H109" s="47"/>
+      <c r="I109" s="52"/>
     </row>
     <row r="110" spans="1:9" ht="14.4">
       <c r="A110" s="7">
@@ -7191,8 +7205,8 @@
       <c r="G110" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H110" s="62"/>
-      <c r="I110" s="73"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="52"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="7">
@@ -7202,21 +7216,21 @@
         <f t="shared" si="6"/>
         <v>806D</v>
       </c>
-      <c r="C111" s="60" t="s">
+      <c r="C111" s="46" t="s">
         <v>230</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="F111" s="60" t="s">
+      <c r="F111" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="G111" s="61" t="s">
+      <c r="G111" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="H111" s="62"/>
-      <c r="I111" s="73"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="52"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="7">
@@ -7226,15 +7240,15 @@
         <f t="shared" si="6"/>
         <v>806E</v>
       </c>
-      <c r="C112" s="60"/>
+      <c r="C112" s="46"/>
       <c r="D112" s="7"/>
       <c r="E112" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="F112" s="60"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="62"/>
-      <c r="I112" s="73"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="52"/>
     </row>
     <row r="113" spans="1:9" ht="16.8">
       <c r="A113" s="7">
@@ -7259,8 +7273,8 @@
       <c r="G113" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="H113" s="62"/>
-      <c r="I113" s="73"/>
+      <c r="H113" s="47"/>
+      <c r="I113" s="52"/>
     </row>
     <row r="114" spans="1:9" ht="14.4">
       <c r="A114" s="7">
@@ -7285,8 +7299,8 @@
       <c r="G114" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="H114" s="62"/>
-      <c r="I114" s="73"/>
+      <c r="H114" s="47"/>
+      <c r="I114" s="52"/>
     </row>
     <row r="115" spans="1:9" ht="14.4">
       <c r="A115" s="7">
@@ -7311,8 +7325,8 @@
       <c r="G115" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="H115" s="62"/>
-      <c r="I115" s="73"/>
+      <c r="H115" s="47"/>
+      <c r="I115" s="52"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="7">
@@ -7322,21 +7336,21 @@
         <f t="shared" si="6"/>
         <v>8072</v>
       </c>
-      <c r="C116" s="60" t="s">
+      <c r="C116" s="46" t="s">
         <v>233</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F116" s="60" t="s">
+      <c r="F116" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="G116" s="60" t="s">
+      <c r="G116" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="H116" s="62"/>
-      <c r="I116" s="73"/>
+      <c r="H116" s="47"/>
+      <c r="I116" s="52"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="7">
@@ -7346,15 +7360,15 @@
         <f t="shared" si="6"/>
         <v>8073</v>
       </c>
-      <c r="C117" s="60"/>
+      <c r="C117" s="46"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F117" s="60"/>
-      <c r="G117" s="60"/>
-      <c r="H117" s="62"/>
-      <c r="I117" s="73"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="47"/>
+      <c r="I117" s="52"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="7">
@@ -7364,15 +7378,15 @@
         <f t="shared" si="6"/>
         <v>8074</v>
       </c>
-      <c r="C118" s="60"/>
+      <c r="C118" s="46"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F118" s="60"/>
-      <c r="G118" s="60"/>
-      <c r="H118" s="62"/>
-      <c r="I118" s="73"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="47"/>
+      <c r="I118" s="52"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="7">
@@ -7382,15 +7396,15 @@
         <f t="shared" si="6"/>
         <v>8075</v>
       </c>
-      <c r="C119" s="60"/>
+      <c r="C119" s="46"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F119" s="60"/>
-      <c r="G119" s="60"/>
-      <c r="H119" s="62"/>
-      <c r="I119" s="73"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="47"/>
+      <c r="I119" s="52"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="7">
@@ -7400,15 +7414,15 @@
         <f t="shared" si="6"/>
         <v>8076</v>
       </c>
-      <c r="C120" s="60"/>
+      <c r="C120" s="46"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F120" s="60"/>
-      <c r="G120" s="60"/>
-      <c r="H120" s="62"/>
-      <c r="I120" s="73"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="47"/>
+      <c r="I120" s="52"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="7">
@@ -7418,15 +7432,15 @@
         <f t="shared" si="6"/>
         <v>8077</v>
       </c>
-      <c r="C121" s="60"/>
+      <c r="C121" s="46"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F121" s="60"/>
-      <c r="G121" s="60"/>
-      <c r="H121" s="62"/>
-      <c r="I121" s="73"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="47"/>
+      <c r="I121" s="52"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="7">
@@ -7436,15 +7450,15 @@
         <f t="shared" si="6"/>
         <v>8078</v>
       </c>
-      <c r="C122" s="60"/>
+      <c r="C122" s="46"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F122" s="60"/>
-      <c r="G122" s="60"/>
-      <c r="H122" s="62"/>
-      <c r="I122" s="73"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="47"/>
+      <c r="I122" s="52"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="7">
@@ -7454,15 +7468,15 @@
         <f t="shared" si="6"/>
         <v>8079</v>
       </c>
-      <c r="C123" s="60"/>
+      <c r="C123" s="46"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F123" s="60"/>
-      <c r="G123" s="60"/>
-      <c r="H123" s="62"/>
-      <c r="I123" s="73"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="47"/>
+      <c r="I123" s="52"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="7">
@@ -7472,15 +7486,15 @@
         <f t="shared" si="6"/>
         <v>807A</v>
       </c>
-      <c r="C124" s="60"/>
+      <c r="C124" s="46"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F124" s="60"/>
-      <c r="G124" s="60"/>
-      <c r="H124" s="62"/>
-      <c r="I124" s="73"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="52"/>
     </row>
     <row r="125" spans="1:9" ht="14.4">
       <c r="A125" s="7">
@@ -7505,8 +7519,8 @@
       <c r="G125" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="H125" s="62"/>
-      <c r="I125" s="73"/>
+      <c r="H125" s="47"/>
+      <c r="I125" s="52"/>
     </row>
     <row r="126" spans="1:9" ht="14.4">
       <c r="A126" s="7">
@@ -7531,8 +7545,8 @@
       <c r="G126" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="H126" s="62"/>
-      <c r="I126" s="73"/>
+      <c r="H126" s="47"/>
+      <c r="I126" s="52"/>
     </row>
     <row r="127" spans="1:9" ht="14.4">
       <c r="A127" s="7">
@@ -7557,8 +7571,8 @@
       <c r="G127" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H127" s="62"/>
-      <c r="I127" s="73"/>
+      <c r="H127" s="47"/>
+      <c r="I127" s="52"/>
     </row>
     <row r="128" spans="1:9" ht="14.4">
       <c r="A128" s="7">
@@ -7581,8 +7595,8 @@
       <c r="G128" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="H128" s="62"/>
-      <c r="I128" s="73"/>
+      <c r="H128" s="47"/>
+      <c r="I128" s="52"/>
     </row>
     <row r="129" spans="1:9" ht="14.4">
       <c r="A129" s="7">
@@ -7605,8 +7619,8 @@
       <c r="G129" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="H129" s="62"/>
-      <c r="I129" s="73"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="52"/>
     </row>
     <row r="130" spans="1:9" ht="14.4">
       <c r="A130" s="7">
@@ -7629,8 +7643,8 @@
       <c r="G130" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H130" s="62"/>
-      <c r="I130" s="73"/>
+      <c r="H130" s="47"/>
+      <c r="I130" s="52"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="7">
@@ -7640,25 +7654,25 @@
         <f t="shared" si="6"/>
         <v>8081</v>
       </c>
-      <c r="C131" s="60" t="s">
+      <c r="C131" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="D131" s="60" t="s">
+      <c r="D131" s="46" t="s">
         <v>216</v>
       </c>
       <c r="E131" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="F131" s="60" t="s">
+      <c r="F131" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="G131" s="61" t="s">
+      <c r="G131" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="H131" s="62" t="s">
+      <c r="H131" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="I131" s="73"/>
+      <c r="I131" s="52"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="7">
@@ -7668,15 +7682,15 @@
         <f t="shared" si="6"/>
         <v>8082</v>
       </c>
-      <c r="C132" s="60"/>
-      <c r="D132" s="60"/>
+      <c r="C132" s="46"/>
+      <c r="D132" s="46"/>
       <c r="E132" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="F132" s="60"/>
-      <c r="G132" s="60"/>
-      <c r="H132" s="62"/>
-      <c r="I132" s="73"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="46"/>
+      <c r="H132" s="47"/>
+      <c r="I132" s="52"/>
     </row>
     <row r="133" spans="1:9" ht="16.8">
       <c r="A133" s="7">
@@ -7701,8 +7715,8 @@
       <c r="G133" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="H133" s="62"/>
-      <c r="I133" s="73"/>
+      <c r="H133" s="47"/>
+      <c r="I133" s="52"/>
     </row>
     <row r="134" spans="1:9" ht="14.4">
       <c r="A134" s="7">
@@ -7727,8 +7741,8 @@
       <c r="G134" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H134" s="62"/>
-      <c r="I134" s="73"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="52"/>
     </row>
     <row r="135" spans="1:9" ht="14.4">
       <c r="A135" s="7">
@@ -7753,8 +7767,8 @@
       <c r="G135" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="H135" s="62"/>
-      <c r="I135" s="73"/>
+      <c r="H135" s="47"/>
+      <c r="I135" s="52"/>
     </row>
     <row r="136" spans="1:9" ht="14.4">
       <c r="A136" s="7">
@@ -7777,8 +7791,8 @@
       <c r="G136" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H136" s="62"/>
-      <c r="I136" s="73"/>
+      <c r="H136" s="47"/>
+      <c r="I136" s="52"/>
     </row>
     <row r="137" spans="1:9" ht="14.4">
       <c r="A137" s="7">
@@ -7803,8 +7817,8 @@
       <c r="G137" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="H137" s="62"/>
-      <c r="I137" s="73"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="52"/>
     </row>
     <row r="138" spans="1:9" ht="14.4">
       <c r="A138" s="7">
@@ -7829,8 +7843,8 @@
       <c r="G138" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="H138" s="62"/>
-      <c r="I138" s="73"/>
+      <c r="H138" s="47"/>
+      <c r="I138" s="52"/>
     </row>
     <row r="139" spans="1:9" ht="14.4">
       <c r="A139" s="7">
@@ -7855,8 +7869,8 @@
       <c r="G139" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="H139" s="62"/>
-      <c r="I139" s="73"/>
+      <c r="H139" s="47"/>
+      <c r="I139" s="52"/>
     </row>
     <row r="140" spans="1:9" ht="14.4">
       <c r="A140" s="7">
@@ -7881,8 +7895,8 @@
       <c r="G140" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="H140" s="62"/>
-      <c r="I140" s="73"/>
+      <c r="H140" s="47"/>
+      <c r="I140" s="52"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="7">
@@ -7892,23 +7906,23 @@
         <f t="shared" si="6"/>
         <v>808B</v>
       </c>
-      <c r="C141" s="60" t="s">
+      <c r="C141" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="D141" s="60" t="s">
+      <c r="D141" s="46" t="s">
         <v>309</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F141" s="61" t="s">
+      <c r="F141" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="G141" s="59" t="s">
+      <c r="G141" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="H141" s="62"/>
-      <c r="I141" s="73"/>
+      <c r="H141" s="47"/>
+      <c r="I141" s="52"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="7">
@@ -7918,15 +7932,15 @@
         <f t="shared" si="6"/>
         <v>808C</v>
       </c>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="46"/>
       <c r="E142" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F142" s="60"/>
-      <c r="G142" s="60"/>
-      <c r="H142" s="62"/>
-      <c r="I142" s="73"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="46"/>
+      <c r="H142" s="47"/>
+      <c r="I142" s="52"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="7">
@@ -7936,23 +7950,23 @@
         <f t="shared" si="6"/>
         <v>808D</v>
       </c>
-      <c r="C143" s="60" t="s">
+      <c r="C143" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="D143" s="60" t="s">
+      <c r="D143" s="46" t="s">
         <v>310</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F143" s="61" t="s">
+      <c r="F143" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="G143" s="59" t="s">
+      <c r="G143" s="63" t="s">
         <v>307</v>
       </c>
-      <c r="H143" s="62"/>
-      <c r="I143" s="73"/>
+      <c r="H143" s="47"/>
+      <c r="I143" s="52"/>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="7">
@@ -7962,15 +7976,15 @@
         <f t="shared" si="6"/>
         <v>808E</v>
       </c>
-      <c r="C144" s="60"/>
-      <c r="D144" s="60"/>
+      <c r="C144" s="46"/>
+      <c r="D144" s="46"/>
       <c r="E144" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F144" s="60"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="62"/>
-      <c r="I144" s="73"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="47"/>
+      <c r="I144" s="52"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="7">
@@ -7980,23 +7994,23 @@
         <f t="shared" si="6"/>
         <v>808F</v>
       </c>
-      <c r="C145" s="60" t="s">
+      <c r="C145" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="D145" s="60" t="s">
+      <c r="D145" s="46" t="s">
         <v>311</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F145" s="61" t="s">
+      <c r="F145" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="G145" s="59" t="s">
+      <c r="G145" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="H145" s="62"/>
-      <c r="I145" s="73"/>
+      <c r="H145" s="47"/>
+      <c r="I145" s="52"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="7">
@@ -8006,15 +8020,15 @@
         <f t="shared" si="6"/>
         <v>8090</v>
       </c>
-      <c r="C146" s="60"/>
-      <c r="D146" s="60"/>
+      <c r="C146" s="46"/>
+      <c r="D146" s="46"/>
       <c r="E146" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="F146" s="60"/>
-      <c r="G146" s="59"/>
-      <c r="H146" s="62"/>
-      <c r="I146" s="73"/>
+      <c r="F146" s="46"/>
+      <c r="G146" s="63"/>
+      <c r="H146" s="47"/>
+      <c r="I146" s="52"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="7">
@@ -8024,25 +8038,25 @@
         <f t="shared" si="6"/>
         <v>8091</v>
       </c>
-      <c r="C147" s="60" t="s">
+      <c r="C147" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="D147" s="60" t="s">
+      <c r="D147" s="46" t="s">
         <v>216</v>
       </c>
       <c r="E147" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="F147" s="60" t="s">
+      <c r="F147" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="G147" s="61" t="s">
+      <c r="G147" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="H147" s="62" t="s">
+      <c r="H147" s="47" t="s">
         <v>330</v>
       </c>
-      <c r="I147" s="73"/>
+      <c r="I147" s="52"/>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="7">
@@ -8052,15 +8066,15 @@
         <f t="shared" si="6"/>
         <v>8092</v>
       </c>
-      <c r="C148" s="60"/>
-      <c r="D148" s="60"/>
+      <c r="C148" s="46"/>
+      <c r="D148" s="46"/>
       <c r="E148" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="F148" s="60"/>
-      <c r="G148" s="61"/>
-      <c r="H148" s="62"/>
-      <c r="I148" s="73"/>
+      <c r="F148" s="46"/>
+      <c r="G148" s="48"/>
+      <c r="H148" s="47"/>
+      <c r="I148" s="52"/>
     </row>
     <row r="149" spans="1:9" ht="16.8">
       <c r="A149" s="7">
@@ -8085,8 +8099,8 @@
       <c r="G149" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="H149" s="62"/>
-      <c r="I149" s="73"/>
+      <c r="H149" s="47"/>
+      <c r="I149" s="52"/>
     </row>
     <row r="150" spans="1:9" ht="14.4">
       <c r="A150" s="7">
@@ -8109,8 +8123,8 @@
       <c r="G150" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="H150" s="62"/>
-      <c r="I150" s="73"/>
+      <c r="H150" s="47"/>
+      <c r="I150" s="52"/>
     </row>
     <row r="151" spans="1:9" ht="14.4">
       <c r="A151" s="7">
@@ -8133,8 +8147,8 @@
       <c r="G151" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="H151" s="62"/>
-      <c r="I151" s="73"/>
+      <c r="H151" s="47"/>
+      <c r="I151" s="52"/>
     </row>
     <row r="152" spans="1:9" ht="14.4">
       <c r="A152" s="7">
@@ -8157,8 +8171,8 @@
       <c r="G152" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="H152" s="62"/>
-      <c r="I152" s="73"/>
+      <c r="H152" s="47"/>
+      <c r="I152" s="52"/>
     </row>
     <row r="153" spans="1:9" ht="14.4">
       <c r="A153" s="7">
@@ -8181,8 +8195,8 @@
       <c r="G153" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="H153" s="62"/>
-      <c r="I153" s="73"/>
+      <c r="H153" s="47"/>
+      <c r="I153" s="52"/>
     </row>
     <row r="154" spans="1:9" ht="14.4">
       <c r="A154" s="7">
@@ -8205,8 +8219,8 @@
       <c r="G154" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="H154" s="62"/>
-      <c r="I154" s="73"/>
+      <c r="H154" s="47"/>
+      <c r="I154" s="52"/>
     </row>
     <row r="155" spans="1:9" ht="14.4">
       <c r="A155" s="7">
@@ -8229,8 +8243,8 @@
       <c r="G155" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="H155" s="62"/>
-      <c r="I155" s="73"/>
+      <c r="H155" s="47"/>
+      <c r="I155" s="52"/>
     </row>
     <row r="156" spans="1:9" ht="14.4">
       <c r="A156" s="7">
@@ -8255,10 +8269,10 @@
       <c r="G156" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="H156" s="62" t="s">
+      <c r="H156" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="I156" s="73"/>
+      <c r="I156" s="52"/>
     </row>
     <row r="157" spans="1:9" ht="14.4">
       <c r="A157" s="7">
@@ -8281,8 +8295,8 @@
       <c r="G157" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="H157" s="62"/>
-      <c r="I157" s="73"/>
+      <c r="H157" s="47"/>
+      <c r="I157" s="52"/>
     </row>
     <row r="158" spans="1:9" ht="14.4">
       <c r="A158" s="7">
@@ -8305,8 +8319,8 @@
       <c r="G158" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="H158" s="62"/>
-      <c r="I158" s="73"/>
+      <c r="H158" s="47"/>
+      <c r="I158" s="52"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="7">
@@ -8316,17 +8330,17 @@
         <f t="shared" si="6"/>
         <v>809D</v>
       </c>
-      <c r="C159" s="47" t="s">
+      <c r="C159" s="65" t="s">
         <v>417</v>
       </c>
       <c r="D159" s="37"/>
       <c r="E159" s="37"/>
-      <c r="F159" s="54"/>
+      <c r="F159" s="72"/>
       <c r="G159" s="27"/>
-      <c r="H159" s="51" t="s">
+      <c r="H159" s="69" t="s">
         <v>421</v>
       </c>
-      <c r="I159" s="74"/>
+      <c r="I159" s="53"/>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="7">
@@ -8336,12 +8350,12 @@
         <f t="shared" si="6"/>
         <v>809E</v>
       </c>
-      <c r="C160" s="48"/>
+      <c r="C160" s="66"/>
       <c r="D160" s="32"/>
       <c r="E160" s="32"/>
-      <c r="F160" s="55"/>
+      <c r="F160" s="73"/>
       <c r="G160" s="32"/>
-      <c r="H160" s="52"/>
+      <c r="H160" s="70"/>
       <c r="I160" s="36"/>
     </row>
     <row r="161" spans="1:9">
@@ -8352,13 +8366,13 @@
         <f t="shared" si="6"/>
         <v>809F</v>
       </c>
-      <c r="C161" s="49" t="s">
+      <c r="C161" s="67" t="s">
         <v>418</v>
       </c>
       <c r="D161" s="32"/>
-      <c r="F161" s="55"/>
+      <c r="F161" s="73"/>
       <c r="G161" s="32"/>
-      <c r="H161" s="52"/>
+      <c r="H161" s="70"/>
       <c r="I161" s="36"/>
     </row>
     <row r="162" spans="1:9">
@@ -8369,12 +8383,12 @@
         <f t="shared" si="6"/>
         <v>80A0</v>
       </c>
-      <c r="C162" s="50"/>
+      <c r="C162" s="68"/>
       <c r="D162" s="32"/>
       <c r="E162" s="32"/>
-      <c r="F162" s="55"/>
+      <c r="F162" s="73"/>
       <c r="G162" s="32"/>
-      <c r="H162" s="52"/>
+      <c r="H162" s="70"/>
       <c r="I162" s="36"/>
     </row>
     <row r="163" spans="1:9">
@@ -8385,14 +8399,14 @@
         <f t="shared" si="6"/>
         <v>80A1</v>
       </c>
-      <c r="C163" s="49" t="s">
+      <c r="C163" s="67" t="s">
         <v>419</v>
       </c>
       <c r="D163" s="32"/>
       <c r="E163" s="32"/>
-      <c r="F163" s="55"/>
+      <c r="F163" s="73"/>
       <c r="G163" s="32"/>
-      <c r="H163" s="52"/>
+      <c r="H163" s="70"/>
       <c r="I163" s="36"/>
     </row>
     <row r="164" spans="1:9">
@@ -8403,12 +8417,12 @@
         <f t="shared" si="6"/>
         <v>80A2</v>
       </c>
-      <c r="C164" s="50"/>
+      <c r="C164" s="68"/>
       <c r="D164" s="37"/>
       <c r="E164" s="37"/>
-      <c r="F164" s="56"/>
+      <c r="F164" s="74"/>
       <c r="G164" s="37"/>
-      <c r="H164" s="53"/>
+      <c r="H164" s="71"/>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="7">
@@ -8608,7 +8622,7 @@
         <f t="shared" si="8"/>
         <v>80AE</v>
       </c>
-      <c r="C176" s="57" t="s">
+      <c r="C176" s="55" t="s">
         <v>333</v>
       </c>
       <c r="D176" s="27"/>
@@ -8630,7 +8644,7 @@
         <f t="shared" si="8"/>
         <v>80AF</v>
       </c>
-      <c r="C177" s="58"/>
+      <c r="C177" s="57"/>
       <c r="D177" s="27"/>
       <c r="E177" s="27"/>
       <c r="F177" s="27"/>
@@ -8999,7 +9013,7 @@
       <c r="G191" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="H191" s="46" t="s">
+      <c r="H191" s="64" t="s">
         <v>426</v>
       </c>
       <c r="I191" s="42"/>
@@ -9021,7 +9035,7 @@
       <c r="G192" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="H192" s="46"/>
+      <c r="H192" s="64"/>
       <c r="I192" s="15"/>
     </row>
     <row r="193" spans="1:9" ht="14.4">
@@ -9041,7 +9055,7 @@
       <c r="G193" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="H193" s="46"/>
+      <c r="H193" s="64"/>
       <c r="I193" s="15"/>
     </row>
     <row r="194" spans="1:9" ht="14.4">
@@ -9166,10 +9180,10 @@
       <c r="G200" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="H200" s="71" t="s">
+      <c r="H200" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="I200" s="72"/>
+      <c r="I200" s="51"/>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="14"/>
@@ -9206,8 +9220,12 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="14"/>
-      <c r="B204" s="14"/>
-      <c r="C204" s="15"/>
+      <c r="B204" s="75" t="s">
+        <v>437</v>
+      </c>
+      <c r="C204" s="76" t="s">
+        <v>438</v>
+      </c>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
       <c r="F204" s="15"/>
@@ -10493,49 +10511,12 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="H131:H146"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="G147:G148"/>
-    <mergeCell ref="H77:H83"/>
-    <mergeCell ref="H94:H98"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="H156:H158"/>
-    <mergeCell ref="H147:H155"/>
-    <mergeCell ref="I89:I159"/>
-    <mergeCell ref="G94:G98"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I25"/>
-    <mergeCell ref="I26:I84"/>
-    <mergeCell ref="C85:I88"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="H31:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="H9:H24"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="H50:H57"/>
-    <mergeCell ref="H58:H66"/>
-    <mergeCell ref="H67:H76"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C116:C124"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="H159:H164"/>
+    <mergeCell ref="F159:F164"/>
     <mergeCell ref="C147:C148"/>
     <mergeCell ref="H99:H130"/>
     <mergeCell ref="D102:D103"/>
@@ -10552,20 +10533,57 @@
     <mergeCell ref="F131:F132"/>
     <mergeCell ref="G131:G132"/>
     <mergeCell ref="D131:D132"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I25"/>
+    <mergeCell ref="I26:I84"/>
+    <mergeCell ref="C85:I88"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H9:H24"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="H50:H57"/>
+    <mergeCell ref="H58:H66"/>
+    <mergeCell ref="H67:H76"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="H147:H155"/>
+    <mergeCell ref="I89:I159"/>
+    <mergeCell ref="G94:G98"/>
+    <mergeCell ref="G99:G100"/>
     <mergeCell ref="G141:G142"/>
-    <mergeCell ref="D141:D142"/>
     <mergeCell ref="G143:G144"/>
     <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H191:H193"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="G147:G148"/>
+    <mergeCell ref="H77:H83"/>
+    <mergeCell ref="H94:H98"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="D141:D142"/>
     <mergeCell ref="F141:F142"/>
     <mergeCell ref="F143:F144"/>
     <mergeCell ref="F145:F146"/>
-    <mergeCell ref="H191:H193"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="H159:H164"/>
-    <mergeCell ref="F159:F164"/>
-    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="H131:H146"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C116:C124"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C145:C146"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
